--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪" sheetId="1" r:id="rId1"/>
     <sheet name="怪物一览" sheetId="2" r:id="rId2"/>
     <sheet name="怪物投放规划" sheetId="3" r:id="rId3"/>
+    <sheet name="通天塔玩法梯度规划" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="606">
   <si>
     <t>森林</t>
   </si>
@@ -2114,13 +2115,190 @@
   <si>
     <t>鸡肋（一些1星宠的换色）</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前主要考虑是一些1星怪物的各种颜色，属性和技能均很坑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.目前配置仅支持一种材料宠，若改为5只则需要修改配置逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.五种属性的材料宠特殊规则逻辑需要清晰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试练塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法较轻，无特殊需求应对玩法和普通剧情本较相似</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加少量玩法，主要考玩家怪物广度，不对玩家宠物战力做过多需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要考验玩法项：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫：需求玩家法术怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法免疫：需求玩家物理怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多应对玩法且需求宠物战力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求战力和多D——需求战斗时间：玩家需要多D多输出，在一定回合内，将boss捏死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求玩家手动操作（玩法向）——攻击顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做过多需求，比试练塔前期多需求战力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss每回合回血：需求玩家每回合伤害&gt;boss回血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求玩家优先集火怪物（驱散也可以）：攻击特殊怪物削减对面整体战力（比如这只怪物能够上buff，剩下的怪物对拥有buff的怪物伤害加倍）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力需求较高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过场地buff需求：水火木光暗不同种类的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求玩家操作+战力+怪物广度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后可以很变态需求涅槃怪物：群秒后很垃圾的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求玩家怪物多应对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求T嘲讽住伤害或承受住伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求单体爆发D（考验玩家释放大招和怪物深度）：XX%血以下回满血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过场地buff：需求不同属性怪物（怪物广度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求玩家集火或驱散：小怪T群嘲讽，玩家需要在有限空隙刺杀DPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方给我方群体减益buff减益效果较大（力量，智力，防御力）</t>
+  </si>
+  <si>
+    <t>清除己方dot，debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除对方增益效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方群体/单体大hot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方群体/单体增益buff增益效果较大（力量，智力，防御力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后攻击中间的怪物等（中间怪物脆皮且死亡反应为大伤害）</t>
+  </si>
+  <si>
+    <t>攻击特殊怪物削减对面整体战力（比如这只怪物能够上buff，剩下的怪物对拥有buff的怪物伤害加倍）</t>
+  </si>
+  <si>
+    <t>比如攻击草属性的的为群体大加血（给玩家），攻击火属性的为群体大伤害（给玩家）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求己方群体回血：boss多AOE,敌方反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现为加强该属性怪物或削弱其他属性怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求禁止回血怪物：魔灵召唤风属性地下城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方群体高伤害dot，bomb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求玩家打断boss大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求魔法D+物理D：一会物免，一会魔免（需求玩家换怪）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2199,6 +2377,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2276,7 +2462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2421,6 +2607,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5220,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P289"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6468,7 +6660,7 @@
         <v>305</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>306</v>
+        <v>561</v>
       </c>
       <c r="K114" s="21" t="s">
         <v>327</v>
@@ -7520,10 +7712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8478,241 +8670,251 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C62" s="28">
         <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K62" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
+      <c r="B63" s="18" t="s">
+        <v>535</v>
+      </c>
       <c r="D63" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M63" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
-      <c r="B64" s="18" t="s">
-        <v>550</v>
-      </c>
       <c r="D64" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="J64" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K64" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M64" s="28" t="s">
-        <v>380</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M65" s="28" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
-      <c r="B66" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="J66" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K66" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M66" s="28" t="s">
-        <v>380</v>
-      </c>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M67" s="28" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="J68" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M68" s="28" t="s">
-        <v>380</v>
-      </c>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
+      <c r="B69" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M69" s="28" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
-      <c r="B70" s="21" t="s">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D71" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F71" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="G71" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="H70" s="21" t="s">
+      <c r="H71" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I71" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J71" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="K70" s="28" t="s">
+      <c r="K71" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="M70" s="28" t="s">
+      <c r="M71" s="28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C72" s="28">
         <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="D72" s="28" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
+      <c r="B73" s="28" t="s">
+        <v>562</v>
+      </c>
       <c r="D73" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="D74" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
+      <c r="D75" s="28" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="29"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C77" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
+      <c r="B78" s="28" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
+      <c r="B79" s="28" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="29"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="C81" s="28">
-        <f>SUM(C3:C76)</f>
+      <c r="C82" s="28">
+        <f>SUM(C3:C77)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
@@ -8725,6 +8927,285 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="9" style="52"/>
+    <col min="3" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="52" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="52" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="52" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D27" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D28" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D29" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="52" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C32" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D33" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D34" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F35" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F39" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G41" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="52" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C46" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C48" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D49" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D50" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C51" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="52" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C54" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C55" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D56" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D57" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D58" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -2,32 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="3"/>
+    <workbookView xWindow="2775" yWindow="840" windowWidth="36705" windowHeight="18345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物一览" sheetId="2" r:id="rId2"/>
-    <sheet name="怪物投放规划" sheetId="3" r:id="rId3"/>
-    <sheet name="通天塔玩法梯度规划" sheetId="4" r:id="rId4"/>
+    <sheet name="副本布怪MT试算" sheetId="4" r:id="rId2"/>
+    <sheet name="怪物一览" sheetId="2" r:id="rId3"/>
+    <sheet name="怪物投放规划" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="669">
   <si>
     <t>森林</t>
   </si>
@@ -2117,180 +2120,380 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>增益buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前主要考虑是一些1星怪物的各种颜色，属性和技能均很坑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.目前配置仅支持一种材料宠，若改为5只则需要修改配置逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.五种属性的材料宠特殊规则逻辑需要清晰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法规划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>试练塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法较轻，无特殊需求应对玩法和普通剧情本较相似</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加少量玩法，主要考玩家怪物广度，不对玩家宠物战力做过多需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要考验玩法项：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫：需求玩家法术怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法免疫：需求玩家物理怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多应对玩法且需求宠物战力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求战力和多D——需求战斗时间：玩家需要多D多输出，在一定回合内，将boss捏死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求玩家手动操作（玩法向）——攻击顺序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做过多需求，比试练塔前期多需求战力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss每回合回血：需求玩家每回合伤害&gt;boss回血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求玩家优先集火怪物（驱散也可以）：攻击特殊怪物削减对面整体战力（比如这只怪物能够上buff，剩下的怪物对拥有buff的怪物伤害加倍）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝望塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力需求较高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过场地buff需求：水火木光暗不同种类的怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求玩家操作+战力+怪物广度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后可以很变态需求涅槃怪物：群秒后很垃圾的怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求玩家怪物多应对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求T嘲讽住伤害或承受住伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求单体爆发D（考验玩家释放大招和怪物深度）：XX%血以下回满血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过场地buff：需求不同属性怪物（怪物广度）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求玩家集火或驱散：小怪T群嘲讽，玩家需要在有限空隙刺杀DPS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方给我方群体减益buff减益效果较大（力量，智力，防御力）</t>
-  </si>
-  <si>
-    <t>清除己方dot，debuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除对方增益效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方群体/单体大hot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方群体/单体增益buff增益效果较大（力量，智力，防御力）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后攻击中间的怪物等（中间怪物脆皮且死亡反应为大伤害）</t>
-  </si>
-  <si>
-    <t>攻击特殊怪物削减对面整体战力（比如这只怪物能够上buff，剩下的怪物对拥有buff的怪物伤害加倍）</t>
-  </si>
-  <si>
-    <t>比如攻击草属性的的为群体大加血（给玩家），攻击火属性的为群体大伤害（给玩家）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求己方群体回血：boss多AOE,敌方反伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现为加强该属性怪物或削弱其他属性怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求禁止回血怪物：魔灵召唤风属性地下城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方群体高伤害dot，bomb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求玩家打断boss大招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求魔法D+物理D：一会物免，一会魔免（需求玩家换怪）</t>
+    <t>蓝法D</t>
+  </si>
+  <si>
+    <t>红法D</t>
+  </si>
+  <si>
+    <t>黑法D</t>
+  </si>
+  <si>
+    <t>黑S</t>
+  </si>
+  <si>
+    <t>白S（7）</t>
+  </si>
+  <si>
+    <t>蓝T</t>
+  </si>
+  <si>
+    <t>黑物</t>
+  </si>
+  <si>
+    <t>红法</t>
+  </si>
+  <si>
+    <t>黑妨害</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>改动</t>
+  </si>
+  <si>
+    <t>改为</t>
+  </si>
+  <si>
+    <t>新1 蓝法D</t>
+  </si>
+  <si>
+    <t>新1 红法D</t>
+  </si>
+  <si>
+    <t>新2 黑法D</t>
+  </si>
+  <si>
+    <t>2 星 小丑 绿法D</t>
+  </si>
+  <si>
+    <t>2 星 小丑 蓝法D</t>
+  </si>
+  <si>
+    <t>绿法D （无）</t>
+  </si>
+  <si>
+    <t>蓝法D （无）</t>
+  </si>
+  <si>
+    <t>皮影 黑bomb</t>
+  </si>
+  <si>
+    <t>黑bomb</t>
+  </si>
+  <si>
+    <t>小丑（红法D）</t>
+  </si>
+  <si>
+    <t>落新妇（换白）</t>
+  </si>
+  <si>
+    <t>皮影（换白）</t>
+  </si>
+  <si>
+    <t>龙女（换白）</t>
+  </si>
+  <si>
+    <t>新3白</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>新4白</t>
+  </si>
+  <si>
+    <t>换新4红</t>
+  </si>
+  <si>
+    <t>换新3蓝</t>
+  </si>
+  <si>
+    <t>换火鸟 蓝</t>
+  </si>
+  <si>
+    <t>换温迪戈 绿</t>
+  </si>
+  <si>
+    <t>伪天使（白）</t>
+  </si>
+  <si>
+    <t>女妖（白）</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>小怪</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>新1 （蓝法D）</t>
+  </si>
+  <si>
+    <t>新1 （红法D）</t>
+  </si>
+  <si>
+    <t>新2（黑法D）</t>
+  </si>
+  <si>
+    <t>河童（蓝提升S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺壳（红T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀罗（绿法H）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宫童子（蓝H）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得莫非（白H）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯（黑妨害Ｓ）</t>
+  </si>
+  <si>
+    <t>冰岩（蓝T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人（黑物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鬼（蓝控s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇（黑物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖（黑法D妨害S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯（黑妨害S）</t>
+  </si>
+  <si>
+    <t>温迪戈（绿）</t>
+  </si>
+  <si>
+    <t>新2（红法D）</t>
+  </si>
+  <si>
+    <t>温迪戈 （蓝物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑 （绿法D)</t>
+  </si>
+  <si>
+    <t>伪天使（黑S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红牛（红T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道成寺钟（红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人（蓝T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸟（红s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道成寺钟（红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红牛（红T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新4 红</t>
+  </si>
+  <si>
+    <t>安普沙（黑S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙利特（红物dot）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙利特（红物dot）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宫童子（蓝H）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人（黑物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑 (蓝法D)</t>
+  </si>
+  <si>
+    <t>火鸟 （蓝）</t>
+  </si>
+  <si>
+    <t>嫦娥（白）</t>
+  </si>
+  <si>
+    <t>新3 蓝</t>
+  </si>
+  <si>
+    <t>嫦娥（黑法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇（黑物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆特（蓝T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑 （红法D）</t>
+  </si>
+  <si>
+    <t>冰龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽（黑S+dot）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙利特（黑物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影（黑bomb）</t>
+  </si>
+  <si>
+    <t>卡戎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树灵</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新3 蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新1 （蓝法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新1 （红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新1 （红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影（黑bomb）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新2（黑法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯（黑妨害S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新2（黑法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新1 （蓝法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新4 红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新4 红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑 （红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新2（黑法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑 （绿法D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸟 （蓝）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞狮（蓝法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘神（绿物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落新妇（黑法dot）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2378,15 +2581,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2423,8 +2625,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2450,6 +2664,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2462,7 +2713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2584,6 +2835,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2608,10 +2902,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3860,7 +4160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4122,26 +4422,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I70"/>
+  <dimension ref="B1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="182" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="9" style="10"/>
+    <col min="1" max="1" width="8.875" style="10"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="4" width="8.875" style="10"/>
     <col min="5" max="5" width="16.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="10"/>
+    <col min="6" max="6" width="8.875" style="10"/>
     <col min="7" max="7" width="16.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="8" max="8" width="7.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.875" style="10"/>
+    <col min="14" max="14" width="12.5" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14" t="s">
@@ -4163,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
@@ -4171,9 +4473,15 @@
       <c r="F2" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
+      <c r="L2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4197,9 +4505,24 @@
       <c r="I3" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="44"/>
+      <c r="L3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="59"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4221,9 +4544,24 @@
       <c r="I4" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="44"/>
+      <c r="L4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="59"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4245,9 +4583,24 @@
       <c r="I5" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="44"/>
+      <c r="L5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="59"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -4270,8 +4623,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="44"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="59"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -4293,9 +4646,12 @@
       <c r="I7" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="44"/>
+      <c r="L7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="59"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4317,9 +4673,24 @@
       <c r="I8" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="44"/>
+      <c r="L8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="59"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -4342,8 +4713,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45"/>
+    <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="60"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -4361,9 +4732,12 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="47" t="s">
+      <c r="L10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -4387,9 +4761,24 @@
       <c r="I11" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="44"/>
+      <c r="L11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="59"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -4412,8 +4801,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="44"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="59"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -4435,9 +4824,24 @@
       <c r="I13" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="44"/>
+      <c r="L13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>579</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="59"/>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -4459,9 +4863,21 @@
       <c r="I14" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="44"/>
+      <c r="L14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="59"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4484,8 +4900,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="44"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="59"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4508,8 +4924,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="44"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="59"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -4532,8 +4948,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
+    <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="60"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -4556,8 +4972,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -4581,9 +4997,12 @@
       <c r="I19" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="49"/>
+      <c r="J19" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="64"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -4606,8 +5025,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="49"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="64"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
@@ -4630,8 +5049,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="49"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="64"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -4654,8 +5073,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="49"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="64"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -4678,8 +5097,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="49"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="64"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -4702,8 +5121,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="49"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="64"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -4726,8 +5145,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="65"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -4750,8 +5169,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="47" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -4776,8 +5195,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="44"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="59"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -4800,8 +5219,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="44"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="59"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -4824,8 +5243,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="44"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="59"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -4848,8 +5267,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="44"/>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="59"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -4869,11 +5288,11 @@
         <v>79</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="44"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="59"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -4895,9 +5314,12 @@
       <c r="I32" s="41" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="44"/>
+      <c r="J32" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="59"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -4920,8 +5342,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45"/>
+    <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="60"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -4944,8 +5366,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="47" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -4970,8 +5392,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="44"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="59"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -4994,8 +5416,8 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="44"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="59"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -5018,8 +5440,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="44"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="59"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -5042,8 +5464,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="44"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="59"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -5065,9 +5487,12 @@
       <c r="I39" s="40" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="44"/>
+      <c r="J39" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="59"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -5089,9 +5514,12 @@
       <c r="I40" s="18" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="44"/>
+      <c r="J40" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="59"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -5114,8 +5542,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="45"/>
+    <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="60"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
@@ -5138,8 +5566,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="47" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -5164,8 +5592,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="44"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="59"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -5188,8 +5616,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="44"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="59"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -5212,8 +5640,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="59"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -5236,8 +5664,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="44"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="59"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -5260,8 +5688,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="44"/>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="59"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -5285,7 +5713,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="44"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -5309,7 +5737,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="45"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -5333,52 +5761,76 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="43"/>
+      <c r="B51" s="58"/>
+      <c r="I51" s="10" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="44"/>
+      <c r="B52" s="59"/>
+      <c r="I52" s="10" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="44"/>
+      <c r="B53" s="59"/>
+      <c r="I53" s="10" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="44"/>
+      <c r="B54" s="59"/>
+      <c r="I54" s="10" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="44"/>
+      <c r="B55" s="59"/>
+      <c r="I55" s="10" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="44"/>
+      <c r="B56" s="59"/>
+      <c r="I56" s="10" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="44"/>
+      <c r="B57" s="59"/>
+      <c r="I57" s="10" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="45"/>
+      <c r="B58" s="60"/>
+      <c r="I58" s="10" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="46"/>
+      <c r="B59" s="61"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="46"/>
+      <c r="B60" s="61"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="46"/>
+      <c r="B61" s="61"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="46"/>
+      <c r="B62" s="61"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="46"/>
+      <c r="B63" s="61"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="46"/>
+      <c r="B64" s="61"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="46"/>
+      <c r="B65" s="61"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="46"/>
+      <c r="B66" s="61"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
@@ -5410,26 +5862,2712 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="10"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="4" width="8.875" style="10"/>
+    <col min="5" max="5" width="16.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="10"/>
+    <col min="7" max="7" width="16.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="10" customWidth="1"/>
+    <col min="11" max="12" width="8.875" style="10"/>
+    <col min="13" max="13" width="8.875" style="8"/>
+    <col min="14" max="14" width="16.625" style="8" customWidth="1"/>
+    <col min="15" max="18" width="8.875" style="48"/>
+    <col min="19" max="21" width="8.875" style="10"/>
+    <col min="22" max="22" width="12.5" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="8.875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>600</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="48">
+        <f>COUNTIF($D$3:$G$58,K3)</f>
+        <v>37</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="O3" s="48">
+        <f>COUNTIF($E$3:$G$58,N3)</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="48">
+        <f>COUNTIF($H$3:$H$58,P3)</f>
+        <v>10</v>
+      </c>
+      <c r="R3" s="48">
+        <f>COUNTIF($I$3:$I$58,N3)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="W3" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="X3" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B4" s="59"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="48">
+        <f>COUNTIF($D$3:$G$58,K4)</f>
+        <v>37</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>600</v>
+      </c>
+      <c r="O4" s="48">
+        <f t="shared" ref="O4:O59" si="0">COUNTIF($E$3:$G$58,N4)</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="48">
+        <f t="shared" ref="Q4" si="1">COUNTIF($H$3:$H$58,P4)</f>
+        <v>22</v>
+      </c>
+      <c r="R4" s="48">
+        <f t="shared" ref="R4:R59" si="2">COUNTIF($I$3:$I$58,N4)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="X4" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="59"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>654</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="48">
+        <f t="shared" ref="L5" si="3">COUNTIF($D$3:$G$58,K5)</f>
+        <v>22</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="48">
+        <f>COUNTIF($H$3:$H$58,P5)</f>
+        <v>17</v>
+      </c>
+      <c r="R5" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="59"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>653</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="O6" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="48">
+        <f>COUNTIF($H$3:$H$58,P6)</f>
+        <v>7</v>
+      </c>
+      <c r="R6" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B7" s="59"/>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R7" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B8" s="59"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="O8" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B9" s="59"/>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="M9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R9" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="60"/>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B11" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R11" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B12" s="59"/>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>662</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B13" s="59"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>579</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B14" s="59"/>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="O14" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="V14" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="59"/>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="O15" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B16" s="59"/>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="O16" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="59"/>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="60"/>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>663</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54">
+        <f>SUM(O3:O17)</f>
+        <v>36</v>
+      </c>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="55">
+        <f>SUM(R3:R17)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="64"/>
+      <c r="C20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N20" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="O20" s="48">
+        <f>COUNTIF($E$3:$G$58,N20)</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="R20" s="48">
+        <f>COUNTIF($I$3:$I$58,N20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="64"/>
+      <c r="C21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>615</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="O21" s="48">
+        <f>COUNTIF($E$3:$G$58,N21)</f>
+        <v>4</v>
+      </c>
+      <c r="R21" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="64"/>
+      <c r="C22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="O22" s="48">
+        <f>COUNTIF($E$3:$G$58,N22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="64"/>
+      <c r="C23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="O23" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="64"/>
+      <c r="C24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="M24" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="O24" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R24" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="64"/>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="M25" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="O25" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="65"/>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="M26" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R26" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="O27" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R27" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="59"/>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="M28" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="O28" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="59"/>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="M29" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R29" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="59"/>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="M30" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="O30" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R30" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B31" s="59"/>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="M31" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O31" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R31" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="59"/>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>660</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N32" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="O32" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="59"/>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="M33" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="O33" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R33" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="60"/>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>616</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="M34" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="O34" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="M35" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O35" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="59"/>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="M36" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="O36" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="59"/>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="M37" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N37" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="O37" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="59"/>
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="M38" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="O38" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="59"/>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="J39" s="40"/>
+      <c r="M39" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N39" s="51" t="s">
+        <v>638</v>
+      </c>
+      <c r="O39" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="59"/>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="M40" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N40" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="O40" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="59"/>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="M41" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="O41" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="60"/>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>637</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="M42" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="O42" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="M43" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="N43" s="53"/>
+      <c r="O43" s="54">
+        <f>SUM(O20:O42)</f>
+        <v>38</v>
+      </c>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="55">
+        <f>SUM(R20:R42)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B44" s="59"/>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="59"/>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="M45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N45" s="57" t="s">
+        <v>637</v>
+      </c>
+      <c r="O45" s="48">
+        <f>COUNTIF($E$3:$G$58,N45)</f>
+        <v>1</v>
+      </c>
+      <c r="R45" s="48">
+        <f>COUNTIF($I$3:$I$58,N45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B46" s="59"/>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="M46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="O46" s="48">
+        <f t="shared" ref="O46:O48" si="4">COUNTIF($E$3:$G$58,N46)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="48">
+        <f t="shared" ref="R46:R48" si="5">COUNTIF($I$3:$I$58,N46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B47" s="59"/>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="M47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" s="57" t="s">
+        <v>627</v>
+      </c>
+      <c r="O47" s="48">
+        <f>COUNTIF($E$3:$G$58,N47)</f>
+        <v>1</v>
+      </c>
+      <c r="R47" s="48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B48" s="59"/>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="O48" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B49" s="59"/>
+      <c r="C49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="M49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O49" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R49" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="60"/>
+      <c r="C50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="M50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="O50" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R50" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B51" s="58"/>
+      <c r="H51" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O51" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R51" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B52" s="59"/>
+      <c r="H52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="O52" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R52" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B53" s="59"/>
+      <c r="H53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="O53" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R53" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B54" s="59"/>
+      <c r="H54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R54" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B55" s="59"/>
+      <c r="H55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="O55" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R55" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B56" s="59"/>
+      <c r="H56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="O56" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R56" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B57" s="59"/>
+      <c r="H57" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N57" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="O57" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R57" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="60"/>
+      <c r="H58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="O58" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="61"/>
+      <c r="M59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="O59" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R59" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="61"/>
+      <c r="M60" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54">
+        <f>SUM(O45:O59)</f>
+        <v>22</v>
+      </c>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="55">
+        <f>SUM(R49:R59)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B61" s="61"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B62" s="61"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B63" s="61"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B64" s="61"/>
+      <c r="M64" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N64" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="R64" s="48">
+        <f t="shared" ref="R64:R70" si="6">COUNTIF($I$3:$I$58,N64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B65" s="61"/>
+      <c r="M65" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="R65" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B66" s="61"/>
+      <c r="M66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="R66" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B67" s="43"/>
+      <c r="M67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N67" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="R67" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B68" s="43"/>
+      <c r="M68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N68" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="R68" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B69" s="43"/>
+      <c r="M69" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="R69" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B70" s="43"/>
+      <c r="M70" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N70" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="R70" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N71" s="18"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N72" s="18"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N73" s="18"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N74" s="18"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N75" s="18"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N76" s="18"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N77" s="18"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N78" s="18"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N79" s="18"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N80" s="18"/>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N81" s="18"/>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N82" s="18"/>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N83" s="18"/>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N84" s="18"/>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N85" s="18"/>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N86" s="18"/>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N87" s="18"/>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N88" s="18"/>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N89" s="18"/>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N90" s="18"/>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N91" s="18"/>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N92" s="18"/>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N93" s="18"/>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N94" s="18"/>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N95" s="18"/>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N96" s="18"/>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N99" s="18"/>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N100" s="18"/>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N101" s="18"/>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N102" s="18"/>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N103" s="18"/>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N104" s="18"/>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N105" s="18"/>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N106" s="18"/>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N107" s="18"/>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N108" s="18"/>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N109" s="18"/>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N110" s="18"/>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N111" s="18"/>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N112" s="18"/>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N113" s="18"/>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N114" s="18"/>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N115" s="18"/>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N116" s="18"/>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N117" s="18"/>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N118" s="18"/>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N119" s="18"/>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N120" s="18"/>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N121" s="18"/>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N122" s="18"/>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N123" s="18"/>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N124" s="18"/>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N125" s="18"/>
+    </row>
+    <row r="126" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N126" s="18"/>
+    </row>
+    <row r="127" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N127" s="18"/>
+    </row>
+    <row r="128" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N128" s="18"/>
+    </row>
+    <row r="129" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N129" s="18"/>
+    </row>
+    <row r="130" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N131" s="18"/>
+    </row>
+    <row r="132" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N132" s="18"/>
+    </row>
+    <row r="133" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N133" s="18"/>
+    </row>
+    <row r="134" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N134" s="18"/>
+    </row>
+    <row r="135" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N135" s="18"/>
+    </row>
+    <row r="136" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N136" s="18"/>
+    </row>
+    <row r="137" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N137" s="18"/>
+    </row>
+    <row r="138" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N138" s="18"/>
+    </row>
+    <row r="139" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N139" s="18"/>
+    </row>
+    <row r="140" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N140" s="18"/>
+    </row>
+    <row r="141" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N141" s="18"/>
+    </row>
+    <row r="142" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N142" s="18"/>
+    </row>
+    <row r="143" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N143" s="18"/>
+    </row>
+    <row r="144" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N144" s="18"/>
+    </row>
+    <row r="145" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N145" s="18"/>
+    </row>
+    <row r="146" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N146" s="18"/>
+    </row>
+    <row r="147" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N147" s="18"/>
+    </row>
+    <row r="148" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N148" s="18"/>
+    </row>
+    <row r="149" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N149" s="18"/>
+    </row>
+    <row r="150" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N150" s="18"/>
+    </row>
+    <row r="151" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N151" s="18"/>
+    </row>
+    <row r="152" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N152" s="18"/>
+    </row>
+    <row r="153" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N153" s="18"/>
+    </row>
+    <row r="154" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N154" s="18"/>
+    </row>
+    <row r="155" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N155" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B43:B50"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P289"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="10"/>
+    <col min="2" max="2" width="9.125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9" style="10"/>
-    <col min="11" max="11" width="78.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="8.875" style="10"/>
+    <col min="11" max="11" width="78.125" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="67.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="30"/>
-    <col min="14" max="16384" width="9" style="10"/>
+    <col min="13" max="13" width="8.875" style="30"/>
+    <col min="14" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>142</v>
       </c>
@@ -6660,7 +9798,7 @@
         <v>305</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="K114" s="21" t="s">
         <v>327</v>
@@ -7710,12 +10848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7723,10 +10861,10 @@
     <col min="1" max="1" width="11" style="28"/>
     <col min="2" max="2" width="12.375" style="28" customWidth="1"/>
     <col min="3" max="3" width="11" style="28"/>
-    <col min="4" max="4" width="79.75" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.625" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="28"/>
-    <col min="8" max="8" width="78.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.125" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="67.375" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="28"/>
   </cols>
@@ -8670,251 +11808,241 @@
         <v>380</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="C62" s="28">
-        <v>4</v>
+      <c r="A62" s="29"/>
+      <c r="B62" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M62" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
-      <c r="B63" s="18" t="s">
-        <v>535</v>
-      </c>
       <c r="D63" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="J63" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K63" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M63" s="28" t="s">
-        <v>380</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
+      <c r="B64" s="18" t="s">
+        <v>550</v>
+      </c>
       <c r="D64" s="28" t="s">
-        <v>457</v>
+        <v>518</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M64" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
-      <c r="B65" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="J65" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K65" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M65" s="28" t="s">
-        <v>380</v>
-      </c>
+      <c r="B65" s="18"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M66" s="28" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
-      <c r="B67" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="J67" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K67" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M67" s="28" t="s">
-        <v>380</v>
-      </c>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M68" s="28" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
-      <c r="B69" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M69" s="28" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
+      <c r="B70" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M70" s="28" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="J71" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="K71" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="M71" s="28" t="s">
-        <v>380</v>
+      <c r="A71" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="C71" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="C72" s="28">
-        <v>10</v>
+      <c r="A72" s="29"/>
+      <c r="D72" s="28" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
-      <c r="B73" s="28" t="s">
-        <v>562</v>
-      </c>
       <c r="D73" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="D74" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
-      <c r="D75" s="28" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
+      <c r="A76" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C76" s="28">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="C77" s="28">
-        <v>5</v>
-      </c>
+      <c r="A77" s="29"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
-      <c r="B78" s="28" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
-      <c r="B79" s="28" t="s">
-        <v>564</v>
-      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
+      <c r="A81" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="C81" s="28">
+        <f>SUM(C3:C76)</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="C82" s="28">
-        <f>SUM(C3:C77)</f>
-        <v>61</v>
-      </c>
+      <c r="A82" s="29"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
@@ -8927,285 +12055,6 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9" style="52"/>
-    <col min="3" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="52" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" s="10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="52" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="10" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="52" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E17" s="10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E18" s="10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E19" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="52" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="10" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="52" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D27" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D29" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="52" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D33" s="10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D34" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F35" s="10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G36" s="10" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G37" s="10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F39" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G40" s="10" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G41" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D42" s="10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="52" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="52" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C48" s="10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D49" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D50" s="10" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="52" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D56" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D57" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D58" s="10" t="s">
-        <v>589</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="840" windowWidth="36705" windowHeight="18345" activeTab="1"/>
+    <workbookView xWindow="2775" yWindow="840" windowWidth="36705" windowHeight="18345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪" sheetId="1" r:id="rId1"/>
     <sheet name="副本布怪MT试算" sheetId="4" r:id="rId2"/>
     <sheet name="怪物一览" sheetId="2" r:id="rId3"/>
-    <sheet name="怪物投放规划" sheetId="3" r:id="rId4"/>
+    <sheet name="boss弱点" sheetId="5" r:id="rId4"/>
+    <sheet name="怪物投放规划" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="816">
   <si>
     <t>森林</t>
   </si>
@@ -2495,13 +2496,487 @@
   <si>
     <t>落新妇（黑法dot）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些总体规划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调节奏的元素 </t>
+  </si>
+  <si>
+    <t>Visual, Function</t>
+  </si>
+  <si>
+    <t>Visual 容易， Function 难</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>比较容易</t>
+  </si>
+  <si>
+    <t>纯粹数量， 跟照妖镜能量有关</t>
+  </si>
+  <si>
+    <t>优先顺序</t>
+  </si>
+  <si>
+    <t>猜策略， 需要更明确提示，血条x3</t>
+  </si>
+  <si>
+    <t>变更状态</t>
+  </si>
+  <si>
+    <t>第一次不知道， 之后应该比较明显， 换怪需求比较明显， 4可以有， 8必须有</t>
+  </si>
+  <si>
+    <t>时机</t>
+  </si>
+  <si>
+    <t>阿穆特护盾之间打， 比较难</t>
+  </si>
+  <si>
+    <t>Boss 一览</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>状态变更</t>
+  </si>
+  <si>
+    <t>本体1</t>
+  </si>
+  <si>
+    <t>本体2</t>
+  </si>
+  <si>
+    <t>本体3</t>
+  </si>
+  <si>
+    <t>铠甲1</t>
+  </si>
+  <si>
+    <t>铠甲2</t>
+  </si>
+  <si>
+    <t>铠甲3</t>
+  </si>
+  <si>
+    <t>铠甲4</t>
+  </si>
+  <si>
+    <t>技能相关</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>弱点</t>
+  </si>
+  <si>
+    <t>根，强加血</t>
+  </si>
+  <si>
+    <t>强加血</t>
+  </si>
+  <si>
+    <t>狼人（蓝T）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>手环，防御</t>
+  </si>
+  <si>
+    <t>防御Buff</t>
+  </si>
+  <si>
+    <t>1弱点 + 1强攻， 谁先？</t>
+  </si>
+  <si>
+    <t>强攻击</t>
+  </si>
+  <si>
+    <t>花魄（绿物D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣，攻击次数</t>
+  </si>
+  <si>
+    <t>攻击次数</t>
+  </si>
+  <si>
+    <t>提高智力</t>
+  </si>
+  <si>
+    <t>走音草（绿提升S）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞狮（红s）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>角，弱点</t>
+  </si>
+  <si>
+    <t>球，加智力</t>
+  </si>
+  <si>
+    <t>蜥蜴人（绿T）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个保护</t>
+  </si>
+  <si>
+    <t>手，弱点</t>
+  </si>
+  <si>
+    <t>抓，保护</t>
+  </si>
+  <si>
+    <t>潘神（绿物D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个视觉隐藏</t>
+  </si>
+  <si>
+    <t>花，弱点</t>
+  </si>
+  <si>
+    <t>水鬼（蓝控s）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉隐藏+保护</t>
+  </si>
+  <si>
+    <t>右脚，弱点</t>
+  </si>
+  <si>
+    <t>宝箱，眩晕</t>
+  </si>
+  <si>
+    <t>乌鸦，保护</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>爽</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>头，弱点</t>
+  </si>
+  <si>
+    <t>镰刀，攻击</t>
+  </si>
+  <si>
+    <t>提高攻击</t>
+  </si>
+  <si>
+    <t>龙宫童子（蓝H）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>球，加血</t>
+  </si>
+  <si>
+    <t>加血</t>
+  </si>
+  <si>
+    <t>头顶，弱点</t>
+  </si>
+  <si>
+    <t>领结，狂暴</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+  </si>
+  <si>
+    <t>树灵</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>打地鼠</t>
+  </si>
+  <si>
+    <t>简化版，心脏不隐藏，没有晕，保持流血？</t>
+  </si>
+  <si>
+    <t>心，弱点</t>
+  </si>
+  <si>
+    <t>角，流血</t>
+  </si>
+  <si>
+    <t>龙女（蓝妨害S）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>强debuff, 减速度，可以保留护盾</t>
+  </si>
+  <si>
+    <t>盾，保护</t>
+  </si>
+  <si>
+    <t>盾， 保护</t>
+  </si>
+  <si>
+    <t>盾，保护，default</t>
+  </si>
+  <si>
+    <t>落新妇（黑法dot）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>强Dot，六个位置只有两个是真的</t>
+  </si>
+  <si>
+    <t>腿</t>
+  </si>
+  <si>
+    <t>阿姆特（蓝T）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>看时机，护盾打开的时候打？</t>
+  </si>
+  <si>
+    <t>脸， 弱点</t>
+  </si>
+  <si>
+    <t>面具，保护</t>
+  </si>
+  <si>
+    <t>原来小丑（锤子弱点）</t>
+  </si>
+  <si>
+    <t>锤子，加攻</t>
+  </si>
+  <si>
+    <t>得莫非（白H）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许放5个进去</t>
+  </si>
+  <si>
+    <t>哈皮（白H）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀， 腿</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>都打掉狂暴？</t>
+  </si>
+  <si>
+    <t>蛇头</t>
+  </si>
+  <si>
+    <t>红牛（红T）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考辛炜原来设计</t>
+  </si>
+  <si>
+    <t>头，Default</t>
+  </si>
+  <si>
+    <t>角，强攻</t>
+  </si>
+  <si>
+    <t>道成寺钟（红法D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考辛炜原来的</t>
+  </si>
+  <si>
+    <t>钟，保护</t>
+  </si>
+  <si>
+    <t>火鸟（红s）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生（参考辛炜原来的）</t>
+  </si>
+  <si>
+    <t>身，Default</t>
+  </si>
+  <si>
+    <t>尾巴，回血</t>
+  </si>
+  <si>
+    <t>大天狗（红法D）（只在boss出现）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度， 法攻， 挑一个？ （先不要面具）</t>
+  </si>
+  <si>
+    <t>翅膀，速度</t>
+  </si>
+  <si>
+    <t>扇，法攻</t>
+  </si>
+  <si>
+    <t>伊芙利特（红物dot）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>权杖，火裤子</t>
+  </si>
+  <si>
+    <t>权杖</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人（黑物D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏手环？</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>鬃毛？</t>
+  </si>
+  <si>
+    <t>梦魇（黑物D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏弱点？</t>
+  </si>
+  <si>
+    <t>尾，弱点</t>
+  </si>
+  <si>
+    <t>转function，（其实转function教学用在用过的怪最好！）</t>
+  </si>
+  <si>
+    <t>冰岩（蓝T）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>打本体反伤，手等高防</t>
+  </si>
+  <si>
+    <t>本体</t>
+  </si>
+  <si>
+    <t>手，高防</t>
+  </si>
+  <si>
+    <t>脚？</t>
+  </si>
+  <si>
+    <t>被眩晕，轻松</t>
+  </si>
+  <si>
+    <t>尾巴</t>
+  </si>
+  <si>
+    <t>身，被晕？</t>
+  </si>
+  <si>
+    <t>温迪戈 （蓝物D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛炜原来设计？需要带晕怪？</t>
+  </si>
+  <si>
+    <t>冰龙</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留时机？原来设计简化</t>
+  </si>
+  <si>
+    <t>独角兽（黑S+dot）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>有驱散</t>
+  </si>
+  <si>
+    <t>安普沙（黑S）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点+反伤</t>
+  </si>
+  <si>
+    <t>伊芙利特（黑物D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖（黑法D妨害S）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具， 打掉4，5换状态，时机</t>
+  </si>
+  <si>
+    <t>伪天使（黑S）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止回血，环</t>
+  </si>
+  <si>
+    <t>同时间打掉两个皮才不会Bomb</t>
+  </si>
+  <si>
+    <t>嫦娥（黑法D）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子，保护？</t>
+  </si>
+  <si>
+    <t>卡戎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本保留原有</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2583,6 +3058,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2713,7 +3224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2878,6 +3389,18 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2902,16 +3425,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4481,7 +5031,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4522,7 +5072,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="59"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4561,7 +5111,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4600,7 +5150,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="59"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -4624,7 +5174,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="59"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +5201,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="59"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4690,7 +5240,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="59"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -4714,7 +5264,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="60"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -4737,7 +5287,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -4778,7 +5328,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="59"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -4802,7 +5352,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -4841,7 +5391,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="59"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -4877,7 +5427,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="59"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4901,7 +5451,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4925,7 +5475,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="59"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -4949,7 +5499,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="60"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -4973,7 +5523,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -5002,7 +5552,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="64"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -5026,7 +5576,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="64"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
@@ -5050,7 +5600,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="64"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -5074,7 +5624,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="64"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -5098,7 +5648,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="64"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -5122,7 +5672,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="64"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -5146,7 +5696,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -5170,7 +5720,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -5196,7 +5746,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="59"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -5220,7 +5770,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="59"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -5244,7 +5794,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="59"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -5268,7 +5818,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="59"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -5292,7 +5842,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="59"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -5319,7 +5869,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="59"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -5343,7 +5893,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="60"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -5367,7 +5917,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -5393,7 +5943,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="59"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -5417,7 +5967,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="59"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -5441,7 +5991,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="59"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -5465,7 +6015,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="59"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -5492,7 +6042,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="59"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -5519,7 +6069,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="59"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -5543,7 +6093,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="60"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
@@ -5567,7 +6117,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -5593,7 +6143,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="59"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -5617,7 +6167,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="59"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -5641,7 +6191,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="59"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -5665,7 +6215,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="59"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -5689,7 +6239,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="59"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -5713,7 +6263,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="59"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -5737,7 +6287,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -5761,76 +6311,76 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="58"/>
+      <c r="B51" s="62"/>
       <c r="I51" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="59"/>
+      <c r="B52" s="63"/>
       <c r="I52" s="10" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="59"/>
+      <c r="B53" s="63"/>
       <c r="I53" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="59"/>
+      <c r="B54" s="63"/>
       <c r="I54" s="10" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="59"/>
+      <c r="B55" s="63"/>
       <c r="I55" s="10" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="59"/>
+      <c r="B56" s="63"/>
       <c r="I56" s="10" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="59"/>
+      <c r="B57" s="63"/>
       <c r="I57" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="60"/>
+      <c r="B58" s="64"/>
       <c r="I58" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="61"/>
+      <c r="B59" s="65"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="61"/>
+      <c r="B60" s="65"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="61"/>
+      <c r="B61" s="65"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="61"/>
+      <c r="B62" s="65"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="61"/>
+      <c r="B63" s="65"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="61"/>
+      <c r="B64" s="65"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="61"/>
+      <c r="B65" s="65"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="61"/>
+      <c r="B66" s="65"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
@@ -5864,7 +6414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+    <sheetView topLeftCell="C34" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -5950,7 +6500,7 @@
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -6020,7 +6570,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="59"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -6088,7 +6638,7 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -6156,7 +6706,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="59"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -6202,7 +6752,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="59"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -6244,7 +6794,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="59"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6298,7 +6848,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="59"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -6337,7 +6887,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="60"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -6377,7 +6927,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -6433,7 +6983,7 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="59"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -6446,7 +6996,7 @@
       <c r="F12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="58" t="s">
         <v>662</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -6471,7 +7021,7 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -6525,7 +7075,7 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="59"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -6576,7 +7126,7 @@
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="59"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -6615,7 +7165,7 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6653,7 +7203,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="59"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -6691,7 +7241,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="60"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -6704,7 +7254,7 @@
       <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="61" t="s">
         <v>663</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -6729,7 +7279,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -6757,7 +7307,7 @@
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="64"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -6797,14 +7347,14 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="64"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="58" t="s">
         <v>615</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -6836,7 +7386,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="64"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -6875,7 +7425,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="64"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -6914,7 +7464,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="64"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -6953,7 +7503,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="64"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -6992,7 +7542,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -7031,7 +7581,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -7040,7 +7590,7 @@
       <c r="D27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="59" t="s">
         <v>600</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -7072,7 +7622,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B28" s="59"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -7111,7 +7661,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B29" s="59"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7150,7 +7700,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B30" s="59"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -7189,7 +7739,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B31" s="59"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -7228,7 +7778,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="59"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -7267,14 +7817,14 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B33" s="59"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="60" t="s">
         <v>661</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -7306,14 +7856,14 @@
       </c>
     </row>
     <row r="34" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="60"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="58" t="s">
         <v>616</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -7345,7 +7895,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -7386,7 +7936,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B36" s="59"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -7425,7 +7975,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B37" s="59"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -7464,7 +8014,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B38" s="59"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -7503,7 +8053,7 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B39" s="59"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -7542,7 +8092,7 @@
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B40" s="59"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -7581,7 +8131,7 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B41" s="59"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -7620,7 +8170,7 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="60"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
@@ -7659,7 +8209,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -7674,7 +8224,7 @@
       <c r="F43" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="58" t="s">
         <v>635</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -7700,7 +8250,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B44" s="59"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -7725,7 +8275,7 @@
       <c r="J44" s="18"/>
     </row>
     <row r="45" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="59"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -7764,7 +8314,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B46" s="59"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -7803,7 +8353,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B47" s="59"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -7842,7 +8392,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B48" s="59"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -7880,7 +8430,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B49" s="59"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -7919,7 +8469,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -7958,7 +8508,7 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B51" s="58"/>
+      <c r="B51" s="62"/>
       <c r="H51" s="8" t="s">
         <v>650</v>
       </c>
@@ -7981,7 +8531,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B52" s="59"/>
+      <c r="B52" s="63"/>
       <c r="H52" s="8" t="s">
         <v>80</v>
       </c>
@@ -8004,7 +8554,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B53" s="59"/>
+      <c r="B53" s="63"/>
       <c r="H53" s="8" t="s">
         <v>79</v>
       </c>
@@ -8027,7 +8577,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B54" s="59"/>
+      <c r="B54" s="63"/>
       <c r="H54" s="8" t="s">
         <v>79</v>
       </c>
@@ -8050,7 +8600,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B55" s="59"/>
+      <c r="B55" s="63"/>
       <c r="H55" s="8" t="s">
         <v>79</v>
       </c>
@@ -8073,7 +8623,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B56" s="59"/>
+      <c r="B56" s="63"/>
       <c r="H56" s="8" t="s">
         <v>79</v>
       </c>
@@ -8096,7 +8646,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B57" s="59"/>
+      <c r="B57" s="63"/>
       <c r="H57" s="8" t="s">
         <v>649</v>
       </c>
@@ -8119,7 +8669,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="60"/>
+      <c r="B58" s="64"/>
       <c r="H58" s="9" t="s">
         <v>89</v>
       </c>
@@ -8142,7 +8692,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="61"/>
+      <c r="B59" s="65"/>
       <c r="M59" s="8" t="s">
         <v>79</v>
       </c>
@@ -8159,7 +8709,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="61"/>
+      <c r="B60" s="65"/>
       <c r="M60" s="52" t="s">
         <v>79</v>
       </c>
@@ -8176,16 +8726,16 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B61" s="61"/>
+      <c r="B61" s="65"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B62" s="61"/>
+      <c r="B62" s="65"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B63" s="61"/>
+      <c r="B63" s="65"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B64" s="61"/>
+      <c r="B64" s="65"/>
       <c r="M64" s="8" t="s">
         <v>89</v>
       </c>
@@ -8198,7 +8748,7 @@
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B65" s="61"/>
+      <c r="B65" s="65"/>
       <c r="M65" s="8" t="s">
         <v>89</v>
       </c>
@@ -8211,7 +8761,7 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B66" s="61"/>
+      <c r="B66" s="65"/>
       <c r="M66" s="8" t="s">
         <v>89</v>
       </c>
@@ -8567,7 +9117,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:16" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>142</v>
       </c>
@@ -10849,6 +11399,1440 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.5" style="70" customWidth="1"/>
+    <col min="2" max="2" width="30.875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="16" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="71"/>
+    <col min="6" max="16384" width="10.875" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="82" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="70" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="70" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="70" t="s">
+        <v>678</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="70" t="s">
+        <v>680</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A10" s="72" t="s">
+        <v>682</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>683</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>684</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>685</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>689</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>690</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="K10" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="L10" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="73" t="s">
+        <v>600</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>698</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>701</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>701</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="73" t="s">
+        <v>601</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>704</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L15" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="73" t="s">
+        <v>705</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I17" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L17" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="74" t="s">
+        <v>709</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L18" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="73" t="s">
+        <v>710</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>711</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>712</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L20" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="70" t="s">
+        <v>713</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>714</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>715</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>716</v>
+      </c>
+      <c r="J21" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K21" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L21" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M21" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="73" t="s">
+        <v>717</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>718</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>719</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I22" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L22" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="73" t="s">
+        <v>720</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>721</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>722</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I23" s="70" t="s">
+        <v>723</v>
+      </c>
+      <c r="J23" s="70" t="s">
+        <v>724</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L23" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="73" t="s">
+        <v>608</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73" t="s">
+        <v>727</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>729</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="70" t="s">
+        <v>731</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>727</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>732</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="70" t="s">
+        <v>727</v>
+      </c>
+      <c r="E26" s="71">
+        <v>1</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>735</v>
+      </c>
+      <c r="J26" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="M26" s="70" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="75" t="s">
+        <v>737</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>738</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>739</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>740</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>741</v>
+      </c>
+      <c r="J28" s="70" t="s">
+        <v>741</v>
+      </c>
+      <c r="K28" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L28" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="73" t="s">
+        <v>742</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>743</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>744</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>745</v>
+      </c>
+      <c r="K29" s="70" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="73" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>748</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>749</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>749</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>749</v>
+      </c>
+      <c r="L30" s="70" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="73" t="s">
+        <v>750</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>751</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>752</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>753</v>
+      </c>
+      <c r="J31" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K31" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L31" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="73" t="s">
+        <v>618</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>755</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K32" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L32" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="77" t="s">
+        <v>756</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>757</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="73" t="s">
+        <v>758</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>759</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78" t="s">
+        <v>760</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35" s="74"/>
+      <c r="D35" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="71">
+        <v>1</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="J35" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="K35" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="L35" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="M35" s="70" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="76" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>766</v>
+      </c>
+      <c r="J36" s="70" t="s">
+        <v>766</v>
+      </c>
+      <c r="K36" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L36" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>768</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F37" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>740</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>769</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="K37" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="L37" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="79" t="s">
+        <v>770</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>771</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>772</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>773</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>773</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="77" t="s">
+        <v>774</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>775</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="77"/>
+      <c r="E39" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>772</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I39" s="70" t="s">
+        <v>776</v>
+      </c>
+      <c r="J39" s="70" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="73" t="s">
+        <v>616</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="80" t="s">
+        <v>627</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="80"/>
+      <c r="E41" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="74" t="s">
+        <v>778</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>779</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>772</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="I42" s="70" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B43" s="74"/>
+      <c r="C43" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="73" t="s">
+        <v>782</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>772</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="74" t="s">
+        <v>786</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>787</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="G45" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="74" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>789</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="73" t="s">
+        <v>790</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>791</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F47" s="70" t="s">
+        <v>792</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>793</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>793</v>
+      </c>
+      <c r="I47" s="70" t="s">
+        <v>794</v>
+      </c>
+      <c r="J47" s="70" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="73" t="s">
+        <v>635</v>
+      </c>
+      <c r="B49" s="73" t="s">
+        <v>795</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>695</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="I49" s="70" t="s">
+        <v>796</v>
+      </c>
+      <c r="J49" s="70" t="s">
+        <v>796</v>
+      </c>
+      <c r="K49" s="70" t="s">
+        <v>796</v>
+      </c>
+      <c r="L49" s="70" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="81" t="s">
+        <v>798</v>
+      </c>
+      <c r="B50" s="81" t="s">
+        <v>799</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="B51" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="74" t="s">
+        <v>802</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>803</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="74" t="s">
+        <v>804</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>805</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="74" t="s">
+        <v>806</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>808</v>
+      </c>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="74" t="s">
+        <v>809</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>810</v>
+      </c>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>811</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="74" t="s">
+        <v>812</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>813</v>
+      </c>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="75" t="s">
+        <v>814</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>815</v>
+      </c>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="70" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="70" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="70" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="70" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="840" windowWidth="36705" windowHeight="18345" activeTab="3"/>
+    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪MT试算" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="大boss作为小怪后技能" sheetId="6" r:id="rId5"/>
     <sheet name="副本布怪（旧版）" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="915">
   <si>
     <t>森林</t>
   </si>
@@ -3304,6 +3304,26 @@
   </si>
   <si>
     <t>T用好法术大招秒人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>异怪</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>神圣</t>
+  </si>
+  <si>
+    <t>冰雪女王（蓝法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3778,7 +3798,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3793,31 +3826,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5326,10 +5346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X155"/>
+  <dimension ref="B1:Z156"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5345,14 +5365,14 @@
     <col min="10" max="10" width="18.625" style="10" customWidth="1"/>
     <col min="11" max="12" width="8.875" style="10"/>
     <col min="13" max="13" width="8.875" style="8"/>
-    <col min="14" max="14" width="16.625" style="8" customWidth="1"/>
-    <col min="15" max="18" width="8.875" style="48"/>
-    <col min="19" max="21" width="8.875" style="10"/>
-    <col min="22" max="22" width="12.5" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="8.875" style="10"/>
+    <col min="14" max="16" width="16.625" style="8" customWidth="1"/>
+    <col min="17" max="20" width="8.875" style="48"/>
+    <col min="21" max="23" width="8.875" style="10"/>
+    <col min="24" max="24" width="12.5" style="10" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14" t="s">
@@ -5376,14 +5396,16 @@
       <c r="J1" s="15"/>
       <c r="M1" s="46"/>
       <c r="N1" s="47"/>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
@@ -5397,24 +5419,26 @@
       <c r="N2" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="S2" s="48" t="s">
         <v>583</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="T2" s="48" t="s">
         <v>574</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="75" t="s">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B3" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -5452,39 +5476,46 @@
       <c r="N3" s="51" t="s">
         <v>844</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="P3" s="51" t="str">
+        <f>IF(O3="植物","Plant",IF(O3="动物","Animal",IF(O3="人类","Human",IF(O3="异怪","Peculiar",IF(O3="神圣","Deity","Error")))))</f>
+        <v>Plant</v>
+      </c>
+      <c r="Q3" s="48">
         <f>COUNTIF($E$3:$G$58,N3)</f>
         <v>3</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="48">
-        <f>COUNTIF($H$3:$H$58,P3)</f>
+      <c r="S3" s="48">
+        <f>COUNTIF($H$3:$H$58,R3)</f>
         <v>10</v>
       </c>
-      <c r="R3" s="48">
+      <c r="T3" s="48">
         <f>COUNTIF($I$3:$I$58,N3)</f>
         <v>1</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="W3" s="45" t="s">
+      <c r="Y3" s="45" t="s">
         <v>846</v>
       </c>
-      <c r="X3" s="45" t="s">
+      <c r="Z3" s="45" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="75"/>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B4" s="80"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -5520,39 +5551,46 @@
       <c r="N4" s="51" t="s">
         <v>845</v>
       </c>
-      <c r="O4" s="48">
-        <f t="shared" ref="O4:O59" si="0">COUNTIF($E$3:$G$58,N4)</f>
+      <c r="O4" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="P4" s="51" t="str">
+        <f>IF(O4="植物","Plant",IF(O4="动物","Animal",IF(O4="人类","Human",IF(O4="异怪","Peculiar",IF(O4="神圣","Deity","Error")))))</f>
+        <v>Plant</v>
+      </c>
+      <c r="Q4" s="48">
+        <f t="shared" ref="Q4:Q60" si="0">COUNTIF($E$3:$G$58,N4)</f>
         <v>3</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="48">
-        <f t="shared" ref="Q4" si="1">COUNTIF($H$3:$H$58,P4)</f>
+      <c r="S4" s="48">
+        <f t="shared" ref="S4" si="1">COUNTIF($H$3:$H$58,R4)</f>
         <v>22</v>
       </c>
-      <c r="R4" s="48">
-        <f t="shared" ref="R4:R59" si="2">COUNTIF($I$3:$I$58,N4)</f>
+      <c r="T4" s="48">
+        <f t="shared" ref="T4:T60" si="2">COUNTIF($I$3:$I$58,N4)</f>
         <v>1</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="X4" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="Y4" s="45" t="s">
         <v>848</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="Z4" s="45" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B5" s="80"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -5588,39 +5626,46 @@
       <c r="N5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P5" s="51" t="str">
+        <f t="shared" ref="P5:P17" si="4">IF(O5="植物","Plant",IF(O5="动物","Animal",IF(O5="人类","Human",IF(O5="异怪","Peculiar",IF(O5="神圣","Deity","Error")))))</f>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q5" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="48">
-        <f>COUNTIF($H$3:$H$58,P5)</f>
+      <c r="S5" s="48">
+        <f>COUNTIF($H$3:$H$58,R5)</f>
         <v>17</v>
       </c>
-      <c r="R5" s="48">
+      <c r="T5" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="W5" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="X5" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="Z5" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="75"/>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B6" s="80"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -5649,24 +5694,31 @@
       <c r="N6" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P6" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q6" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" s="48">
-        <f>COUNTIF($H$3:$H$58,P6)</f>
+      <c r="S6" s="48">
+        <f>COUNTIF($H$3:$H$58,R6)</f>
         <v>7</v>
       </c>
-      <c r="R6" s="48">
+      <c r="T6" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="75"/>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B7" s="80"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -5695,20 +5747,27 @@
       <c r="N7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P7" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q7" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R7" s="48">
+      <c r="T7" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B8" s="80"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5737,32 +5796,39 @@
       <c r="N8" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P8" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q8" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R8" s="48">
+      <c r="T8" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="V8" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="W8" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="X8" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="Y8" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B9" s="80"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -5791,17 +5857,24 @@
       <c r="N9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P9" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q9" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R9" s="48">
+      <c r="T9" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="76"/>
+    <row r="10" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="81"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -5828,20 +5901,27 @@
       <c r="N10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Human</v>
+      </c>
+      <c r="Q10" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R10" s="48">
+      <c r="T10" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="V10" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="78" t="s">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B11" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -5872,32 +5952,39 @@
       <c r="N11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Human</v>
+      </c>
+      <c r="Q11" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R11" s="48">
+      <c r="T11" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="V11" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="W11" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="X11" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="Y11" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="Z11" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="75"/>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B12" s="80"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -5925,17 +6012,24 @@
       <c r="N12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P12" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q12" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R12" s="48">
+      <c r="T12" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="75"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B13" s="80"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -5964,32 +6058,39 @@
       <c r="N13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P13" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q13" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R13" s="48">
+      <c r="T13" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="V13" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="W13" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="V13" s="44" t="s">
+      <c r="X13" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="Y13" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="Z13" s="10" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="75"/>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B14" s="80"/>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -6018,29 +6119,36 @@
       <c r="N14" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="P14" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q14" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R14" s="48">
+      <c r="T14" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="V14" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="W14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="44" t="s">
+      <c r="X14" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="75"/>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B15" s="80"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -6069,17 +6177,24 @@
       <c r="N15" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P15" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q15" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R15" s="48">
+      <c r="T15" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B16" s="75"/>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B16" s="80"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6107,17 +6222,24 @@
       <c r="N16" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="O16" s="48">
+      <c r="O16" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="P16" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q16" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R16" s="48">
+      <c r="T16" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="75"/>
+    <row r="17" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="80"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -6145,17 +6267,24 @@
       <c r="N17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="P17" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Plant</v>
+      </c>
+      <c r="Q17" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="48">
+      <c r="T17" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
+    <row r="18" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="81"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -6181,19 +6310,21 @@
         <v>77</v>
       </c>
       <c r="N18" s="53"/>
-      <c r="O18" s="54">
-        <f>SUM(O3:O17)</f>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54">
+        <f>SUM(Q3:Q17)</f>
         <v>36</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55">
-        <f>SUM(R3:R17)</f>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="55">
+        <f>SUM(T3:T17)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="80" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="84" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -6219,9 +6350,11 @@
       </c>
       <c r="J19" s="8"/>
       <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="80"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="84"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -6250,18 +6383,25 @@
       <c r="N20" s="51" t="s">
         <v>850</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="P20" s="51" t="str">
+        <f>IF(O20="植物","Plant",IF(O20="动物","Animal",IF(O20="人类","Human",IF(O20="异怪","Peculiar",IF(O20="神圣","Deity","Error")))))</f>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q20" s="48">
         <f>COUNTIF($E$3:$G$58,N20)</f>
         <v>1</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="R20" s="48">
+      <c r="R20" s="8"/>
+      <c r="T20" s="48">
         <f>COUNTIF($I$3:$I$58,N20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="80"/>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="84"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
@@ -6290,17 +6430,24 @@
       <c r="N21" s="51" t="s">
         <v>849</v>
       </c>
-      <c r="O21" s="48">
+      <c r="O21" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="P21" s="51" t="str">
+        <f t="shared" ref="P21:P42" si="5">IF(O21="植物","Plant",IF(O21="动物","Animal",IF(O21="人类","Human",IF(O21="异怪","Peculiar",IF(O21="神圣","Deity","Error")))))</f>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q21" s="48">
         <f>COUNTIF($E$3:$G$58,N21)</f>
         <v>4</v>
       </c>
-      <c r="R21" s="48">
+      <c r="T21" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="80"/>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="84"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -6329,17 +6476,24 @@
       <c r="N22" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="P22" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q22" s="48">
         <f>COUNTIF($E$3:$G$58,N22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="48">
+      <c r="T22" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="80"/>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B23" s="84"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -6368,17 +6522,24 @@
       <c r="N23" s="51" t="s">
         <v>789</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="P23" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q23" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R23" s="48">
+      <c r="T23" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="80"/>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B24" s="84"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -6407,17 +6568,24 @@
       <c r="N24" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="P24" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q24" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R24" s="48">
+      <c r="T24" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="80"/>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="84"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -6446,17 +6614,24 @@
       <c r="N25" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="O25" s="48">
+      <c r="O25" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="P25" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Plant</v>
+      </c>
+      <c r="Q25" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R25" s="48">
+      <c r="T25" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="81"/>
+    <row r="26" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="85"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -6485,17 +6660,24 @@
       <c r="N26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P26" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Human</v>
+      </c>
+      <c r="Q26" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R26" s="48">
+      <c r="T26" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B27" s="83" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -6526,17 +6708,24 @@
       <c r="N27" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="O27" s="48">
+      <c r="O27" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P27" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q27" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R27" s="48">
+      <c r="T27" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B28" s="75"/>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="80"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -6565,17 +6754,24 @@
       <c r="N28" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="O28" s="48">
+      <c r="O28" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P28" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q28" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R28" s="48">
+      <c r="T28" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B29" s="75"/>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B29" s="80"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6604,17 +6800,24 @@
       <c r="N29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Human</v>
+      </c>
+      <c r="Q29" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R29" s="48">
+      <c r="T29" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B30" s="75"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="80"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -6643,17 +6846,24 @@
       <c r="N30" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="O30" s="48">
+      <c r="O30" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P30" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q30" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R30" s="48">
+      <c r="T30" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B31" s="75"/>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B31" s="80"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -6682,17 +6892,24 @@
       <c r="N31" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="O31" s="48">
+      <c r="O31" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P31" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q31" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R31" s="48">
+      <c r="T31" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="75"/>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B32" s="80"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -6721,17 +6938,24 @@
       <c r="N32" s="51" t="s">
         <v>852</v>
       </c>
-      <c r="O32" s="48">
+      <c r="O32" s="51" t="s">
+        <v>911</v>
+      </c>
+      <c r="P32" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q32" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R32" s="48">
+      <c r="T32" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B33" s="75"/>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B33" s="80"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -6760,17 +6984,24 @@
       <c r="N33" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="O33" s="48">
+      <c r="O33" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="P33" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q33" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R33" s="48">
+      <c r="T33" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="76"/>
+    <row r="34" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="81"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -6799,17 +7030,24 @@
       <c r="N34" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O34" s="48">
+      <c r="O34" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P34" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q34" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R34" s="48">
+      <c r="T34" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B35" s="75" t="s">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B35" s="80" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -6840,17 +7078,24 @@
       <c r="N35" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="O35" s="48">
+      <c r="O35" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P35" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q35" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35" s="48">
+      <c r="T35" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B36" s="75"/>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B36" s="80"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -6879,17 +7124,24 @@
       <c r="N36" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="O36" s="48">
+      <c r="O36" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="P36" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q36" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36" s="48">
+      <c r="T36" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B37" s="75"/>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B37" s="80"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -6902,7 +7154,7 @@
       <c r="F37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="76" t="s">
         <v>193</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -6918,17 +7170,24 @@
       <c r="N37" s="57" t="s">
         <v>856</v>
       </c>
-      <c r="O37" s="48">
+      <c r="O37" s="57" t="s">
+        <v>911</v>
+      </c>
+      <c r="P37" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Animal</v>
+      </c>
+      <c r="Q37" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R37" s="48">
+      <c r="T37" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B38" s="75"/>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B38" s="80"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -6957,17 +7216,24 @@
       <c r="N38" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="O38" s="48">
+      <c r="O38" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="P38" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q38" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R38" s="48">
+      <c r="T38" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B39" s="75"/>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B39" s="80"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -6996,17 +7262,24 @@
       <c r="N39" s="51" t="s">
         <v>791</v>
       </c>
-      <c r="O39" s="48">
+      <c r="O39" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="P39" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q39" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R39" s="48">
+      <c r="T39" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B40" s="75"/>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B40" s="80"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -7035,17 +7308,24 @@
       <c r="N40" s="51" t="s">
         <v>639</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="P40" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Human</v>
+      </c>
+      <c r="Q40" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R40" s="48">
+      <c r="T40" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B41" s="75"/>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B41" s="80"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -7074,24 +7354,31 @@
       <c r="N41" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P41" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Human</v>
+      </c>
+      <c r="Q41" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R41" s="48">
+      <c r="T41" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="76"/>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="81"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="77" t="s">
         <v>855</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -7113,17 +7400,24 @@
       <c r="N42" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="O42" s="48">
+      <c r="O42" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="P42" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v>Human</v>
+      </c>
+      <c r="Q42" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R42" s="48">
+      <c r="T42" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="75" t="s">
+    <row r="43" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="80" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -7152,19 +7446,21 @@
         <v>591</v>
       </c>
       <c r="N43" s="53"/>
-      <c r="O43" s="54">
-        <f>SUM(O20:O42)</f>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="54">
+        <f>SUM(Q20:Q42)</f>
         <v>38</v>
       </c>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="55">
-        <f>SUM(R20:R42)</f>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="55">
+        <f>SUM(T20:T42)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B44" s="75"/>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B44" s="80"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -7188,8 +7484,8 @@
       </c>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B45" s="75"/>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B45" s="80"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -7218,17 +7514,24 @@
       <c r="N45" s="56" t="s">
         <v>855</v>
       </c>
-      <c r="O45" s="48">
+      <c r="O45" s="56" t="s">
+        <v>912</v>
+      </c>
+      <c r="P45" s="51" t="str">
+        <f>IF(O45="植物","Plant",IF(O45="动物","Animal",IF(O45="人类","Human",IF(O45="异怪","Peculiar",IF(O45="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="Q45" s="48">
         <f>COUNTIF($E$3:$G$58,N45)</f>
         <v>1</v>
       </c>
-      <c r="R45" s="48">
+      <c r="T45" s="48">
         <f>COUNTIF($I$3:$I$58,N45)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B46" s="75"/>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B46" s="80"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -7257,17 +7560,24 @@
       <c r="N46" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="O46" s="48">
-        <f t="shared" ref="O46:O48" si="4">COUNTIF($E$3:$G$58,N46)</f>
+      <c r="O46" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="P46" s="51" t="str">
+        <f t="shared" ref="P46:P60" si="6">IF(O46="植物","Plant",IF(O46="动物","Animal",IF(O46="人类","Human",IF(O46="异怪","Peculiar",IF(O46="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="Q46" s="48">
+        <f t="shared" ref="Q46:Q48" si="7">COUNTIF($E$3:$G$58,N46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="48">
-        <f t="shared" ref="R46:R48" si="5">COUNTIF($I$3:$I$58,N46)</f>
+      <c r="T46" s="48">
+        <f t="shared" ref="T46:T48" si="8">COUNTIF($I$3:$I$58,N46)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B47" s="75"/>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B47" s="80"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -7296,17 +7606,24 @@
       <c r="N47" s="56" t="s">
         <v>853</v>
       </c>
-      <c r="O47" s="48">
+      <c r="O47" s="56" t="s">
+        <v>912</v>
+      </c>
+      <c r="P47" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q47" s="48">
         <f>COUNTIF($E$3:$G$58,N47)</f>
         <v>1</v>
       </c>
-      <c r="R47" s="48">
-        <f t="shared" si="5"/>
+      <c r="T47" s="48">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B48" s="75"/>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B48" s="80"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -7334,17 +7651,24 @@
       <c r="N48" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="O48" s="48">
-        <f t="shared" si="4"/>
+      <c r="O48" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="P48" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q48" s="48">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R48" s="48">
-        <f t="shared" si="5"/>
+      <c r="T48" s="48">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B49" s="75"/>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B49" s="80"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -7373,17 +7697,24 @@
       <c r="N49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O49" s="48">
+      <c r="O49" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P49" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q49" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R49" s="48">
+      <c r="T49" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="76"/>
+    <row r="50" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="81"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -7412,17 +7743,24 @@
       <c r="N50" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="O50" s="48">
+      <c r="O50" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P50" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q50" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R50" s="48">
+      <c r="T50" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B51" s="86"/>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B51" s="79"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -7440,17 +7778,24 @@
       <c r="N51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="O51" s="48">
+      <c r="O51" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="P51" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q51" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R51" s="48">
+      <c r="T51" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B52" s="75"/>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B52" s="80"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -7468,17 +7813,24 @@
       <c r="N52" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="O52" s="48">
+      <c r="O52" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P52" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q52" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R52" s="48">
+      <c r="T52" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B53" s="75"/>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B53" s="80"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -7496,17 +7848,24 @@
       <c r="N53" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="O53" s="48">
+      <c r="O53" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P53" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q53" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R53" s="48">
+      <c r="T53" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B54" s="75"/>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B54" s="80"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -7524,17 +7883,24 @@
       <c r="N54" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O54" s="48">
+      <c r="O54" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="P54" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q54" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R54" s="48">
+      <c r="T54" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B55" s="75"/>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B55" s="80"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -7552,17 +7918,24 @@
       <c r="N55" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="O55" s="48">
+      <c r="O55" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="P55" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q55" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R55" s="48">
+      <c r="T55" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B56" s="75"/>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B56" s="80"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -7580,17 +7953,24 @@
       <c r="N56" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="O56" s="48">
+      <c r="O56" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="P56" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q56" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R56" s="48">
+      <c r="T56" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B57" s="75"/>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B57" s="80"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -7608,17 +7988,24 @@
       <c r="N57" s="51" t="s">
         <v>790</v>
       </c>
-      <c r="O57" s="48">
+      <c r="O57" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="P57" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q57" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R57" s="48">
+      <c r="T57" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="76"/>
+    <row r="58" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="81"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -7636,408 +8023,666 @@
       <c r="N58" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="O58" s="48">
+      <c r="O58" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="P58" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q58" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R58" s="48">
+      <c r="T58" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="77"/>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B59" s="82"/>
       <c r="M59" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N59" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="O59" s="48">
+      <c r="O59" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="P59" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="Q59" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R59" s="48">
+      <c r="T59" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="77"/>
-      <c r="M60" s="52" t="s">
+    <row r="60" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="82"/>
+      <c r="M60" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N60" s="53"/>
-      <c r="O60" s="54">
-        <f>SUM(O45:O59)</f>
+      <c r="N60" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="P60" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Deity</v>
+      </c>
+      <c r="Q60" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="82"/>
+      <c r="M61" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="54">
+        <f>SUM(Q45:Q60)</f>
         <v>22</v>
       </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="55">
-        <f>SUM(R49:R59)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B61" s="77"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B62" s="77"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B63" s="77"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B64" s="77"/>
-      <c r="M64" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N64" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="R64" s="48">
-        <f t="shared" ref="R64:R70" si="6">COUNTIF($I$3:$I$58,N64)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B65" s="77"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="55">
+        <f>SUM(T45:T60)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B62" s="82"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B63" s="82"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B64" s="82"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B65" s="82"/>
       <c r="M65" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N65" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="R65" s="48">
-        <f t="shared" si="6"/>
+      <c r="N65" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="T65" s="48">
+        <f t="shared" ref="T65:T71" si="9">COUNTIF($I$3:$I$58,N65)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B66" s="77"/>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B66" s="82"/>
       <c r="M66" s="8" t="s">
         <v>89</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="R66" s="48">
-        <f t="shared" si="6"/>
+        <v>632</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="P66" s="18"/>
+      <c r="T66" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B67" s="43"/>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B67" s="82"/>
       <c r="M67" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N67" s="51" t="s">
-        <v>618</v>
-      </c>
-      <c r="R67" s="48">
-        <f t="shared" si="6"/>
+      <c r="N67" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="O67" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="P67" s="18"/>
+      <c r="T67" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B68" s="43"/>
       <c r="M68" s="8" t="s">
         <v>89</v>
       </c>
       <c r="N68" s="51" t="s">
-        <v>627</v>
-      </c>
-      <c r="R68" s="48">
-        <f t="shared" si="6"/>
+        <v>618</v>
+      </c>
+      <c r="O68" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="P68" s="51"/>
+      <c r="T68" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="43"/>
       <c r="M69" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="R69" s="48">
-        <f t="shared" si="6"/>
+      <c r="N69" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="O69" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="P69" s="51"/>
+      <c r="T69" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B70" s="43"/>
       <c r="M70" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N70" s="51" t="s">
+      <c r="N70" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="T70" s="48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B71" s="43"/>
+      <c r="M71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N71" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="R70" s="48">
-        <f t="shared" si="6"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="T71" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="N71" s="18"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N72" s="18"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="N73" s="18"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="N74" s="18"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="N75" s="18"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="N76" s="18"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="N77" s="18"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="N73" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="O73" s="18">
+        <f>COUNTIF($O$3:$O$59,$N73)</f>
+        <v>7</v>
+      </c>
+      <c r="P73" s="18"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="N74" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="O74" s="18">
+        <f>COUNTIF($O$3:$O$59,$N74)</f>
+        <v>11</v>
+      </c>
+      <c r="P74" s="18"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="N75" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="O75" s="18">
+        <f>COUNTIF($O$3:$O$59,$N75)</f>
+        <v>4</v>
+      </c>
+      <c r="P75" s="18"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="N76" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="O76" s="18">
+        <f>COUNTIF($O$3:$O$59,$N76)</f>
+        <v>21</v>
+      </c>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="N77" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="O77" s="18">
+        <f>COUNTIF($O$3:$O$60,$N77)</f>
+        <v>11</v>
+      </c>
+      <c r="P77" s="18"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N78" s="18"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N79" s="18"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N80" s="18"/>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+    </row>
+    <row r="81" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N81" s="18"/>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+    </row>
+    <row r="82" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N82" s="18"/>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+    </row>
+    <row r="83" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N83" s="18"/>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+    </row>
+    <row r="84" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N84" s="18"/>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+    </row>
+    <row r="85" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N85" s="18"/>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+    </row>
+    <row r="86" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N86" s="18"/>
-    </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+    </row>
+    <row r="87" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N87" s="18"/>
-    </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+    </row>
+    <row r="88" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N88" s="18"/>
-    </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+    </row>
+    <row r="89" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N89" s="18"/>
-    </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+    </row>
+    <row r="90" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N90" s="18"/>
-    </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+    </row>
+    <row r="91" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N91" s="18"/>
-    </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+    </row>
+    <row r="92" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N92" s="18"/>
-    </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+    </row>
+    <row r="93" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N93" s="18"/>
-    </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+    </row>
+    <row r="94" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N94" s="18"/>
-    </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+    </row>
+    <row r="95" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N95" s="18"/>
-    </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+    </row>
+    <row r="96" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N96" s="18"/>
-    </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+    </row>
+    <row r="97" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N97" s="18"/>
-    </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+    </row>
+    <row r="98" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N98" s="18"/>
-    </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+    </row>
+    <row r="99" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N99" s="18"/>
-    </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+    </row>
+    <row r="100" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N100" s="18"/>
-    </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+    </row>
+    <row r="101" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N101" s="18"/>
-    </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+    </row>
+    <row r="102" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N102" s="18"/>
-    </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+    </row>
+    <row r="103" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N103" s="18"/>
-    </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+    </row>
+    <row r="104" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N104" s="18"/>
-    </row>
-    <row r="105" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+    </row>
+    <row r="105" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N105" s="18"/>
-    </row>
-    <row r="106" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+    </row>
+    <row r="106" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N106" s="18"/>
-    </row>
-    <row r="107" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+    </row>
+    <row r="107" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N107" s="18"/>
-    </row>
-    <row r="108" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+    </row>
+    <row r="108" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N108" s="18"/>
-    </row>
-    <row r="109" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+    </row>
+    <row r="109" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N109" s="18"/>
-    </row>
-    <row r="110" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+    </row>
+    <row r="110" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N110" s="18"/>
-    </row>
-    <row r="111" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+    </row>
+    <row r="111" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N111" s="18"/>
-    </row>
-    <row r="112" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+    </row>
+    <row r="112" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N112" s="18"/>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+    </row>
+    <row r="113" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N113" s="18"/>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+    </row>
+    <row r="114" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N114" s="18"/>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+    </row>
+    <row r="115" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N115" s="18"/>
-    </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+    </row>
+    <row r="116" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N116" s="18"/>
-    </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+    </row>
+    <row r="117" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N117" s="18"/>
-    </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+    </row>
+    <row r="118" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N118" s="18"/>
-    </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+    </row>
+    <row r="119" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N119" s="18"/>
-    </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+    </row>
+    <row r="120" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N120" s="18"/>
-    </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+    </row>
+    <row r="121" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N121" s="18"/>
-    </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+    </row>
+    <row r="122" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N122" s="18"/>
-    </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+    </row>
+    <row r="123" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N123" s="18"/>
-    </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+    </row>
+    <row r="124" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N124" s="18"/>
-    </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+    </row>
+    <row r="125" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N125" s="18"/>
-    </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+    </row>
+    <row r="126" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N126" s="18"/>
-    </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+    </row>
+    <row r="127" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N127" s="18"/>
-    </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+    </row>
+    <row r="128" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N128" s="18"/>
-    </row>
-    <row r="129" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+    </row>
+    <row r="129" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N129" s="18"/>
-    </row>
-    <row r="130" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+    </row>
+    <row r="130" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N130" s="18"/>
-    </row>
-    <row r="131" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+    </row>
+    <row r="131" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N131" s="18"/>
-    </row>
-    <row r="132" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+    </row>
+    <row r="132" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N132" s="18"/>
-    </row>
-    <row r="133" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+    </row>
+    <row r="133" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N133" s="18"/>
-    </row>
-    <row r="134" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+    </row>
+    <row r="134" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N134" s="18"/>
-    </row>
-    <row r="135" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+    </row>
+    <row r="135" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N135" s="18"/>
-    </row>
-    <row r="136" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
+    </row>
+    <row r="136" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N136" s="18"/>
-    </row>
-    <row r="137" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+    </row>
+    <row r="137" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N137" s="18"/>
-    </row>
-    <row r="138" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
+    </row>
+    <row r="138" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N138" s="18"/>
-    </row>
-    <row r="139" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+    </row>
+    <row r="139" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N139" s="18"/>
-    </row>
-    <row r="140" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+    </row>
+    <row r="140" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N140" s="18"/>
-    </row>
-    <row r="141" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+    </row>
+    <row r="141" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N141" s="18"/>
-    </row>
-    <row r="142" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+    </row>
+    <row r="142" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N142" s="18"/>
-    </row>
-    <row r="143" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+    </row>
+    <row r="143" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N143" s="18"/>
-    </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
+    </row>
+    <row r="144" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N144" s="18"/>
-    </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+    </row>
+    <row r="145" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N145" s="18"/>
-    </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+    </row>
+    <row r="146" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N146" s="18"/>
-    </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+    </row>
+    <row r="147" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N147" s="18"/>
-    </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+    </row>
+    <row r="148" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N148" s="18"/>
-    </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+    </row>
+    <row r="149" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N149" s="18"/>
-    </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+    </row>
+    <row r="150" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N150" s="18"/>
-    </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+    </row>
+    <row r="151" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N151" s="18"/>
-    </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+    </row>
+    <row r="152" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N152" s="18"/>
-    </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+    </row>
+    <row r="153" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N153" s="18"/>
-    </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+    </row>
+    <row r="154" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N154" s="18"/>
-    </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+    </row>
+    <row r="155" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N155" s="18"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
+    </row>
+    <row r="156" spans="14:16" x14ac:dyDescent="0.15">
+      <c r="N156" s="18"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B59:B67"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B26"/>
@@ -8054,7 +8699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P307"/>
   <sheetViews>
-    <sheetView topLeftCell="B205" workbookViewId="0">
+    <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="G224" sqref="G224:G225"/>
     </sheetView>
   </sheetViews>
@@ -8071,7 +8716,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>142</v>
       </c>
@@ -8902,7 +9547,7 @@
       </c>
     </row>
     <row r="74" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F74" s="87"/>
+      <c r="F74" s="78"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
@@ -9739,7 +10384,7 @@
       </c>
     </row>
     <row r="152" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F152" s="87"/>
+      <c r="F152" s="78"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
@@ -9815,7 +10460,7 @@
       </c>
     </row>
     <row r="158" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F158" s="87"/>
+      <c r="F158" s="78"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
@@ -12175,7 +12820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -13581,6 +14226,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13592,16 +14238,16 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="10"/>
+    <col min="1" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="74" t="s">
         <v>798</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -13609,7 +14255,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="74" t="s">
         <v>799</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -13617,7 +14263,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="74" t="s">
         <v>800</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -13625,7 +14271,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="74" t="s">
         <v>802</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -13633,7 +14279,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="74" t="s">
         <v>803</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -13641,11 +14287,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="82"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="74" t="s">
         <v>804</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -13653,7 +14299,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="74" t="s">
         <v>805</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -13661,7 +14307,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="74" t="s">
         <v>807</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -13669,7 +14315,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="74" t="s">
         <v>814</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -13677,7 +14323,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="74" t="s">
         <v>809</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -13688,7 +14334,7 @@
       <c r="A13" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="74" t="s">
         <v>798</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -13696,7 +14342,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="74" t="s">
         <v>799</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -13704,7 +14350,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="74" t="s">
         <v>800</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -13712,7 +14358,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="74" t="s">
         <v>802</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -13720,7 +14366,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="74" t="s">
         <v>803</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -13728,11 +14374,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="82"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="74" t="s">
         <v>804</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -13740,7 +14386,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="74" t="s">
         <v>805</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -13748,7 +14394,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="74" t="s">
         <v>807</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -13756,7 +14402,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="74" t="s">
         <v>814</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -13764,7 +14410,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="74" t="s">
         <v>809</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -13772,10 +14418,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="75" t="s">
         <v>817</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="74" t="s">
         <v>818</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -13783,7 +14429,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="74" t="s">
         <v>799</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -13791,7 +14437,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="74" t="s">
         <v>800</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -13799,7 +14445,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="74" t="s">
         <v>802</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -13807,7 +14453,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="74" t="s">
         <v>803</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -13815,11 +14461,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="82"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="74" t="s">
         <v>804</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -13827,7 +14473,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="74" t="s">
         <v>805</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -13835,19 +14481,19 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="74" t="s">
         <v>807</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="74" t="s">
         <v>814</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="74" t="s">
         <v>809</v>
       </c>
       <c r="C35" s="21"/>
@@ -13865,7 +14511,7 @@
   </sheetPr>
   <dimension ref="B1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -13922,7 +14568,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -13963,7 +14609,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="75"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -14002,7 +14648,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -14041,7 +14687,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="75"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -14065,7 +14711,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="75"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -14092,7 +14738,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -14131,7 +14777,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -14155,7 +14801,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="76"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -14178,7 +14824,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -14219,7 +14865,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="75"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -14243,7 +14889,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="75"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14928,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="75"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -14318,7 +14964,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="75"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -14342,7 +14988,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="75"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -14366,7 +15012,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="75"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -14390,7 +15036,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -14414,7 +15060,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="87" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -14443,7 +15089,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="80"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -14467,7 +15113,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="80"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
@@ -14491,7 +15137,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="80"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -14515,7 +15161,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="80"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -14539,7 +15185,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="80"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -14563,7 +15209,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="80"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -14587,7 +15233,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="81"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -14611,7 +15257,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="83" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -14637,7 +15283,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="75"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -14661,7 +15307,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="75"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -14685,7 +15331,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="75"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -14709,7 +15355,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="75"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -14733,7 +15379,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="75"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -14760,7 +15406,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="75"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -14784,7 +15430,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="76"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -14808,7 +15454,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="83" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -14834,7 +15480,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="75"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -14858,7 +15504,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="75"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -14882,7 +15528,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="75"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -14906,7 +15552,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="75"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -14933,7 +15579,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="75"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -14960,7 +15606,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="75"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -14984,7 +15630,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="76"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
@@ -15008,7 +15654,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="83" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -15034,7 +15680,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="75"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -15058,7 +15704,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="75"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -15082,7 +15728,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="75"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -15106,7 +15752,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="75"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -15130,7 +15776,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="75"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -15154,7 +15800,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="75"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -15178,7 +15824,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="76"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -15202,76 +15848,76 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="74"/>
+      <c r="B51" s="86"/>
       <c r="I51" s="10" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="75"/>
+      <c r="B52" s="80"/>
       <c r="I52" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="75"/>
+      <c r="B53" s="80"/>
       <c r="I53" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="75"/>
+      <c r="B54" s="80"/>
       <c r="I54" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="75"/>
+      <c r="B55" s="80"/>
       <c r="I55" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="75"/>
+      <c r="B56" s="80"/>
       <c r="I56" s="10" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="75"/>
+      <c r="B57" s="80"/>
       <c r="I57" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="76"/>
+      <c r="B58" s="81"/>
       <c r="I58" s="10" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="77"/>
+      <c r="B59" s="82"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="77"/>
+      <c r="B60" s="82"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="77"/>
+      <c r="B61" s="82"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="77"/>
+      <c r="B62" s="82"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="77"/>
+      <c r="B63" s="82"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="77"/>
+      <c r="B64" s="82"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="77"/>
+      <c r="B65" s="82"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="77"/>
+      <c r="B66" s="82"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪MT试算" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="大boss作为小怪后技能" sheetId="6" r:id="rId5"/>
     <sheet name="副本布怪（旧版）" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="941">
   <si>
     <t>森林</t>
   </si>
@@ -1099,14 +1099,6 @@
   </si>
   <si>
     <t>物理攻击时，几率嘲讽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体暗法术伤害（自动）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击造成伤害时几率附加暗属性弱dot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1370,10 +1362,6 @@
     <t>单体D，自我增益</t>
   </si>
   <si>
-    <t>草</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>物理</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2381,10 +2369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小丑 （绿法D)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>舞狮（蓝法D）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3324,6 +3308,124 @@
   </si>
   <si>
     <t>神圣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C~SSS(共6种,SSS尚未出现)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体水属性物理伤害概率附加木属性弱dot（点到爽）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击附带全体增益buff+涅槃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑 （绿法D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体造成XX%的水属性伤害概率附带减速效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击具有减益效果几率附带眩晕效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击有效降低属性并附带眩晕</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法Bomb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体暗属性bomb，XX%法术伤害，3回合炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡后，给敌方造成群体暗属性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5348,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+    <sheetView topLeftCell="K43" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="N60" sqref="N49:N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5399,7 +5501,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="48" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="R1" s="49"/>
       <c r="S1" s="49"/>
@@ -5414,7 +5516,7 @@
         <v>65</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N2" s="50" t="s">
         <v>142</v>
@@ -5422,19 +5524,19 @@
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="48" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S2" s="48" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.15">
@@ -5445,10 +5547,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>79</v>
@@ -5460,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
@@ -5474,10 +5576,10 @@
         <v>77</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="P3" s="51" t="str">
         <f>IF(O3="植物","Plant",IF(O3="动物","Animal",IF(O3="人类","Human",IF(O3="异怪","Peculiar",IF(O3="神圣","Deity","Error")))))</f>
@@ -5502,16 +5604,16 @@
         <v>159</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Y3" s="45" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="Z3" s="45" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.15">
@@ -5549,10 +5651,10 @@
         <v>77</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="P4" s="51" t="str">
         <f>IF(O4="植物","Plant",IF(O4="动物","Animal",IF(O4="人类","Human",IF(O4="异怪","Peculiar",IF(O4="神圣","Deity","Error")))))</f>
@@ -5577,16 +5679,16 @@
         <v>174</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Y4" s="45" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="Z4" s="45" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.15">
@@ -5604,13 +5706,13 @@
         <v>77</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>72</v>
+      <c r="I5" s="51" t="s">
+        <v>840</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
@@ -5627,7 +5729,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P5" s="51" t="str">
         <f t="shared" ref="P5:P17" si="4">IF(O5="植物","Plant",IF(O5="动物","Animal",IF(O5="人类","Human",IF(O5="异怪","Peculiar",IF(O5="神圣","Deity","Error")))))</f>
@@ -5652,13 +5754,13 @@
         <v>183</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>80</v>
@@ -5673,7 +5775,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>77</v>
@@ -5685,17 +5787,17 @@
         <v>80</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="J6" s="8"/>
       <c r="M6" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P6" s="51" t="str">
         <f t="shared" si="4"/>
@@ -5732,15 +5834,14 @@
         <v>77</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="8"/>
+        <v>72</v>
+      </c>
       <c r="M7" s="8" t="s">
         <v>77</v>
       </c>
@@ -5748,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P7" s="51" t="str">
         <f t="shared" si="4"/>
@@ -5786,18 +5887,17 @@
       <c r="H8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>844</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="I8" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="M8" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P8" s="51" t="str">
         <f t="shared" si="4"/>
@@ -5815,16 +5915,16 @@
         <v>192</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="X8" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y8" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="Y8" s="10" t="s">
-        <v>557</v>
-      </c>
       <c r="Z8" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.15">
@@ -5836,7 +5936,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>77</v>
@@ -5847,8 +5947,8 @@
       <c r="H9" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>76</v>
+      <c r="I9" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="J9" s="18"/>
       <c r="M9" s="8" t="s">
@@ -5858,7 +5958,7 @@
         <v>95</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P9" s="51" t="str">
         <f t="shared" si="4"/>
@@ -5934,10 +6034,10 @@
         <v>102</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>77</v>
@@ -5971,16 +6071,16 @@
         <v>210</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
@@ -5992,13 +6092,13 @@
         <v>77</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>77</v>
@@ -6013,7 +6113,7 @@
         <v>102</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P12" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6059,7 +6159,7 @@
         <v>86</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P13" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6077,16 +6177,16 @@
         <v>222</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X13" s="44" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
@@ -6104,7 +6204,7 @@
         <v>80</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>80</v>
@@ -6117,10 +6217,10 @@
         <v>77</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P14" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6141,10 +6241,10 @@
         <v>156</v>
       </c>
       <c r="X14" s="44" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.15">
@@ -6168,17 +6268,17 @@
         <v>79</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J15" s="8"/>
       <c r="M15" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P15" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6202,13 +6302,13 @@
         <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>80</v>
@@ -6220,10 +6320,10 @@
         <v>77</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P16" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6247,7 +6347,7 @@
         <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>80</v>
@@ -6268,7 +6368,7 @@
         <v>76</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="P17" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6292,13 +6392,13 @@
         <v>79</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>89</v>
@@ -6343,10 +6443,10 @@
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="J19" s="8"/>
       <c r="N19" s="18"/>
@@ -6378,13 +6478,13 @@
       </c>
       <c r="J20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P20" s="51" t="str">
         <f>IF(O20="植物","Plant",IF(O20="动物","Animal",IF(O20="人类","Human",IF(O20="异怪","Peculiar",IF(O20="神圣","Deity","Error")))))</f>
@@ -6409,7 +6509,7 @@
         <v>80</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>77</v>
@@ -6425,13 +6525,13 @@
       </c>
       <c r="J21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P21" s="51" t="str">
         <f t="shared" ref="P21:P42" si="5">IF(O21="植物","Plant",IF(O21="动物","Animal",IF(O21="人类","Human",IF(O21="异怪","Peculiar",IF(O21="神圣","Deity","Error")))))</f>
@@ -6455,13 +6555,13 @@
         <v>80</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>79</v>
@@ -6471,13 +6571,13 @@
       </c>
       <c r="J22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P22" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6501,7 +6601,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>80</v>
@@ -6510,20 +6610,20 @@
         <v>71</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N23" s="51" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P23" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6559,17 +6659,17 @@
         <v>77</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J24" s="41"/>
       <c r="M24" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P24" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6599,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>80</v>
@@ -6609,13 +6709,13 @@
       </c>
       <c r="J25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="P25" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6639,7 +6739,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>79</v>
@@ -6651,11 +6751,11 @@
         <v>89</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J26" s="18"/>
       <c r="M26" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>93</v>
@@ -6687,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>77</v>
@@ -6699,17 +6799,17 @@
         <v>80</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P27" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6745,17 +6845,17 @@
         <v>80</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P28" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6791,11 +6891,11 @@
         <v>80</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J29" s="20"/>
       <c r="M29" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>91</v>
@@ -6825,7 +6925,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>77</v>
@@ -6837,17 +6937,17 @@
         <v>79</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J30" s="41"/>
       <c r="M30" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P30" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6871,29 +6971,29 @@
         <v>80</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>114</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P31" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6917,7 +7017,7 @@
         <v>80</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>80</v>
@@ -6929,17 +7029,17 @@
         <v>79</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="J32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P32" s="51" t="str">
         <f t="shared" si="5"/>
@@ -6963,29 +7063,29 @@
         <v>79</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J33" s="18"/>
       <c r="M33" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P33" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7009,29 +7109,29 @@
         <v>80</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J34" s="18"/>
       <c r="M34" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>124</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P34" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7063,23 +7163,23 @@
         <v>80</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>203</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P35" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7109,23 +7209,23 @@
         <v>80</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J36" s="18"/>
       <c r="M36" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P36" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7149,7 +7249,7 @@
         <v>77</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>80</v>
@@ -7161,17 +7261,17 @@
         <v>80</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J37" s="18"/>
       <c r="M37" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N37" s="57" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="O37" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P37" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7195,29 +7295,29 @@
         <v>80</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="J38" s="8"/>
       <c r="M38" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P38" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7241,29 +7341,29 @@
         <v>77</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="J39" s="40"/>
       <c r="M39" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N39" s="51" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P39" s="51" t="str">
         <f t="shared" si="5"/>
@@ -7287,26 +7387,26 @@
         <v>80</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="J40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N40" s="51" t="s">
-        <v>639</v>
+        <v>925</v>
       </c>
       <c r="O40" s="51" t="s">
         <v>229</v>
@@ -7333,26 +7433,26 @@
         <v>77</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>229</v>
@@ -7379,7 +7479,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="77" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>79</v>
@@ -7391,14 +7491,14 @@
         <v>89</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="O42" s="18" t="s">
         <v>229</v>
@@ -7427,23 +7527,23 @@
         <v>77</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G43" s="57" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J43" s="18"/>
       <c r="M43" s="52" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N43" s="53"/>
       <c r="O43" s="53"/>
@@ -7468,7 +7568,7 @@
         <v>80</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -7480,7 +7580,7 @@
         <v>79</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J44" s="18"/>
     </row>
@@ -7499,23 +7599,23 @@
         <v>79</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J45" s="18"/>
       <c r="M45" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N45" s="56" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="O45" s="56" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P45" s="51" t="str">
         <f>IF(O45="植物","Plant",IF(O45="动物","Animal",IF(O45="人类","Human",IF(O45="异怪","Peculiar",IF(O45="神圣","Deity","Error")))))</f>
@@ -7539,29 +7639,29 @@
         <v>79</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="J46" s="18"/>
       <c r="M46" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P46" s="51" t="str">
         <f t="shared" ref="P46:P60" si="6">IF(O46="植物","Plant",IF(O46="动物","Animal",IF(O46="人类","Human",IF(O46="异怪","Peculiar",IF(O46="神圣","Deity","Error")))))</f>
@@ -7591,23 +7691,23 @@
         <v>79</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J47" s="18"/>
       <c r="M47" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N47" s="56" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="O47" s="56" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P47" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7631,28 +7731,28 @@
         <v>80</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P48" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7676,19 +7776,19 @@
         <v>80</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J49" s="18"/>
       <c r="M49" s="8" t="s">
@@ -7698,7 +7798,7 @@
         <v>58</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P49" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7722,29 +7822,29 @@
         <v>80</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J50" s="8"/>
       <c r="M50" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P50" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7767,10 +7867,10 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>79</v>
@@ -7779,7 +7879,7 @@
         <v>110</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P51" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7805,16 +7905,16 @@
         <v>80</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P52" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7840,16 +7940,16 @@
         <v>79</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P53" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7875,7 +7975,7 @@
         <v>79</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>79</v>
@@ -7884,7 +7984,7 @@
         <v>118</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P54" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7910,16 +8010,16 @@
         <v>79</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P55" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7945,16 +8045,16 @@
         <v>79</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P56" s="51" t="str">
         <f t="shared" si="6"/>
@@ -7977,19 +8077,19 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P57" s="51" t="str">
         <f t="shared" si="6"/>
@@ -8015,16 +8115,16 @@
         <v>89</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N58" s="41" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O58" s="41" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P58" s="51" t="str">
         <f t="shared" si="6"/>
@@ -8045,10 +8145,10 @@
         <v>79</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P59" s="51" t="str">
         <f t="shared" si="6"/>
@@ -8069,10 +8169,10 @@
         <v>79</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="P60" s="51" t="str">
         <f t="shared" si="6"/>
@@ -8121,7 +8221,7 @@
         <v>89</v>
       </c>
       <c r="N65" s="51" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O65" s="51"/>
       <c r="P65" s="51"/>
@@ -8136,10 +8236,10 @@
         <v>89</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="P66" s="18"/>
       <c r="T66" s="48">
@@ -8153,10 +8253,10 @@
         <v>89</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P67" s="18"/>
       <c r="T67" s="48">
@@ -8170,10 +8270,10 @@
         <v>89</v>
       </c>
       <c r="N68" s="51" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="O68" s="51" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P68" s="51"/>
       <c r="T68" s="48">
@@ -8187,10 +8287,10 @@
         <v>89</v>
       </c>
       <c r="N69" s="51" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="O69" s="51" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P69" s="51"/>
       <c r="T69" s="48">
@@ -8204,10 +8304,10 @@
         <v>89</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="T70" s="48">
         <f t="shared" si="9"/>
@@ -8220,7 +8320,7 @@
         <v>89</v>
       </c>
       <c r="N71" s="51" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O71" s="51"/>
       <c r="P71" s="51"/>
@@ -8246,7 +8346,7 @@
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N74" s="18" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O74" s="18">
         <f>COUNTIF($O$3:$O$59,$N74)</f>
@@ -8256,7 +8356,7 @@
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N75" s="51" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="O75" s="18">
         <f>COUNTIF($O$3:$O$59,$N75)</f>
@@ -8266,7 +8366,7 @@
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N76" s="18" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="O76" s="18">
         <f>COUNTIF($O$3:$O$59,$N76)</f>
@@ -8276,7 +8376,7 @@
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.15">
       <c r="N77" s="18" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="O77" s="18">
         <f>COUNTIF($O$3:$O$60,$N77)</f>
@@ -8699,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P307"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224:G225"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8716,7 +8816,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:16" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>142</v>
       </c>
@@ -8809,10 +8909,10 @@
         <v>272</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -9276,16 +9376,16 @@
         <v>270</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>297</v>
+        <v>937</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>272</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>301</v>
+        <v>938</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>302</v>
+        <v>939</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -9305,10 +9405,10 @@
         <v>272</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -9358,16 +9458,16 @@
         <v>270</v>
       </c>
       <c r="I54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="K54" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="L54" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -9405,10 +9505,10 @@
         <v>285</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
@@ -9471,10 +9571,10 @@
         <v>289</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
@@ -9527,10 +9627,10 @@
         <v>299</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
@@ -9551,10 +9651,10 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>77</v>
@@ -9578,10 +9678,10 @@
         <v>272</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
@@ -9621,10 +9721,10 @@
         <v>272</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="80" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -9665,7 +9765,7 @@
         <v>290</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
@@ -9712,16 +9812,16 @@
         <v>270</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
@@ -9763,16 +9863,16 @@
         <v>270</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K93" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="L93" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="L93" s="21" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
@@ -9853,10 +9953,10 @@
         <v>289</v>
       </c>
       <c r="K101" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L101" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
@@ -9899,10 +9999,10 @@
         <v>299</v>
       </c>
       <c r="K105" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L105" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
@@ -9968,10 +10068,10 @@
         <v>272</v>
       </c>
       <c r="K113" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L113" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
@@ -9991,10 +10091,10 @@
         <v>272</v>
       </c>
       <c r="K114" s="21" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
@@ -10047,16 +10147,16 @@
         <v>270</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K120" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
@@ -10094,10 +10194,10 @@
         <v>289</v>
       </c>
       <c r="K123" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.3">
@@ -10117,10 +10217,10 @@
         <v>289</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
@@ -10188,10 +10288,10 @@
         <v>272</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10244,10 +10344,10 @@
         <v>285</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10280,10 +10380,10 @@
         <v>299</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
@@ -10318,10 +10418,10 @@
         <v>299</v>
       </c>
       <c r="K145" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L145" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10364,10 +10464,10 @@
         <v>272</v>
       </c>
       <c r="K149" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
@@ -10388,16 +10488,16 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F153" s="28" t="s">
         <v>153</v>
@@ -10425,10 +10525,10 @@
         <v>272</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
@@ -10453,10 +10553,10 @@
         <v>272</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="158" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10464,16 +10564,16 @@
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F159" s="28" t="s">
         <v>153</v>
@@ -10491,10 +10591,10 @@
         <v>277</v>
       </c>
       <c r="K159" s="10" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
@@ -10521,13 +10621,13 @@
         <v>288</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="K162" s="10" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.3">
@@ -10575,10 +10675,10 @@
         <v>299</v>
       </c>
       <c r="K167" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L167" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.3">
@@ -10603,10 +10703,10 @@
         <v>272</v>
       </c>
       <c r="K169" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L169" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10641,13 +10741,13 @@
         <v>298</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K172" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L172" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.3">
@@ -10667,10 +10767,10 @@
         <v>277</v>
       </c>
       <c r="K173" s="21" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="L173" s="21" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.3">
@@ -10723,10 +10823,10 @@
         <v>272</v>
       </c>
       <c r="K179" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L179" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.3">
@@ -10746,10 +10846,10 @@
         <v>272</v>
       </c>
       <c r="K180" s="21" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="L180" s="21" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.3">
@@ -10787,10 +10887,10 @@
         <v>285</v>
       </c>
       <c r="K183" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L183" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.3">
@@ -10853,10 +10953,10 @@
         <v>299</v>
       </c>
       <c r="K191" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L191" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.3">
@@ -10909,10 +11009,10 @@
         <v>289</v>
       </c>
       <c r="K197" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L197" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.3">
@@ -10937,10 +11037,10 @@
         <v>289</v>
       </c>
       <c r="K199" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L199" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="200" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10973,10 +11073,10 @@
         <v>272</v>
       </c>
       <c r="K201" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L201" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.3">
@@ -11036,16 +11136,16 @@
         <v>270</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J209" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K209" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L209" s="21" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.3">
@@ -11064,16 +11164,16 @@
     <row r="212" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B213" s="21" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F213" s="28" t="s">
         <v>153</v>
@@ -11106,10 +11206,10 @@
         <v>277</v>
       </c>
       <c r="K216" s="21" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="L216" s="21" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="217" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -11123,33 +11223,76 @@
         <v>270</v>
       </c>
       <c r="I217" s="21" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J217" s="21" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K217" s="21" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L217" s="21" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="218" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="219" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F219" s="33"/>
+      <c r="B219" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E219" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="F219" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G219" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="H219" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I219" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="J219" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="K219" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="L219" s="10" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="220" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F220" s="33"/>
+      <c r="F220" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="221" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F221" s="33"/>
+      <c r="F221" s="28" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="222" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F222" s="33"/>
+      <c r="F222" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G222" s="28"/>
+      <c r="H222" s="28"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
     </row>
     <row r="223" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F223" s="33"/>
+      <c r="F223" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
     </row>
     <row r="224" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="225" spans="6:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -11387,7 +11530,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11402,104 +11545,104 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="73" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="61" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="61" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="61" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="61" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
+        <v>652</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" s="62" t="s">
         <v>656</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="F10" s="61" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="G10" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="H10" s="61" t="s">
         <v>659</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="I10" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="J10" s="61" t="s">
         <v>661</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="K10" s="61" t="s">
         <v>662</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="L10" s="61" t="s">
         <v>663</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="M10" s="61" t="s">
         <v>664</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>665</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>666</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>667</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="64" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
@@ -11507,31 +11650,31 @@
         <v>270</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -11544,36 +11687,36 @@
         <v>270</v>
       </c>
       <c r="E13" s="62" t="s">
+        <v>665</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>666</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="M13" s="61" t="s">
         <v>669</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>670</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>672</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="64" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -11581,75 +11724,75 @@
         <v>270</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="64" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="64" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -11657,36 +11800,36 @@
         <v>270</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="64" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -11694,36 +11837,36 @@
         <v>270</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -11731,31 +11874,31 @@
         <v>270</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L18" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -11769,7 +11912,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="64" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -11777,221 +11920,221 @@
         <v>270</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="64" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="64" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L23" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M23" s="61" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="64" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -12001,42 +12144,42 @@
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="61" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E26" s="62">
         <v>1</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I26" s="61" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L26" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -12046,228 +12189,228 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="64" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D29" s="64"/>
       <c r="E29" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="64" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D30" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L30" s="61" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="64" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L31" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="68" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="64" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="69" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="64" t="s">
@@ -12277,164 +12420,164 @@
         <v>1</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J35" s="61" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="64" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D37" s="64"/>
       <c r="E37" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F37" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>710</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="I37" s="61" t="s">
         <v>738</v>
       </c>
-      <c r="G37" s="61" t="s">
-        <v>714</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>742</v>
-      </c>
       <c r="J37" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D38" s="70"/>
       <c r="E38" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J38" s="61" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="68" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C39" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F39" s="61" t="s">
+        <v>741</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="I39" s="61" t="s">
         <v>745</v>
       </c>
-      <c r="G39" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="I39" s="61" t="s">
-        <v>749</v>
-      </c>
       <c r="J39" s="61" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="64" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="64" t="s">
@@ -12442,15 +12585,15 @@
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="71" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="64" t="s">
@@ -12458,39 +12601,39 @@
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="64" t="s">
@@ -12503,163 +12646,163 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="64" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
       <c r="E44" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="I44" s="61" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="65" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D46" s="65"/>
       <c r="E46" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="64" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E47" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I47" s="61" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J47" s="61" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="71" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
       <c r="E48" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="64" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C49" s="64"/>
       <c r="D49" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="72" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C50" s="72"/>
       <c r="D50" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="66" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="64" t="s">
@@ -12671,48 +12814,48 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="65" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65"/>
       <c r="E52" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="65" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
       <c r="E53" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="65" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="64" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -12722,47 +12865,47 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="65" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="65" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
       <c r="E58" s="62" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="66" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C59" s="64"/>
       <c r="D59" s="64"/>
@@ -12772,42 +12915,42 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="61" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="61" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="61" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -12818,1410 +12961,1744 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="28"/>
     <col min="2" max="2" width="12.375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11" style="28"/>
-    <col min="4" max="4" width="79.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" style="28"/>
-    <col min="8" max="8" width="78.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="28"/>
+    <col min="3" max="5" width="11" style="28"/>
+    <col min="6" max="6" width="79.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="28"/>
+    <col min="10" max="10" width="78.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="I1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="P1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="N1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="E2" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="O1" s="28" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="E2" s="37" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>368</v>
       </c>
       <c r="C3" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="J4" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="K4" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="H4" s="38" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="E5" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="I5" s="28" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="J5" s="28" t="s">
+      <c r="K5" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="J7" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="K7" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="L7" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>936</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>390</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>393</v>
       </c>
       <c r="C9" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E27" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="39"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K32" s="33"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="39"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="28">
+        <v>5</v>
+      </c>
+      <c r="D35" s="28">
+        <v>6</v>
+      </c>
+      <c r="K35" s="33"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F39" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="J10" s="28" t="s">
+      <c r="E41" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C50" s="28">
+        <v>20</v>
+      </c>
+      <c r="D50" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" s="28" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>863</v>
-      </c>
-      <c r="I15" s="28" t="s">
+      <c r="J53" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="K53" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="L54" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="L57" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="L61" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M62" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="M64" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O64" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="L65" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M65" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O65" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B67" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>887</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="I67" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="L67" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M67" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="N67" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O67" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>886</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I69" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="L69" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>887</v>
       </c>
-      <c r="J16" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="M25" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="39"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="28">
+      <c r="I70" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>868</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C72" s="28">
+        <v>4</v>
+      </c>
+      <c r="D72" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="B73" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="L73" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M73" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
+      <c r="F74" s="28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="29"/>
+      <c r="B75" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="L75" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
+      <c r="B77" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="L77" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M77" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O77" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="29"/>
+      <c r="B79" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="L79" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M79" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="29"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="29"/>
+      <c r="B81" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="L81" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M81" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O81" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="29"/>
+      <c r="B82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="29"/>
+      <c r="B83" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="H83" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="L83" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="M83" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="N83" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="O83" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="C84" s="28">
+        <v>10</v>
+      </c>
+      <c r="D84" s="28">
+        <v>0</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+      <c r="F85" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+      <c r="F86" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+      <c r="F87" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="29"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" s="28">
         <v>5</v>
       </c>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D38" s="28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="J41" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="C48" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="J54" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K59" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M59" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
-        <v>866</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>903</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="K61" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M61" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="28" t="s">
-        <v>866</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>906</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K62" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>891</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="J64" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K64" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M64" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>890</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="J66" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M66" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>891</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="J67" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="L67" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M67" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C69" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="J70" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K70" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M70" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="D71" s="28" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="J72" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K72" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M72" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="18"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="J74" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K74" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M74" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="18"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="I76" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K76" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M76" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="H78" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="I78" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="J78" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K78" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M78" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="29"/>
-      <c r="B80" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="J80" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K80" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="M80" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="C81" s="28">
+      <c r="D89" s="28">
+        <v>0</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="29"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="29"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="29"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" s="28">
+        <f>SUM(C3:C89)</f>
+        <v>61</v>
+      </c>
+      <c r="D94" s="28">
+        <f>SUM(D3:D89)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="29"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="29" t="s">
+        <v>915</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="29">
+        <f>COUNTIF($E$4:$E$83,A96)</f>
+        <v>11</v>
+      </c>
+      <c r="B97" s="29">
+        <f t="shared" ref="B97:E97" si="0">COUNTIF($E$4:$E$83,B96)</f>
+        <v>17</v>
+      </c>
+      <c r="C97" s="29">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
-      <c r="D82" s="28" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="D83" s="28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="29"/>
-      <c r="D84" s="28" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="C86" s="28">
+      <c r="D97" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E97" s="29">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="C91" s="28">
-        <f>SUM(C3:C86)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
+      <c r="F97" s="29">
+        <f>COUNTIF($E$4:$E$83,F96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="29"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14234,8 +14711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -14245,45 +14722,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="74" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="74" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="74" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="74" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -14292,85 +14769,85 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="74" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="74" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="74" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="74" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="74" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="74" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="74" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="74" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -14379,85 +14856,85 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="74" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="74" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="74" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="74" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="74" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="75" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="74" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" s="74" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="74" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="74" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -14466,35 +14943,35 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" s="74" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="74" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="74" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="74" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="74" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C35" s="21"/>
     </row>
@@ -14564,7 +15041,7 @@
         <v>77</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -14596,16 +15073,16 @@
         <v>159</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P3" s="45" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
@@ -14635,16 +15112,16 @@
         <v>174</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O4" s="45" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -14674,13 +15151,13 @@
         <v>183</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>80</v>
@@ -14764,16 +15241,16 @@
         <v>192</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="N8" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>557</v>
-      </c>
       <c r="P8" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
@@ -14852,16 +15329,16 @@
         <v>210</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
@@ -14915,16 +15392,16 @@
         <v>222</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
@@ -14957,10 +15434,10 @@
         <v>156</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
@@ -15085,7 +15562,7 @@
         <v>116</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
@@ -15327,7 +15804,7 @@
         <v>80</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
@@ -15351,7 +15828,7 @@
         <v>79</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
@@ -15375,7 +15852,7 @@
         <v>79</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
@@ -15396,13 +15873,13 @@
         <v>114</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -15500,7 +15977,7 @@
         <v>81</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
@@ -15572,10 +16049,10 @@
         <v>81</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
@@ -15602,7 +16079,7 @@
         <v>177</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
@@ -15650,7 +16127,7 @@
         <v>89</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
@@ -15664,7 +16141,7 @@
         <v>81</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>80</v>
@@ -15796,7 +16273,7 @@
         <v>80</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -15838,61 +16315,61 @@
         <v>80</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="86"/>
       <c r="I51" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="80"/>
       <c r="I52" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="80"/>
       <c r="I53" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="80"/>
       <c r="I54" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="80"/>
       <c r="I55" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="80"/>
       <c r="I56" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="80"/>
       <c r="I57" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="81"/>
       <c r="I58" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680" activeTab="3"/>
+    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪MT试算" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="965">
   <si>
     <t>森林</t>
   </si>
@@ -3426,6 +3426,102 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异怪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3687,7 +3783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3913,6 +4009,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5448,10 +5556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z156"/>
+  <dimension ref="B1:AF156"/>
   <sheetViews>
-    <sheetView topLeftCell="K43" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="N60" sqref="N49:N60"/>
+    <sheetView tabSelected="1" topLeftCell="K61" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5466,15 +5574,15 @@
     <col min="9" max="9" width="18.625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.625" style="10" customWidth="1"/>
     <col min="11" max="12" width="8.875" style="10"/>
-    <col min="13" max="13" width="8.875" style="8"/>
-    <col min="14" max="16" width="16.625" style="8" customWidth="1"/>
-    <col min="17" max="20" width="8.875" style="48"/>
-    <col min="21" max="23" width="8.875" style="10"/>
-    <col min="24" max="24" width="12.5" style="10" customWidth="1"/>
-    <col min="25" max="16384" width="8.875" style="10"/>
+    <col min="13" max="14" width="8.875" style="8"/>
+    <col min="15" max="17" width="16.625" style="8" customWidth="1"/>
+    <col min="18" max="21" width="8.875" style="48"/>
+    <col min="22" max="27" width="8.875" style="10"/>
+    <col min="28" max="28" width="12.5" style="10" customWidth="1"/>
+    <col min="29" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14" t="s">
@@ -5497,17 +5605,18 @@
       </c>
       <c r="J1" s="15"/>
       <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
+      <c r="N1" s="46"/>
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="R1" s="49"/>
       <c r="S1" s="49"/>
       <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U1" s="49"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
@@ -5518,29 +5627,29 @@
       <c r="L2" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="O2" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="50"/>
       <c r="P2" s="50"/>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="48" t="s">
         <v>581</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="T2" s="48" t="s">
         <v>580</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="U2" s="48" t="s">
         <v>571</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B3" s="80" t="s">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -5575,49 +5684,52 @@
       <c r="M3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>840</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="P3" s="51" t="s">
         <v>905</v>
       </c>
-      <c r="P3" s="51" t="str">
-        <f>IF(O3="植物","Plant",IF(O3="动物","Animal",IF(O3="人类","Human",IF(O3="异怪","Peculiar",IF(O3="神圣","Deity","Error")))))</f>
+      <c r="Q3" s="51" t="str">
+        <f>IF(P3="植物","Plant",IF(P3="动物","Animal",IF(P3="人类","Human",IF(P3="异怪","Peculiar",IF(P3="神圣","Deity","Error")))))</f>
         <v>Plant</v>
       </c>
-      <c r="Q3" s="48">
-        <f>COUNTIF($E$3:$G$58,N3)</f>
+      <c r="R3" s="48">
+        <f t="shared" ref="R3:R13" si="0">COUNTIF($E$3:$G$58,O3)</f>
         <v>3</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="48">
-        <f>COUNTIF($H$3:$H$58,R3)</f>
+      <c r="T3" s="48">
+        <f>COUNTIF($H$3:$H$58,S3)</f>
         <v>10</v>
       </c>
-      <c r="T3" s="48">
-        <f>COUNTIF($I$3:$I$58,N3)</f>
+      <c r="U3" s="48">
+        <f>COUNTIF($I$3:$I$58,O3)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="AC3" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="Z3" s="45" t="s">
+      <c r="AD3" s="45" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B4" s="80"/>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B4" s="84"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -5650,49 +5762,52 @@
       <c r="M4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O4" s="51" t="s">
         <v>841</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="P4" s="51" t="s">
         <v>905</v>
       </c>
-      <c r="P4" s="51" t="str">
-        <f>IF(O4="植物","Plant",IF(O4="动物","Animal",IF(O4="人类","Human",IF(O4="异怪","Peculiar",IF(O4="神圣","Deity","Error")))))</f>
+      <c r="Q4" s="51" t="str">
+        <f>IF(P4="植物","Plant",IF(P4="动物","Animal",IF(P4="人类","Human",IF(P4="异怪","Peculiar",IF(P4="神圣","Deity","Error")))))</f>
         <v>Plant</v>
       </c>
-      <c r="Q4" s="48">
-        <f t="shared" ref="Q4:Q60" si="0">COUNTIF($E$3:$G$58,N4)</f>
+      <c r="R4" s="48">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="48">
-        <f t="shared" ref="S4" si="1">COUNTIF($H$3:$H$58,R4)</f>
+      <c r="T4" s="48">
+        <f>COUNTIF($H$3:$H$58,S4)</f>
         <v>22</v>
       </c>
-      <c r="T4" s="48">
-        <f t="shared" ref="T4:T60" si="2">COUNTIF($I$3:$I$58,N4)</f>
+      <c r="U4" s="48">
+        <f t="shared" ref="U4:U13" si="1">COUNTIF($I$3:$I$58,O4)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="AB4" s="44" t="s">
         <v>562</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="AC4" s="45" t="s">
         <v>844</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="AD4" s="45" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B5" s="80"/>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B5" s="84"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -5719,55 +5834,58 @@
         <v>79</v>
       </c>
       <c r="L5" s="48">
-        <f t="shared" ref="L5" si="3">COUNTIF($D$3:$G$58,K5)</f>
+        <f>COUNTIF($D$3:$G$58,K5)</f>
         <v>22</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="P5" s="51" t="str">
-        <f t="shared" ref="P5:P17" si="4">IF(O5="植物","Plant",IF(O5="动物","Animal",IF(O5="人类","Human",IF(O5="异怪","Peculiar",IF(O5="神圣","Deity","Error")))))</f>
+      <c r="Q5" s="51" t="str">
+        <f t="shared" ref="Q5" si="2">IF(P5="植物","Plant",IF(P5="动物","Animal",IF(P5="人类","Human",IF(P5="异怪","Peculiar",IF(P5="神圣","Deity","Error")))))</f>
         <v>Peculiar</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="R5" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="48">
-        <f>COUNTIF($H$3:$H$58,R5)</f>
+      <c r="T5" s="48">
+        <f>COUNTIF($H$3:$H$58,S5)</f>
         <v>17</v>
       </c>
-      <c r="T5" s="48">
-        <f t="shared" si="2"/>
+      <c r="U5" s="48">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AD5" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B6" s="80"/>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B6" s="84"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -5794,141 +5912,150 @@
         <v>77</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>586</v>
+        <v>945</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P6" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q6" s="48">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q6" s="51" t="str">
+        <f t="shared" ref="Q6:Q13" si="3">IF(P6="植物","Plant",IF(P6="动物","Animal",IF(P6="人类","Human",IF(P6="异怪","Peculiar",IF(P6="神圣","Deity","Error")))))</f>
+        <v>Animal</v>
+      </c>
+      <c r="R6" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="48">
+        <f>COUNTIF($H$3:$H$58,S6)</f>
+        <v>7</v>
+      </c>
+      <c r="U6" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B7" s="84"/>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q7" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Animal</v>
+      </c>
+      <c r="R7" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B8" s="84"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q8" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Animal</v>
+      </c>
+      <c r="R8" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" s="48">
-        <f>COUNTIF($H$3:$H$58,R6)</f>
-        <v>7</v>
-      </c>
-      <c r="T6" s="48">
-        <f t="shared" si="2"/>
+      <c r="U8" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B7" s="80"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="P7" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q7" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T7" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B8" s="80"/>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="P8" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q8" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T8" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="AA8" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="AB8" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="AC8" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AD8" s="10" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B9" s="84"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -5955,26 +6082,29 @@
         <v>77</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>95</v>
+        <v>945</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P9" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q9" s="48">
+        <v>86</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Animal</v>
+      </c>
+      <c r="R9" s="48">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T9" s="48">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U9" s="48">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
+    <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="85"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -5996,465 +6126,488 @@
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
       <c r="M10" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q10" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Animal</v>
+      </c>
+      <c r="R10" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B11" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="E11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="J11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>925</v>
+      </c>
+      <c r="P11" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="51" t="str">
+      <c r="Q11" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Human</v>
+      </c>
+      <c r="R11" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B12" s="84"/>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>635</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Human</v>
+      </c>
+      <c r="R12" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="84"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>Human</v>
+      </c>
+      <c r="R13" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB13" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="84"/>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="M14" s="52" t="s">
+        <v>951</v>
+      </c>
+      <c r="N14" s="79"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54">
+        <f>SUM(R3:R13)</f>
+        <v>23</v>
+      </c>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55">
+        <f>SUM(U3:U13)</f>
+        <v>7</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB14" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B15" s="84"/>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B16" s="84"/>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" s="51" t="str">
+        <f t="shared" ref="Q16:Q31" si="4">IF(P16="植物","Plant",IF(P16="动物","Animal",IF(P16="人类","Human",IF(P16="异怪","Peculiar",IF(P16="神圣","Deity","Error")))))</f>
+        <v>Human</v>
+      </c>
+      <c r="R16" s="48">
+        <f t="shared" ref="R16:R31" si="5">COUNTIF($E$3:$G$58,O16)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="48">
+        <f t="shared" ref="U16:U29" si="6">COUNTIF($I$3:$I$58,O16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B17" s="84"/>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="51" t="str">
         <f t="shared" si="4"/>
         <v>Human</v>
       </c>
-      <c r="Q10" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T10" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="8" t="s">
+      <c r="R17" s="48">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U17" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="85"/>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="E18" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>845</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="M11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P11" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Human</v>
-      </c>
-      <c r="Q11" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T11" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="80"/>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="N18" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>635</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="P12" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q12" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T12" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="80"/>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="P13" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q13" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T13" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="X13" s="44" t="s">
-        <v>563</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="80"/>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="M14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="41" t="s">
-        <v>591</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>906</v>
-      </c>
-      <c r="P14" s="51" t="str">
+      <c r="P18" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q18" s="18" t="str">
         <f t="shared" si="4"/>
         <v>Peculiar</v>
       </c>
-      <c r="Q14" s="48">
-        <f t="shared" si="0"/>
+      <c r="R18" s="48">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="T14" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="X14" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B15" s="80"/>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="S18" s="8"/>
+      <c r="U18" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B19" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="G19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="M19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="M15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="O15" s="8" t="s">
+      <c r="N19" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="P19" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="P15" s="51" t="str">
+      <c r="Q19" s="51" t="str">
         <f t="shared" si="4"/>
         <v>Peculiar</v>
       </c>
-      <c r="Q15" s="48">
-        <f t="shared" si="0"/>
+      <c r="R19" s="48">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="T15" s="48">
-        <f t="shared" si="2"/>
+      <c r="U19" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="80"/>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="P16" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q16" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T16" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="80"/>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="51" t="s">
-        <v>905</v>
-      </c>
-      <c r="P17" s="51" t="str">
-        <f t="shared" si="4"/>
-        <v>Plant</v>
-      </c>
-      <c r="Q17" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="81"/>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>845</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="54">
-        <f>SUM(Q3:Q17)</f>
-        <v>36</v>
-      </c>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55">
-        <f>SUM(T3:T17)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B19" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B20" s="84"/>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B20" s="88"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -6480,28 +6633,31 @@
       <c r="M20" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N20" s="51" t="s">
+      <c r="N20" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O20" s="80" t="s">
         <v>846</v>
       </c>
-      <c r="O20" s="51" t="s">
-        <v>906</v>
-      </c>
-      <c r="P20" s="51" t="str">
-        <f>IF(O20="植物","Plant",IF(O20="动物","Animal",IF(O20="人类","Human",IF(O20="异怪","Peculiar",IF(O20="神圣","Deity","Error")))))</f>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q20" s="48">
-        <f>COUNTIF($E$3:$G$58,N20)</f>
+      <c r="P20" s="80" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q20" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>Human</v>
+      </c>
+      <c r="R20" s="48">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="T20" s="48">
-        <f>COUNTIF($I$3:$I$58,N20)</f>
+      <c r="S20" s="10"/>
+      <c r="U20" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B21" s="84"/>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B21" s="88"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
@@ -6527,27 +6683,30 @@
       <c r="M21" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O21" s="80" t="s">
         <v>845</v>
       </c>
-      <c r="O21" s="51" t="s">
-        <v>906</v>
-      </c>
-      <c r="P21" s="51" t="str">
-        <f t="shared" ref="P21:P42" si="5">IF(O21="植物","Plant",IF(O21="动物","Animal",IF(O21="人类","Human",IF(O21="异怪","Peculiar",IF(O21="神圣","Deity","Error")))))</f>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q21" s="48">
-        <f>COUNTIF($E$3:$G$58,N21)</f>
+      <c r="P21" s="80" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q21" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>Human</v>
+      </c>
+      <c r="R21" s="48">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="T21" s="48">
-        <f t="shared" si="2"/>
+      <c r="U21" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B22" s="84"/>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B22" s="88"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -6573,27 +6732,31 @@
       <c r="M22" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N22" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="P22" s="51" t="str">
+      <c r="N22" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q22" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Deity</v>
+      </c>
+      <c r="R22" s="48">
         <f t="shared" si="5"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q22" s="48">
-        <f>COUNTIF($E$3:$G$58,N22)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="48">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U22" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B23" s="84"/>
+      <c r="AF22" s="48"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B23" s="88"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -6619,27 +6782,30 @@
       <c r="M23" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N23" s="51" t="s">
-        <v>785</v>
-      </c>
-      <c r="O23" s="51" t="s">
-        <v>906</v>
-      </c>
-      <c r="P23" s="51" t="str">
+      <c r="N23" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="P23" s="51" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q23" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Plant</v>
+      </c>
+      <c r="R23" s="48">
         <f t="shared" si="5"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q23" s="48">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U23" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T23" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B24" s="84"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B24" s="88"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -6666,26 +6832,29 @@
         <v>588</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>637</v>
+        <v>940</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="P24" s="51" t="str">
+        <v>93</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q24" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Human</v>
+      </c>
+      <c r="R24" s="48">
         <f t="shared" si="5"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q24" s="48">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T24" s="48">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U24" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="84"/>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B25" s="88"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -6712,26 +6881,29 @@
         <v>588</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="O25" s="51" t="s">
-        <v>905</v>
-      </c>
-      <c r="P25" s="51" t="str">
+        <v>940</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q25" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="R25" s="48">
         <f t="shared" si="5"/>
-        <v>Plant</v>
-      </c>
-      <c r="Q25" s="48">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T25" s="48">
-        <f t="shared" si="2"/>
+      <c r="U25" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
+    <row r="26" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="89"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -6758,26 +6930,29 @@
         <v>588</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P26" s="51" t="str">
+        <v>940</v>
+      </c>
+      <c r="O26" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="80" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q26" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="R26" s="48">
         <f t="shared" si="5"/>
-        <v>Human</v>
-      </c>
-      <c r="Q26" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T26" s="48">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U26" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B27" s="83" t="s">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B27" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -6806,26 +6981,29 @@
         <v>588</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="O27" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>907</v>
       </c>
-      <c r="P27" s="51" t="str">
+      <c r="Q27" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="R27" s="48">
         <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q27" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T27" s="48">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" s="80"/>
+      <c r="U27" s="48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B28" s="84"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -6852,26 +7030,29 @@
         <v>588</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="O28" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="P28" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="P28" s="51" t="str">
+      <c r="Q28" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="R28" s="48">
         <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q28" s="48">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U28" s="48">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T28" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="80"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B29" s="84"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6895,29 +7076,32 @@
       </c>
       <c r="J29" s="20"/>
       <c r="M29" s="8" t="s">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P29" s="51" t="str">
+        <v>940</v>
+      </c>
+      <c r="O29" s="80" t="s">
+        <v>598</v>
+      </c>
+      <c r="P29" s="80" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q29" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>Human</v>
+      </c>
+      <c r="R29" s="48">
         <f t="shared" si="5"/>
-        <v>Human</v>
-      </c>
-      <c r="Q29" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T29" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="80"/>
+        <v>2</v>
+      </c>
+      <c r="U29" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B30" s="84"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -6941,29 +7125,32 @@
       </c>
       <c r="J30" s="41"/>
       <c r="M30" s="8" t="s">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>597</v>
+        <v>940</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="P30" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="P30" s="51" t="str">
+      <c r="Q30" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="R30" s="48">
         <f t="shared" si="5"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q30" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T30" s="48">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="80"/>
+      <c r="U30" s="48">
+        <f>COUNTIF($I$3:$I$58,O30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="84"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -6987,29 +7174,32 @@
       </c>
       <c r="J31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P31" s="51" t="str">
+        <v>948</v>
+      </c>
+      <c r="O31" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="P31" s="80" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q31" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>Animal</v>
+      </c>
+      <c r="R31" s="48">
         <f t="shared" si="5"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q31" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T31" s="48">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U31" s="48">
+        <f>COUNTIF($I$3:$I$58,O31)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="80"/>
+    <row r="32" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="84"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -7032,30 +7222,26 @@
         <v>850</v>
       </c>
       <c r="J32" s="8"/>
-      <c r="M32" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="N32" s="51" t="s">
-        <v>848</v>
-      </c>
-      <c r="O32" s="51" t="s">
-        <v>907</v>
-      </c>
-      <c r="P32" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q32" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B33" s="80"/>
+      <c r="M32" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="N32" s="79"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="54">
+        <f>SUM(R16:R31)</f>
+        <v>39</v>
+      </c>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="55">
+        <f>SUM(U16:U31)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B33" s="84"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -7078,30 +7264,9 @@
         <v>613</v>
       </c>
       <c r="J33" s="18"/>
-      <c r="M33" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>907</v>
-      </c>
-      <c r="P33" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q33" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T33" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="81"/>
+    </row>
+    <row r="34" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="85"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -7125,29 +7290,32 @@
       </c>
       <c r="J34" s="18"/>
       <c r="M34" s="8" t="s">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P34" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q34" s="48">
-        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="O34" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="80" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q34" s="80" t="str">
+        <f t="shared" ref="Q34:Q47" si="7">IF(P34="植物","Plant",IF(P34="动物","Animal",IF(P34="人类","Human",IF(P34="异怪","Peculiar",IF(P34="神圣","Deity","Error")))))</f>
+        <v>Plant</v>
+      </c>
+      <c r="R34" s="48">
+        <f t="shared" ref="R34:R47" si="8">COUNTIF($E$3:$G$58,O34)</f>
+        <v>4</v>
+      </c>
+      <c r="U34" s="48">
+        <f t="shared" ref="U34:U42" si="9">COUNTIF($I$3:$I$58,O35)</f>
         <v>1</v>
       </c>
-      <c r="T34" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B35" s="80" t="s">
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B35" s="84" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -7173,29 +7341,32 @@
       </c>
       <c r="J35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="P35" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q35" s="48">
-        <f t="shared" si="0"/>
+        <v>941</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>591</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q35" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="R35" s="48">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U35" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T35" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B36" s="80"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B36" s="84"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -7221,27 +7392,30 @@
       <c r="M36" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N36" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="P36" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q36" s="48">
-        <f t="shared" si="0"/>
+      <c r="N36" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q36" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>Human</v>
+      </c>
+      <c r="R36" s="48">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U36" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T36" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B37" s="80"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B37" s="84"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -7267,27 +7441,30 @@
       <c r="M37" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N37" s="57" t="s">
-        <v>852</v>
-      </c>
-      <c r="O37" s="57" t="s">
-        <v>907</v>
-      </c>
-      <c r="P37" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Animal</v>
-      </c>
-      <c r="Q37" s="48">
-        <f t="shared" si="0"/>
+      <c r="N37" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O37" s="80" t="s">
+        <v>597</v>
+      </c>
+      <c r="P37" s="80" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q37" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>Human</v>
+      </c>
+      <c r="R37" s="48">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U37" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T37" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B38" s="80"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B38" s="84"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -7313,27 +7490,30 @@
       <c r="M38" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N38" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="P38" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q38" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="80"/>
+      <c r="N38" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O38" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" s="80" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q38" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>Human</v>
+      </c>
+      <c r="R38" s="48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U38" s="48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B39" s="84"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -7359,27 +7539,30 @@
       <c r="M39" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N39" s="51" t="s">
-        <v>787</v>
-      </c>
-      <c r="O39" s="51" t="s">
-        <v>908</v>
-      </c>
-      <c r="P39" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q39" s="48">
-        <f t="shared" si="0"/>
+      <c r="N39" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="P39" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q39" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>Animal</v>
+      </c>
+      <c r="R39" s="48">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T39" s="48">
-        <f t="shared" si="2"/>
+      <c r="U39" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="80"/>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B40" s="84"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -7405,27 +7588,30 @@
       <c r="M40" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="N40" s="51" t="s">
-        <v>925</v>
-      </c>
-      <c r="O40" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="P40" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Human</v>
-      </c>
-      <c r="Q40" s="48">
-        <f t="shared" si="0"/>
+      <c r="N40" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O40" s="57" t="s">
+        <v>852</v>
+      </c>
+      <c r="P40" s="57" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q40" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>Animal</v>
+      </c>
+      <c r="R40" s="48">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T40" s="48">
-        <f t="shared" si="2"/>
+      <c r="U40" s="48">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B41" s="80"/>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B41" s="84"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -7449,29 +7635,32 @@
       </c>
       <c r="J41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P41" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Human</v>
-      </c>
-      <c r="Q41" s="48">
-        <f t="shared" si="0"/>
+        <v>941</v>
+      </c>
+      <c r="O41" s="81" t="s">
+        <v>851</v>
+      </c>
+      <c r="P41" s="81" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q41" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>Animal</v>
+      </c>
+      <c r="R41" s="48">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T41" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="81"/>
+      <c r="U41" s="48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="85"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
@@ -7495,29 +7684,32 @@
       </c>
       <c r="J42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="P42" s="51" t="str">
-        <f t="shared" si="5"/>
-        <v>Human</v>
-      </c>
-      <c r="Q42" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T42" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O42" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="P42" s="82" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q42" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>Animal</v>
+      </c>
+      <c r="R42" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B43" s="84" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -7542,25 +7734,33 @@
         <v>625</v>
       </c>
       <c r="J43" s="18"/>
-      <c r="M43" s="52" t="s">
-        <v>588</v>
-      </c>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="54">
-        <f>SUM(Q20:Q42)</f>
-        <v>38</v>
-      </c>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="55">
-        <f>SUM(T20:T42)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B44" s="80"/>
+      <c r="M43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O43" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" s="80" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q43" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>Human</v>
+      </c>
+      <c r="R43" s="48">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U43" s="48">
+        <f>COUNTIF($I$3:$I$58,O45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B44" s="84"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -7583,9 +7783,33 @@
         <v>612</v>
       </c>
       <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B45" s="80"/>
+      <c r="M44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q44" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>Deity</v>
+      </c>
+      <c r="R44" s="48">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U44" s="48">
+        <f>COUNTIF($I$3:$I$58,O44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B45" s="84"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -7611,27 +7835,30 @@
       <c r="M45" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N45" s="56" t="s">
-        <v>851</v>
-      </c>
-      <c r="O45" s="56" t="s">
+      <c r="N45" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="P45" s="51" t="str">
-        <f>IF(O45="植物","Plant",IF(O45="动物","Animal",IF(O45="人类","Human",IF(O45="异怪","Peculiar",IF(O45="神圣","Deity","Error")))))</f>
+      <c r="Q45" s="51" t="str">
+        <f t="shared" si="7"/>
         <v>Deity</v>
       </c>
-      <c r="Q45" s="48">
-        <f>COUNTIF($E$3:$G$58,N45)</f>
+      <c r="R45" s="48">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U45" s="48">
+        <f>COUNTIF($I$3:$I$58,O46)</f>
         <v>1</v>
       </c>
-      <c r="T45" s="48">
-        <f>COUNTIF($I$3:$I$58,N45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B46" s="80"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B46" s="84"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -7657,27 +7884,30 @@
       <c r="M46" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="P46" s="51" t="str">
-        <f t="shared" ref="P46:P60" si="6">IF(O46="植物","Plant",IF(O46="动物","Animal",IF(O46="人类","Human",IF(O46="异怪","Peculiar",IF(O46="神圣","Deity","Error")))))</f>
-        <v>Deity</v>
-      </c>
-      <c r="Q46" s="48">
-        <f t="shared" ref="Q46:Q48" si="7">COUNTIF($E$3:$G$58,N46)</f>
-        <v>0</v>
-      </c>
-      <c r="T46" s="48">
-        <f t="shared" ref="T46:T48" si="8">COUNTIF($I$3:$I$58,N46)</f>
+      <c r="N46" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O46" s="80" t="s">
+        <v>612</v>
+      </c>
+      <c r="P46" s="80" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q46" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="R46" s="48">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U46" s="48">
+        <f>COUNTIF($I$3:$I$58,O47)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B47" s="80"/>
+    <row r="47" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="84"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -7703,27 +7933,30 @@
       <c r="M47" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N47" s="56" t="s">
-        <v>849</v>
-      </c>
-      <c r="O47" s="56" t="s">
-        <v>908</v>
-      </c>
-      <c r="P47" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q47" s="48">
-        <f>COUNTIF($E$3:$G$58,N47)</f>
-        <v>1</v>
-      </c>
-      <c r="T47" s="48">
+      <c r="N47" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q47" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>Peculiar</v>
+      </c>
+      <c r="R47" s="48">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B48" s="80"/>
+      <c r="U47" s="48">
+        <f>COUNTIF($I$3:$I$58,#REF!)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="84"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -7745,30 +7978,26 @@
       <c r="I48" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="M48" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="P48" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q48" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="48">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B49" s="80"/>
+      <c r="M48" s="52" t="s">
+        <v>953</v>
+      </c>
+      <c r="N48" s="79"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="54">
+        <f>SUM(R34:R47)</f>
+        <v>26</v>
+      </c>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="55">
+        <f>SUM(U34:U47)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B49" s="84"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -7791,30 +8020,9 @@
         <v>621</v>
       </c>
       <c r="J49" s="18"/>
-      <c r="M49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P49" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q49" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T49" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="81"/>
+    </row>
+    <row r="50" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="85"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -7838,29 +8046,34 @@
       </c>
       <c r="J50" s="8"/>
       <c r="M50" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>598</v>
+        <v>949</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="P50" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="P50" s="51" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q50" s="51" t="str">
+        <f>IF(P50="植物","Plant",IF(P50="动物","Animal",IF(P50="人类","Human",IF(P50="异怪","Peculiar",IF(P50="神圣","Deity","Error")))))</f>
         <v>Peculiar</v>
       </c>
-      <c r="Q50" s="48">
-        <f t="shared" si="0"/>
+      <c r="R50" s="48">
+        <f>COUNTIF($E$3:$G$58,O50)</f>
         <v>2</v>
       </c>
-      <c r="T50" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B51" s="79"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="48">
+        <f>COUNTIF($I$3:$I$58,O50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B51" s="83"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -7873,29 +8086,34 @@
         <v>577</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="P51" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q51" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T51" s="48">
-        <f t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="O51" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="P51" s="80" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q51" s="80" t="str">
+        <f>IF(P51="植物","Plant",IF(P51="动物","Animal",IF(P51="人类","Human",IF(P51="异怪","Peculiar",IF(P51="神圣","Deity","Error")))))</f>
+        <v>Peculiar</v>
+      </c>
+      <c r="R51" s="48">
+        <f>COUNTIF($E$3:$G$58,O51)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B52" s="80"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="48">
+        <f t="shared" ref="U51:U54" si="10">COUNTIF($I$3:$I$58,O51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B52" s="84"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -7908,29 +8126,34 @@
         <v>578</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P52" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q52" s="48">
-        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="P52" s="51" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q52" s="51" t="str">
+        <f>IF(P52="植物","Plant",IF(P52="动物","Animal",IF(P52="人类","Human",IF(P52="异怪","Peculiar",IF(P52="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="R52" s="48">
+        <f>COUNTIF($E$3:$G$58,O52)</f>
         <v>1</v>
       </c>
-      <c r="T52" s="48">
-        <f t="shared" si="2"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="48">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B53" s="80"/>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B53" s="84"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -7946,26 +8169,29 @@
         <v>79</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P53" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q53" s="48">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T53" s="48">
-        <f t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="O53" s="56" t="s">
+        <v>849</v>
+      </c>
+      <c r="P53" s="56" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q53" s="51" t="str">
+        <f>IF(P53="植物","Plant",IF(P53="动物","Animal",IF(P53="人类","Human",IF(P53="异怪","Peculiar",IF(P53="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="R53" s="48">
+        <f>COUNTIF($E$3:$G$58,O53)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B54" s="80"/>
+      <c r="U53" s="48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="84"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -7981,26 +8207,29 @@
         <v>79</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="P54" s="51" t="str">
-        <f t="shared" si="6"/>
+        <v>943</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="P54" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q54" s="51" t="str">
+        <f>IF(P54="植物","Plant",IF(P54="动物","Animal",IF(P54="人类","Human",IF(P54="异怪","Peculiar",IF(P54="神圣","Deity","Error")))))</f>
         <v>Deity</v>
       </c>
-      <c r="Q54" s="48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T54" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B55" s="80"/>
+      <c r="R54" s="48">
+        <f>COUNTIF($E$3:$G$58,O54)</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="84"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -8012,30 +8241,26 @@
       <c r="I55" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="O55" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="P55" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Deity</v>
-      </c>
-      <c r="Q55" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T55" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B56" s="80"/>
+      <c r="M55" s="52" t="s">
+        <v>954</v>
+      </c>
+      <c r="N55" s="79"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="54">
+        <f>SUM(R50:R54)</f>
+        <v>5</v>
+      </c>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="55">
+        <f>SUM(U50:U54)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B56" s="84"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -8047,30 +8272,18 @@
       <c r="I56" s="51" t="s">
         <v>855</v>
       </c>
-      <c r="M56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="O56" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="P56" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q56" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T56" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B57" s="80"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B57" s="84"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -8083,29 +8296,34 @@
         <v>569</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N57" s="51" t="s">
-        <v>786</v>
+        <v>588</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>950</v>
       </c>
       <c r="O57" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="P57" s="51" t="s">
         <v>906</v>
       </c>
-      <c r="P57" s="51" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q57" s="51" t="str">
+        <f>IF(P57="植物","Plant",IF(P57="动物","Animal",IF(P57="人类","Human",IF(P57="异怪","Peculiar",IF(P57="神圣","Deity","Error")))))</f>
         <v>Peculiar</v>
       </c>
-      <c r="Q57" s="48">
-        <f t="shared" si="0"/>
+      <c r="R57" s="48">
+        <f>COUNTIF($E$3:$G$58,O57)</f>
         <v>1</v>
       </c>
-      <c r="T57" s="48">
-        <f t="shared" si="2"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="48">
+        <f>COUNTIF($I$3:$I$58,O57)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="81"/>
+    <row r="58" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="85"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -8120,664 +8338,846 @@
       <c r="M58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N58" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="O58" s="41" t="s">
-        <v>906</v>
-      </c>
-      <c r="P58" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q58" s="48">
-        <f t="shared" si="0"/>
+      <c r="N58" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q58" s="51" t="str">
+        <f>IF(P58="植物","Plant",IF(P58="动物","Animal",IF(P58="人类","Human",IF(P58="异怪","Peculiar",IF(P58="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="R58" s="48">
+        <f>COUNTIF($E$3:$G$58,O58)</f>
         <v>0</v>
       </c>
-      <c r="T58" s="48">
-        <f t="shared" si="2"/>
+      <c r="U58" s="48">
+        <f t="shared" ref="U58:U61" si="11">COUNTIF($I$3:$I$58,O58)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B59" s="82"/>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B59" s="86"/>
       <c r="M59" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N59" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="O59" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="P59" s="51" t="str">
-        <f t="shared" si="6"/>
-        <v>Peculiar</v>
-      </c>
-      <c r="Q59" s="48">
-        <f t="shared" si="0"/>
+      <c r="N59" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="O59" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="P59" s="80" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q59" s="80" t="str">
+        <f>IF(P59="植物","Plant",IF(P59="动物","Animal",IF(P59="人类","Human",IF(P59="异怪","Peculiar",IF(P59="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="R59" s="48">
+        <f>COUNTIF($E$3:$G$58,O59)</f>
         <v>1</v>
       </c>
-      <c r="T59" s="48">
-        <f t="shared" si="2"/>
+      <c r="U59" s="48">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="82"/>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B60" s="86"/>
       <c r="M60" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N60" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="O60" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="P60" s="51" t="str">
-        <f t="shared" si="6"/>
+      <c r="N60" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="O60" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="P60" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q60" s="51" t="str">
+        <f>IF(P60="植物","Plant",IF(P60="动物","Animal",IF(P60="人类","Human",IF(P60="异怪","Peculiar",IF(P60="神圣","Deity","Error")))))</f>
+        <v>Peculiar</v>
+      </c>
+      <c r="R60" s="48">
+        <f>COUNTIF($E$3:$G$58,O60)</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="48">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="86"/>
+      <c r="M61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="O61" s="80" t="s">
+        <v>625</v>
+      </c>
+      <c r="P61" s="80" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q61" s="80" t="str">
+        <f>IF(P61="植物","Plant",IF(P61="动物","Animal",IF(P61="人类","Human",IF(P61="异怪","Peculiar",IF(P61="神圣","Deity","Error")))))</f>
         <v>Deity</v>
       </c>
-      <c r="Q60" s="48">
-        <f t="shared" si="0"/>
+      <c r="R61" s="48">
+        <f>COUNTIF($E$3:$G$58,O61)</f>
+        <v>1</v>
+      </c>
+      <c r="U61" s="48">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="86"/>
+      <c r="M62" s="52" t="s">
+        <v>955</v>
+      </c>
+      <c r="N62" s="79"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="54">
+        <f>SUM(R57:R61)</f>
+        <v>3</v>
+      </c>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="55">
+        <f>SUM(U57:U61)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B63" s="86"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B64" s="86"/>
+      <c r="M64" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O64" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" s="51" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q64" s="51" t="str">
+        <f>IF(P64="植物","Plant",IF(P64="动物","Animal",IF(P64="人类","Human",IF(P64="异怪","Peculiar",IF(P64="神圣","Deity","Error")))))</f>
+        <v>Plant</v>
+      </c>
+      <c r="R64" s="48">
+        <f>COUNTIF($E$3:$G$58,O64)</f>
         <v>0</v>
       </c>
-      <c r="T60" s="48">
-        <f t="shared" si="2"/>
+      <c r="U64" s="48">
+        <f>COUNTIF($I$3:$I$58,O64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B65" s="86"/>
+      <c r="M65" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="O65" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="P65" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q65" s="51" t="str">
+        <f>IF(P65="植物","Plant",IF(P65="动物","Animal",IF(P65="人类","Human",IF(P65="异怪","Peculiar",IF(P65="神圣","Deity","Error")))))</f>
+        <v>Deity</v>
+      </c>
+      <c r="R65" s="48">
+        <f>COUNTIF($E$3:$G$58,O65)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="82"/>
-      <c r="M61" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="54">
-        <f>SUM(Q45:Q60)</f>
-        <v>22</v>
-      </c>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="55">
-        <f>SUM(T45:T60)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B62" s="82"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B63" s="82"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B64" s="82"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B65" s="82"/>
-      <c r="M65" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N65" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="T65" s="48">
-        <f t="shared" ref="T65:T71" si="9">COUNTIF($I$3:$I$58,N65)</f>
+      <c r="U65" s="48">
+        <f t="shared" ref="U65:U66" si="12">COUNTIF($I$3:$I$58,O65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B66" s="86"/>
+      <c r="M66" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="P66" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q66" s="51" t="str">
+        <f>IF(P66="植物","Plant",IF(P66="动物","Animal",IF(P66="人类","Human",IF(P66="异怪","Peculiar",IF(P66="神圣","Deity","Error")))))</f>
+        <v>Peculiar</v>
+      </c>
+      <c r="R66" s="48">
+        <f>COUNTIF($E$3:$G$58,O66)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="48">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B66" s="82"/>
-      <c r="M66" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N66" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="O66" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="P66" s="18"/>
-      <c r="T66" s="48">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B67" s="82"/>
-      <c r="M67" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N67" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="O67" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="P67" s="18"/>
-      <c r="T67" s="48">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B67" s="86"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B68" s="43"/>
       <c r="M68" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N68" s="51" t="s">
-        <v>615</v>
-      </c>
       <c r="O68" s="51" t="s">
-        <v>908</v>
+        <v>571</v>
       </c>
       <c r="P68" s="51"/>
-      <c r="T68" s="48">
-        <f t="shared" si="9"/>
+      <c r="Q68" s="51"/>
+      <c r="U68" s="48">
+        <f t="shared" ref="U68:U74" si="13">COUNTIF($I$3:$I$58,O68)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B69" s="43"/>
       <c r="M69" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N69" s="51" t="s">
-        <v>624</v>
-      </c>
-      <c r="O69" s="51" t="s">
-        <v>908</v>
-      </c>
-      <c r="P69" s="51"/>
-      <c r="T69" s="48">
-        <f t="shared" si="9"/>
+      <c r="O69" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="P69" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q69" s="18"/>
+      <c r="U69" s="48">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B70" s="43"/>
       <c r="M70" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="O70" s="8" t="s">
+      <c r="O70" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="P70" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="T70" s="48">
-        <f t="shared" si="9"/>
+      <c r="Q70" s="18"/>
+      <c r="U70" s="48">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B71" s="43"/>
       <c r="M71" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N71" s="51" t="s">
+      <c r="O71" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="P71" s="51" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q71" s="51"/>
+      <c r="U71" s="48">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="M72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O72" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="P72" s="51" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q72" s="51"/>
+      <c r="U72" s="48">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="M73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="U73" s="48">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="M74" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O74" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="O71" s="51"/>
-      <c r="P71" s="51"/>
-      <c r="T71" s="48">
-        <f t="shared" si="9"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="U74" s="48">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N73" s="18" t="s">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O76" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="P76" s="18">
+        <f>COUNTIF($P$3:$P$61,$O76)</f>
+        <v>14</v>
+      </c>
+      <c r="Q76" s="18"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O77" s="51" t="s">
+        <v>956</v>
+      </c>
+      <c r="P77" s="18">
+        <f>COUNTIF($P$3:$P$61,$O77)</f>
+        <v>4</v>
+      </c>
+      <c r="Q77" s="18"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O78" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="O73" s="18">
-        <f>COUNTIF($O$3:$O$59,$N73)</f>
-        <v>7</v>
-      </c>
-      <c r="P73" s="18"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N74" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="O74" s="18">
-        <f>COUNTIF($O$3:$O$59,$N74)</f>
+      <c r="P78" s="18">
+        <f>COUNTIF($P$3:$P$61,$O78)</f>
+        <v>13</v>
+      </c>
+      <c r="Q78" s="48"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O79" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="P79" s="18">
+        <f t="shared" ref="P79:P80" si="14">COUNTIF($P$3:$P$61,$O79)</f>
         <v>11</v>
       </c>
-      <c r="P74" s="18"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N75" s="51" t="s">
-        <v>905</v>
-      </c>
-      <c r="O75" s="18">
-        <f>COUNTIF($O$3:$O$59,$N75)</f>
-        <v>4</v>
-      </c>
-      <c r="P75" s="18"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N76" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="O76" s="18">
-        <f>COUNTIF($O$3:$O$59,$N76)</f>
-        <v>21</v>
-      </c>
-      <c r="P76" s="18"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N77" s="18" t="s">
+      <c r="Q79" s="18"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O80" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="O77" s="18">
-        <f>COUNTIF($O$3:$O$60,$N77)</f>
+      <c r="P80" s="18">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="Q80" s="18"/>
+    </row>
+    <row r="82" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O82" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="P82" s="18">
+        <f>COUNTIF($N$3:$N$61,$O82)</f>
         <v>11</v>
       </c>
-      <c r="P77" s="18"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-    </row>
-    <row r="81" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-    </row>
-    <row r="82" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-    </row>
-    <row r="83" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-    </row>
-    <row r="84" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-    </row>
-    <row r="85" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-    </row>
-    <row r="86" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-    </row>
-    <row r="87" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-    </row>
-    <row r="88" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N88" s="18"/>
+      <c r="Q82" s="18"/>
+    </row>
+    <row r="83" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="P83" s="18">
+        <f>COUNTIF($N$3:$N$61,$O83)</f>
+        <v>16</v>
+      </c>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+    </row>
+    <row r="84" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="P84" s="18">
+        <f t="shared" ref="P84:P87" si="15">COUNTIF($N$3:$N$61,$O84)</f>
+        <v>14</v>
+      </c>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+    </row>
+    <row r="85" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O85" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="P85" s="18">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="Q85" s="18"/>
+    </row>
+    <row r="86" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O86" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="P86" s="18">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="Q86" s="18"/>
+    </row>
+    <row r="87" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O87" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="P87" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="18"/>
+    </row>
+    <row r="88" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
-    </row>
-    <row r="89" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N89" s="18"/>
+      <c r="Q88" s="18"/>
+    </row>
+    <row r="89" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
-    </row>
-    <row r="90" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-    </row>
-    <row r="91" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-    </row>
-    <row r="92" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-    </row>
-    <row r="93" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-    </row>
-    <row r="94" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-    </row>
-    <row r="95" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-    </row>
-    <row r="96" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N96" s="18"/>
+      <c r="Q89" s="18"/>
+    </row>
+    <row r="90" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="P90" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q90" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="R90" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="S90" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="T90" s="18" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="91" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O91" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="P91" s="18">
+        <f>COUNTIF($P$3:$P$13,P$90)</f>
+        <v>5</v>
+      </c>
+      <c r="Q91" s="18">
+        <f>COUNTIF($P$3:$P$13,Q$90)</f>
+        <v>2</v>
+      </c>
+      <c r="R91" s="18">
+        <f t="shared" ref="R91:T91" si="16">COUNTIF($P$3:$P$13,R$90)</f>
+        <v>3</v>
+      </c>
+      <c r="S91" s="18">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="T91" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="48">
+        <f>SUM(P91:T91)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O92" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="P92" s="18">
+        <f>COUNTIF($P$16:$P$31,P$90)</f>
+        <v>5</v>
+      </c>
+      <c r="Q92" s="18">
+        <f>COUNTIF($P$16:$P$31,Q$90)</f>
+        <v>1</v>
+      </c>
+      <c r="R92" s="18">
+        <f>COUNTIF($P$16:$P$31,R$90)</f>
+        <v>6</v>
+      </c>
+      <c r="S92" s="18">
+        <f>COUNTIF($P$16:$P$31,S$90)</f>
+        <v>3</v>
+      </c>
+      <c r="T92" s="18">
+        <f>COUNTIF($P$16:$P$31,T$90)</f>
+        <v>1</v>
+      </c>
+      <c r="U92" s="48">
+        <f t="shared" ref="U92:U95" si="17">SUM(P92:T92)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O93" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="P93" s="18">
+        <f>COUNTIF($P$34:$P$47,P$90)</f>
+        <v>4</v>
+      </c>
+      <c r="Q93" s="18">
+        <f>COUNTIF($P$34:$P$47,Q$90)</f>
+        <v>1</v>
+      </c>
+      <c r="R93" s="18">
+        <f>COUNTIF($P$34:$P$47,R$90)</f>
+        <v>4</v>
+      </c>
+      <c r="S93" s="18">
+        <f>COUNTIF($P$34:$P$47,S$90)</f>
+        <v>3</v>
+      </c>
+      <c r="T93" s="18">
+        <f>COUNTIF($P$34:$P$47,T$90)</f>
+        <v>2</v>
+      </c>
+      <c r="U93" s="48">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O94" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="P94" s="18">
+        <f>COUNTIF($P$50:$P$54,P$90)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="18">
+        <f t="shared" ref="Q94:T94" si="18">COUNTIF($P$50:$P$54,Q$90)</f>
+        <v>0</v>
+      </c>
+      <c r="R94" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="18">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="T94" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="U94" s="48">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="O95" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="P95" s="18">
+        <f>COUNTIF($P$57:$P$61,P$90)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="18">
+        <f t="shared" ref="Q95:T95" si="19">COUNTIF($P$57:$P$61,Q$90)</f>
+        <v>0</v>
+      </c>
+      <c r="R95" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="18">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="T95" s="18">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="U95" s="48">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-    </row>
-    <row r="97" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N97" s="18"/>
+      <c r="P96" s="48">
+        <f>SUM(P91:P95)</f>
+        <v>14</v>
+      </c>
+      <c r="Q96" s="48">
+        <f>SUM(Q91:Q95)</f>
+        <v>4</v>
+      </c>
+      <c r="R96" s="48">
+        <f>SUM(R91:R95)</f>
+        <v>13</v>
+      </c>
+      <c r="S96" s="48">
+        <f>SUM(S91:S95)</f>
+        <v>11</v>
+      </c>
+      <c r="T96" s="48">
+        <f>SUM(T91:T95)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
-    </row>
-    <row r="98" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N98" s="18"/>
+      <c r="Q97" s="18"/>
+    </row>
+    <row r="98" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
-    </row>
-    <row r="99" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N99" s="18"/>
+      <c r="Q98" s="18"/>
+    </row>
+    <row r="99" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
-    </row>
-    <row r="100" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N100" s="18"/>
+      <c r="Q99" s="18"/>
+    </row>
+    <row r="100" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
-    </row>
-    <row r="101" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N101" s="18"/>
+      <c r="Q100" s="18"/>
+    </row>
+    <row r="101" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
-    </row>
-    <row r="102" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N102" s="18"/>
+      <c r="Q101" s="18"/>
+    </row>
+    <row r="102" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
-    </row>
-    <row r="103" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N103" s="18"/>
+      <c r="Q102" s="18"/>
+    </row>
+    <row r="103" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
-    </row>
-    <row r="104" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N104" s="18"/>
+      <c r="Q103" s="18"/>
+    </row>
+    <row r="104" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
-    </row>
-    <row r="105" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N105" s="18"/>
+      <c r="Q104" s="18"/>
+    </row>
+    <row r="105" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
-    </row>
-    <row r="106" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-    </row>
-    <row r="107" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-    </row>
-    <row r="108" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-    </row>
-    <row r="109" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-    </row>
-    <row r="110" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-    </row>
-    <row r="111" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-    </row>
-    <row r="112" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-    </row>
-    <row r="113" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-    </row>
-    <row r="114" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-    </row>
-    <row r="115" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-    </row>
-    <row r="116" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-    </row>
-    <row r="117" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-    </row>
-    <row r="118" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N118" s="18"/>
+      <c r="Q105" s="18"/>
+    </row>
+    <row r="118" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
-    </row>
-    <row r="119" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-    </row>
-    <row r="120" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-    </row>
-    <row r="121" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-    </row>
-    <row r="122" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-    </row>
-    <row r="123" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-    </row>
-    <row r="124" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-    </row>
-    <row r="125" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-    </row>
-    <row r="126" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N126" s="18"/>
+      <c r="Q118" s="18"/>
+    </row>
+    <row r="126" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
-    </row>
-    <row r="127" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N127" s="18"/>
+      <c r="Q126" s="18"/>
+    </row>
+    <row r="127" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
-    </row>
-    <row r="128" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N128" s="18"/>
+      <c r="Q127" s="18"/>
+    </row>
+    <row r="128" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
-    </row>
-    <row r="129" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N129" s="18"/>
+      <c r="Q128" s="18"/>
+    </row>
+    <row r="129" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
-    </row>
-    <row r="130" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N130" s="18"/>
+      <c r="Q129" s="18"/>
+    </row>
+    <row r="130" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
-    </row>
-    <row r="131" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N131" s="18"/>
+      <c r="Q130" s="18"/>
+    </row>
+    <row r="131" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
-    </row>
-    <row r="132" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N132" s="18"/>
+      <c r="Q131" s="18"/>
+    </row>
+    <row r="132" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
-    </row>
-    <row r="133" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N133" s="18"/>
+      <c r="Q132" s="18"/>
+    </row>
+    <row r="133" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
-    </row>
-    <row r="134" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N134" s="18"/>
+      <c r="Q133" s="18"/>
+    </row>
+    <row r="134" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
-    </row>
-    <row r="135" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N135" s="18"/>
+      <c r="Q134" s="18"/>
+    </row>
+    <row r="135" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
-    </row>
-    <row r="136" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N136" s="18"/>
+      <c r="Q135" s="18"/>
+    </row>
+    <row r="136" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
-    </row>
-    <row r="137" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N137" s="18"/>
+      <c r="Q136" s="18"/>
+    </row>
+    <row r="137" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
-    </row>
-    <row r="138" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N138" s="18"/>
+      <c r="Q137" s="18"/>
+    </row>
+    <row r="138" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
-    </row>
-    <row r="139" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N139" s="18"/>
+      <c r="Q138" s="18"/>
+    </row>
+    <row r="139" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O139" s="18"/>
       <c r="P139" s="18"/>
-    </row>
-    <row r="140" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N140" s="18"/>
+      <c r="Q139" s="18"/>
+    </row>
+    <row r="140" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
-    </row>
-    <row r="141" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N141" s="18"/>
+      <c r="Q140" s="18"/>
+    </row>
+    <row r="141" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
-    </row>
-    <row r="142" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N142" s="18"/>
+      <c r="Q141" s="18"/>
+    </row>
+    <row r="142" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O142" s="18"/>
       <c r="P142" s="18"/>
-    </row>
-    <row r="143" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N143" s="18"/>
+      <c r="Q142" s="18"/>
+    </row>
+    <row r="143" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
-    </row>
-    <row r="144" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N144" s="18"/>
+      <c r="Q143" s="18"/>
+    </row>
+    <row r="144" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
-    </row>
-    <row r="145" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N145" s="18"/>
+      <c r="Q144" s="18"/>
+    </row>
+    <row r="145" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
-    </row>
-    <row r="146" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N146" s="18"/>
+      <c r="Q145" s="18"/>
+    </row>
+    <row r="146" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
-    </row>
-    <row r="147" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N147" s="18"/>
+      <c r="Q146" s="18"/>
+    </row>
+    <row r="147" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
-    </row>
-    <row r="148" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N148" s="18"/>
+      <c r="Q147" s="18"/>
+    </row>
+    <row r="148" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
-    </row>
-    <row r="149" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N149" s="18"/>
+      <c r="Q148" s="18"/>
+    </row>
+    <row r="149" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
-    </row>
-    <row r="150" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N150" s="18"/>
+      <c r="Q149" s="18"/>
+    </row>
+    <row r="150" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
-    </row>
-    <row r="151" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N151" s="18"/>
+      <c r="Q150" s="18"/>
+    </row>
+    <row r="151" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
-    </row>
-    <row r="152" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N152" s="18"/>
+      <c r="Q151" s="18"/>
+    </row>
+    <row r="152" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
-    </row>
-    <row r="153" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N153" s="18"/>
+      <c r="Q152" s="18"/>
+    </row>
+    <row r="153" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
-    </row>
-    <row r="154" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N154" s="18"/>
+      <c r="Q153" s="18"/>
+    </row>
+    <row r="154" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
-    </row>
-    <row r="155" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N155" s="18"/>
+      <c r="Q154" s="18"/>
+    </row>
+    <row r="155" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
-    </row>
-    <row r="156" spans="14:16" x14ac:dyDescent="0.15">
-      <c r="N156" s="18"/>
+      <c r="Q155" s="18"/>
+    </row>
+    <row r="156" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
+      <c r="Q156" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8800,7 +9200,7 @@
   <dimension ref="B1:P307"/>
   <sheetViews>
     <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+      <selection activeCell="I209" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -12963,8 +13363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13840,7 +14240,7 @@
         <v>503</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>914</v>
+        <v>941</v>
       </c>
       <c r="F46" s="28" t="s">
         <v>417</v>
@@ -14675,11 +15075,11 @@
       </c>
       <c r="B97" s="29">
         <f t="shared" ref="B97:E97" si="0">COUNTIF($E$4:$E$83,B96)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97" s="29">
         <f t="shared" si="0"/>
@@ -15045,7 +15445,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -15086,7 +15486,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="80"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -15125,7 +15525,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="80"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -15164,7 +15564,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="80"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -15188,7 +15588,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="80"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -15215,7 +15615,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="80"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -15254,7 +15654,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -15278,7 +15678,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -15301,7 +15701,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="87" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -15342,7 +15742,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="80"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -15366,7 +15766,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="80"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -15405,7 +15805,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="80"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -15441,7 +15841,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="80"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -15465,7 +15865,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="80"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -15489,7 +15889,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="80"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -15513,7 +15913,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="81"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -15537,7 +15937,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -15566,7 +15966,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="84"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="24" t="s">
         <v>26</v>
       </c>
@@ -15590,7 +15990,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="84"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
@@ -15614,7 +16014,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="84"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="24" t="s">
         <v>28</v>
       </c>
@@ -15638,7 +16038,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="84"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -15662,7 +16062,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="84"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
@@ -15686,7 +16086,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
@@ -15710,7 +16110,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
@@ -15734,7 +16134,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -15760,7 +16160,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="80"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -15784,7 +16184,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="80"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -15808,7 +16208,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="80"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -15832,7 +16232,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="80"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -15856,7 +16256,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="80"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -15883,7 +16283,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="80"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -15907,7 +16307,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="81"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -15931,7 +16331,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="87" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -15957,7 +16357,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="80"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -15981,7 +16381,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="80"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -16005,7 +16405,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="80"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -16029,7 +16429,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="80"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -16056,7 +16456,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="80"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
@@ -16083,7 +16483,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="80"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -16107,7 +16507,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="81"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="7" t="s">
         <v>48</v>
       </c>
@@ -16131,7 +16531,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -16157,7 +16557,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="80"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
@@ -16181,7 +16581,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="80"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
@@ -16205,7 +16605,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="80"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
@@ -16229,7 +16629,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="80"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
@@ -16253,7 +16653,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="80"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
@@ -16277,7 +16677,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="80"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
@@ -16301,7 +16701,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="81"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
@@ -16325,76 +16725,76 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="86"/>
+      <c r="B51" s="90"/>
       <c r="I51" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="80"/>
+      <c r="B52" s="84"/>
       <c r="I52" s="10" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="80"/>
+      <c r="B53" s="84"/>
       <c r="I53" s="10" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="80"/>
+      <c r="B54" s="84"/>
       <c r="I54" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="80"/>
+      <c r="B55" s="84"/>
       <c r="I55" s="10" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="80"/>
+      <c r="B56" s="84"/>
       <c r="I56" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="80"/>
+      <c r="B57" s="84"/>
       <c r="I57" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="81"/>
+      <c r="B58" s="85"/>
       <c r="I58" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="82"/>
+      <c r="B59" s="86"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="82"/>
+      <c r="B60" s="86"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="82"/>
+      <c r="B61" s="86"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="82"/>
+      <c r="B62" s="86"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="82"/>
+      <c r="B63" s="86"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="82"/>
+      <c r="B64" s="86"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="82"/>
+      <c r="B65" s="86"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="82"/>
+      <c r="B66" s="86"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680" activeTab="3"/>
+    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪MT试算" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="970">
   <si>
     <t>森林</t>
   </si>
@@ -1648,10 +1648,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>道成寺钟（红法D）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>红牛（红T）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1734,10 +1730,6 @@
   </si>
   <si>
     <t>★★</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮影（黑bomb）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2450,12 +2442,6 @@
     <t>蘑菇怪 红法D</t>
   </si>
   <si>
-    <t>赛布勒斯 黑法D</t>
-  </si>
-  <si>
-    <t>赛布勒斯（黑法D）</t>
-  </si>
-  <si>
     <t>赛布勒斯（红法D）</t>
   </si>
   <si>
@@ -3539,6 +3525,25 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走音草（绿提升S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛布勒斯（红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影（黑法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影 黑法D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛布勒斯（黑法D）</t>
   </si>
 </sst>
 </file>
@@ -5574,8 +5579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF156"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5675,7 +5680,7 @@
         <v>427</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>79</v>
@@ -5687,7 +5692,7 @@
         <v>77</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
@@ -5701,13 +5706,13 @@
         <v>77</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q3" s="51" t="str">
         <f>IF(P3="植物","Plant",IF(P3="动物","Animal",IF(P3="人类","Human",IF(P3="异怪","Peculiar",IF(P3="神圣","Deity","Error")))))</f>
@@ -5738,10 +5743,10 @@
         <v>391</v>
       </c>
       <c r="AC3" s="45" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AD3" s="45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.15">
@@ -5779,13 +5784,13 @@
         <v>77</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q4" s="51" t="str">
         <f>IF(P4="植物","Plant",IF(P4="动物","Animal",IF(P4="人类","Human",IF(P4="异怪","Peculiar",IF(P4="神圣","Deity","Error")))))</f>
@@ -5816,7 +5821,7 @@
         <v>407</v>
       </c>
       <c r="AC4" s="45" t="s">
-        <v>689</v>
+        <v>969</v>
       </c>
       <c r="AD4" s="45" t="s">
         <v>405</v>
@@ -5837,13 +5842,13 @@
         <v>77</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
@@ -5857,13 +5862,13 @@
         <v>77</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>67</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q5" s="51" t="str">
         <f t="shared" ref="Q5" si="2">IF(P5="植物","Plant",IF(P5="动物","Animal",IF(P5="人类","Human",IF(P5="异怪","Peculiar",IF(P5="神圣","Deity","Error")))))</f>
@@ -5909,7 +5914,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>77</v>
@@ -5920,21 +5925,21 @@
       <c r="H6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="51" t="s">
-        <v>690</v>
+      <c r="I6" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="J6" s="8"/>
       <c r="M6" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q6" s="51" t="str">
         <f t="shared" ref="Q6:Q13" si="3">IF(P6="植物","Plant",IF(P6="动物","Animal",IF(P6="人类","Human",IF(P6="异怪","Peculiar",IF(P6="神圣","Deity","Error")))))</f>
@@ -5983,13 +5988,13 @@
         <v>77</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>432</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q7" s="51" t="str">
         <f t="shared" si="3"/>
@@ -6028,19 +6033,19 @@
         <v>77</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>76</v>
+        <v>965</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>102</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q8" s="51" t="str">
         <f t="shared" si="3"/>
@@ -6079,7 +6084,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>77</v>
@@ -6098,13 +6103,13 @@
         <v>77</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>86</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q9" s="51" t="str">
         <f t="shared" si="3"/>
@@ -6145,13 +6150,13 @@
         <v>433</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>452</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q10" s="51" t="str">
         <f t="shared" si="3"/>
@@ -6199,10 +6204,10 @@
         <v>433</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="P11" s="51" t="s">
         <v>229</v>
@@ -6250,7 +6255,7 @@
         <v>77</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>77</v>
@@ -6262,10 +6267,10 @@
         <v>433</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>229</v>
@@ -6311,10 +6316,10 @@
         <v>433</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>229</v>
@@ -6372,7 +6377,7 @@
       </c>
       <c r="J14" s="8"/>
       <c r="M14" s="52" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="N14" s="79"/>
       <c r="O14" s="53"/>
@@ -6395,10 +6400,10 @@
         <v>156</v>
       </c>
       <c r="AB14" s="44" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>409</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.15">
@@ -6453,7 +6458,7 @@
         <v>77</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>68</v>
@@ -6501,7 +6506,7 @@
         <v>77</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>62</v>
@@ -6531,13 +6536,13 @@
         <v>79</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>89</v>
@@ -6549,13 +6554,13 @@
         <v>77</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>431</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="Q18" s="18" t="str">
         <f t="shared" si="4"/>
@@ -6594,20 +6599,20 @@
         <v>433</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J19" s="8"/>
       <c r="M19" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O19" s="18" t="s">
         <v>441</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q19" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6650,13 +6655,13 @@
         <v>433</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>691</v>
+        <v>966</v>
       </c>
       <c r="P20" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q20" s="80" t="str">
         <f t="shared" si="4"/>
@@ -6681,7 +6686,7 @@
         <v>80</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>77</v>
@@ -6700,13 +6705,13 @@
         <v>433</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="P21" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q21" s="80" t="str">
         <f t="shared" si="4"/>
@@ -6749,13 +6754,13 @@
         <v>433</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q22" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6780,7 +6785,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>80</v>
@@ -6799,13 +6804,13 @@
         <v>433</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>434</v>
       </c>
       <c r="P23" s="51" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q23" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6848,7 +6853,7 @@
         <v>433</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>93</v>
@@ -6897,13 +6902,13 @@
         <v>433</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>439</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q25" s="51" t="str">
         <f t="shared" si="4"/>
@@ -6946,13 +6951,13 @@
         <v>433</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O26" s="80" t="s">
         <v>114</v>
       </c>
       <c r="P26" s="80" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="Q26" s="80" t="str">
         <f t="shared" si="4"/>
@@ -6978,7 +6983,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>77</v>
@@ -6997,13 +7002,13 @@
         <v>433</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="P27" s="51" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q27" s="51" t="str">
         <f t="shared" si="4"/>
@@ -7046,13 +7051,13 @@
         <v>433</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>446</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q28" s="51" t="str">
         <f t="shared" si="4"/>
@@ -7095,13 +7100,13 @@
         <v>79</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O29" s="80" t="s">
         <v>443</v>
       </c>
       <c r="P29" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q29" s="80" t="str">
         <f t="shared" si="4"/>
@@ -7125,7 +7130,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>77</v>
@@ -7144,13 +7149,13 @@
         <v>79</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>478</v>
+        <v>130</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q30" s="51" t="str">
         <f t="shared" si="4"/>
@@ -7174,32 +7179,32 @@
         <v>80</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J31" s="8"/>
       <c r="M31" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="O31" s="80" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P31" s="80" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="Q31" s="80" t="str">
         <f t="shared" si="4"/>
@@ -7235,11 +7240,11 @@
         <v>79</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="J32" s="8"/>
       <c r="M32" s="52" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="N32" s="79"/>
       <c r="O32" s="53"/>
@@ -7265,19 +7270,19 @@
         <v>79</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J33" s="18"/>
     </row>
@@ -7290,32 +7295,32 @@
         <v>80</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J34" s="18"/>
       <c r="M34" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="O34" s="80" t="s">
         <v>95</v>
       </c>
       <c r="P34" s="80" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="Q34" s="80" t="str">
         <f t="shared" ref="Q34:Q47" si="7">IF(P34="植物","Plant",IF(P34="动物","Animal",IF(P34="人类","Human",IF(P34="异怪","Peculiar",IF(P34="神圣","Deity","Error")))))</f>
@@ -7347,26 +7352,26 @@
         <v>80</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J35" s="8"/>
       <c r="M35" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O35" s="41" t="s">
         <v>436</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q35" s="51" t="str">
         <f t="shared" si="7"/>
@@ -7409,7 +7414,7 @@
         <v>433</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>91</v>
@@ -7439,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>80</v>
@@ -7451,20 +7456,20 @@
         <v>80</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J37" s="18"/>
       <c r="M37" s="8" t="s">
         <v>433</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O37" s="80" t="s">
         <v>442</v>
       </c>
       <c r="P37" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q37" s="80" t="str">
         <f t="shared" si="7"/>
@@ -7494,7 +7499,7 @@
         <v>80</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>77</v>
@@ -7507,13 +7512,13 @@
         <v>433</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O38" s="80" t="s">
         <v>124</v>
       </c>
       <c r="P38" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q38" s="80" t="str">
         <f t="shared" si="7"/>
@@ -7537,7 +7542,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>77</v>
@@ -7549,20 +7554,20 @@
         <v>79</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J39" s="40"/>
       <c r="M39" s="8" t="s">
         <v>433</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O39" s="20" t="s">
         <v>453</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q39" s="51" t="str">
         <f t="shared" si="7"/>
@@ -7586,7 +7591,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>77</v>
@@ -7598,20 +7603,20 @@
         <v>80</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J40" s="8"/>
       <c r="M40" s="8" t="s">
         <v>433</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O40" s="57" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="P40" s="57" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q40" s="51" t="str">
         <f t="shared" si="7"/>
@@ -7635,13 +7640,13 @@
         <v>77</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>80</v>
@@ -7654,13 +7659,13 @@
         <v>79</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O41" s="81" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P41" s="81" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="Q41" s="80" t="str">
         <f t="shared" si="7"/>
@@ -7684,7 +7689,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="77" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>79</v>
@@ -7696,20 +7701,20 @@
         <v>89</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J42" s="8"/>
       <c r="M42" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O42" s="82" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P42" s="82" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="Q42" s="80" t="str">
         <f t="shared" si="7"/>
@@ -7741,26 +7746,26 @@
         <v>80</v>
       </c>
       <c r="G43" s="57" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J43" s="18"/>
       <c r="M43" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O43" s="80" t="s">
         <v>58</v>
       </c>
       <c r="P43" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q43" s="80" t="str">
         <f t="shared" si="7"/>
@@ -7784,7 +7789,7 @@
         <v>80</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -7796,20 +7801,20 @@
         <v>79</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J44" s="18"/>
       <c r="M44" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>110</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q44" s="51" t="str">
         <f t="shared" si="7"/>
@@ -7845,20 +7850,20 @@
         <v>79</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J45" s="18"/>
       <c r="M45" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>118</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q45" s="51" t="str">
         <f t="shared" si="7"/>
@@ -7882,13 +7887,13 @@
         <v>79</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>80</v>
@@ -7901,13 +7906,13 @@
         <v>79</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O46" s="80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P46" s="80" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="Q46" s="80" t="str">
         <f t="shared" si="7"/>
@@ -7937,7 +7942,7 @@
         <v>79</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>80</v>
@@ -7950,13 +7955,13 @@
         <v>79</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q47" s="51" t="str">
         <f t="shared" si="7"/>
@@ -7991,11 +7996,11 @@
       <c r="H48" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>472</v>
+      <c r="I48" s="51" t="s">
+        <v>969</v>
       </c>
       <c r="M48" s="52" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="N48" s="79"/>
       <c r="O48" s="53"/>
@@ -8021,7 +8026,7 @@
         <v>80</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>77</v>
@@ -8033,7 +8038,7 @@
         <v>80</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J49" s="18"/>
     </row>
@@ -8046,32 +8051,32 @@
         <v>80</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>472</v>
+        <v>967</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J50" s="8"/>
       <c r="M50" s="8" t="s">
         <v>77</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>438</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q50" s="51" t="str">
         <f>IF(P50="植物","Plant",IF(P50="动物","Animal",IF(P50="人类","Human",IF(P50="异怪","Peculiar",IF(P50="神圣","Deity","Error")))))</f>
@@ -8096,7 +8101,7 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>422</v>
@@ -8105,13 +8110,13 @@
         <v>433</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O51" s="80" t="s">
         <v>203</v>
       </c>
       <c r="P51" s="80" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="Q51" s="80" t="str">
         <f>IF(P51="植物","Plant",IF(P51="动物","Animal",IF(P51="人类","Human",IF(P51="异怪","Peculiar",IF(P51="神圣","Deity","Error")))))</f>
@@ -8145,13 +8150,13 @@
         <v>433</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O52" s="51" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P52" s="51" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q52" s="51" t="str">
         <f>IF(P52="植物","Plant",IF(P52="动物","Animal",IF(P52="人类","Human",IF(P52="异怪","Peculiar",IF(P52="神圣","Deity","Error")))))</f>
@@ -8185,13 +8190,13 @@
         <v>79</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O53" s="56" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P53" s="56" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q53" s="51" t="str">
         <f>IF(P53="植物","Plant",IF(P53="动物","Animal",IF(P53="人类","Human",IF(P53="异怪","Peculiar",IF(P53="神圣","Deity","Error")))))</f>
@@ -8217,19 +8222,19 @@
         <v>79</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Q54" s="51" t="str">
         <f>IF(P54="植物","Plant",IF(P54="动物","Animal",IF(P54="人类","Human",IF(P54="异怪","Peculiar",IF(P54="神圣","Deity","Error")))))</f>
@@ -8258,7 +8263,7 @@
         <v>413</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N55" s="79"/>
       <c r="O55" s="53"/>
@@ -8286,7 +8291,7 @@
         <v>79</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -8306,7 +8311,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>414</v>
@@ -8315,13 +8320,13 @@
         <v>433</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P57" s="51" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q57" s="51" t="str">
         <f>IF(P57="植物","Plant",IF(P57="动物","Animal",IF(P57="人类","Human",IF(P57="异怪","Peculiar",IF(P57="神圣","Deity","Error")))))</f>
@@ -8355,13 +8360,13 @@
         <v>79</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q58" s="51" t="str">
         <f>IF(P58="植物","Plant",IF(P58="动物","Animal",IF(P58="人类","Human",IF(P58="异怪","Peculiar",IF(P58="神圣","Deity","Error")))))</f>
@@ -8382,13 +8387,13 @@
         <v>79</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="O59" s="80" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P59" s="80" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="Q59" s="80" t="str">
         <f>IF(P59="植物","Plant",IF(P59="动物","Animal",IF(P59="人类","Human",IF(P59="异怪","Peculiar",IF(P59="神圣","Deity","Error")))))</f>
@@ -8409,13 +8414,13 @@
         <v>79</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="O60" s="41" t="s">
         <v>386</v>
       </c>
       <c r="P60" s="41" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q60" s="51" t="str">
         <f>IF(P60="植物","Plant",IF(P60="动物","Animal",IF(P60="人类","Human",IF(P60="异怪","Peculiar",IF(P60="神圣","Deity","Error")))))</f>
@@ -8436,13 +8441,13 @@
         <v>79</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="O61" s="80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="Q61" s="80" t="str">
         <f>IF(P61="植物","Plant",IF(P61="动物","Animal",IF(P61="人类","Human",IF(P61="异怪","Peculiar",IF(P61="神圣","Deity","Error")))))</f>
@@ -8460,7 +8465,7 @@
     <row r="62" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="86"/>
       <c r="M62" s="52" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="N62" s="79"/>
       <c r="O62" s="53"/>
@@ -8489,7 +8494,7 @@
         <v>76</v>
       </c>
       <c r="P64" s="51" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q64" s="51" t="str">
         <f>IF(P64="植物","Plant",IF(P64="动物","Animal",IF(P64="人类","Human",IF(P64="异怪","Peculiar",IF(P64="神圣","Deity","Error")))))</f>
@@ -8510,10 +8515,10 @@
         <v>433</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q65" s="51" t="str">
         <f>IF(P65="植物","Plant",IF(P65="动物","Animal",IF(P65="人类","Human",IF(P65="异怪","Peculiar",IF(P65="神圣","Deity","Error")))))</f>
@@ -8537,7 +8542,7 @@
         <v>422</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q66" s="51" t="str">
         <f>IF(P66="植物","Plant",IF(P66="动物","Animal",IF(P66="人类","Human",IF(P66="异怪","Peculiar",IF(P66="神圣","Deity","Error")))))</f>
@@ -8578,10 +8583,10 @@
         <v>89</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q69" s="18"/>
       <c r="U69" s="48">
@@ -8595,10 +8600,10 @@
         <v>89</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q70" s="18"/>
       <c r="U70" s="48">
@@ -8612,10 +8617,10 @@
         <v>89</v>
       </c>
       <c r="O71" s="51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P71" s="51" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q71" s="51"/>
       <c r="U71" s="48">
@@ -8628,10 +8633,10 @@
         <v>89</v>
       </c>
       <c r="O72" s="51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P72" s="51" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q72" s="51"/>
       <c r="U72" s="48">
@@ -8644,10 +8649,10 @@
         <v>89</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="U73" s="48">
         <f t="shared" si="13"/>
@@ -8675,7 +8680,7 @@
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.15">
       <c r="O76" s="18" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P76" s="18">
         <f>COUNTIF($P$3:$P$61,$O76)</f>
@@ -8685,7 +8690,7 @@
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.15">
       <c r="O77" s="51" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="P77" s="18">
         <f>COUNTIF($P$3:$P$61,$O77)</f>
@@ -8705,7 +8710,7 @@
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.15">
       <c r="O79" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="P79" s="18">
         <f t="shared" ref="P79:P80" si="14">COUNTIF($P$3:$P$61,$O79)</f>
@@ -8715,7 +8720,7 @@
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.15">
       <c r="O80" s="18" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="P80" s="18">
         <f t="shared" si="14"/>
@@ -8725,7 +8730,7 @@
     </row>
     <row r="82" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O82" s="18" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="P82" s="18">
         <f>COUNTIF($N$3:$N$61,$O82)</f>
@@ -8737,7 +8742,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="P83" s="18">
         <f>COUNTIF($N$3:$N$61,$O83)</f>
@@ -8753,7 +8758,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="P84" s="18">
         <f t="shared" ref="P84:P87" si="15">COUNTIF($N$3:$N$61,$O84)</f>
@@ -8767,7 +8772,7 @@
     </row>
     <row r="85" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O85" s="18" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="P85" s="18">
         <f t="shared" si="15"/>
@@ -8777,7 +8782,7 @@
     </row>
     <row r="86" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O86" s="18" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="P86" s="18">
         <f t="shared" si="15"/>
@@ -8787,7 +8792,7 @@
     </row>
     <row r="87" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O87" s="18" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="P87" s="18">
         <f t="shared" si="15"/>
@@ -8807,24 +8812,24 @@
     </row>
     <row r="90" spans="13:21" x14ac:dyDescent="0.15">
       <c r="P90" s="18" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R90" s="18" t="s">
         <v>229</v>
       </c>
       <c r="S90" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="T90" s="18" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="91" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O91" s="18" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="P91" s="18">
         <f>COUNTIF($P$3:$P$13,P$90)</f>
@@ -8853,7 +8858,7 @@
     </row>
     <row r="92" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O92" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="P92" s="18">
         <f>COUNTIF($P$16:$P$31,P$90)</f>
@@ -8882,7 +8887,7 @@
     </row>
     <row r="93" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O93" s="10" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="P93" s="18">
         <f>COUNTIF($P$34:$P$47,P$90)</f>
@@ -8911,7 +8916,7 @@
     </row>
     <row r="94" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O94" s="18" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="P94" s="18">
         <f>COUNTIF($P$50:$P$54,P$90)</f>
@@ -8940,7 +8945,7 @@
     </row>
     <row r="95" spans="13:21" x14ac:dyDescent="0.15">
       <c r="O95" s="18" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="P95" s="18">
         <f>COUNTIF($P$57:$P$61,P$90)</f>
@@ -9215,8 +9220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P307"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="I209" sqref="I209"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155:L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9325,10 +9330,10 @@
         <v>272</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -9792,16 +9797,16 @@
         <v>270</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>272</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -9821,10 +9826,10 @@
         <v>272</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -10067,10 +10072,10 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>77</v>
@@ -10094,10 +10099,10 @@
         <v>272</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
@@ -10137,10 +10142,10 @@
         <v>272</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="80" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10507,10 +10512,10 @@
         <v>272</v>
       </c>
       <c r="K114" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
@@ -10633,10 +10638,10 @@
         <v>289</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
@@ -10796,10 +10801,10 @@
         <v>299</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
@@ -10904,16 +10909,16 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F153" s="28" t="s">
         <v>153</v>
@@ -10941,10 +10946,10 @@
         <v>272</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
@@ -10969,10 +10974,10 @@
         <v>272</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="158" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10980,16 +10985,16 @@
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F159" s="28" t="s">
         <v>153</v>
@@ -11007,10 +11012,10 @@
         <v>277</v>
       </c>
       <c r="K159" s="10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
@@ -11037,13 +11042,13 @@
         <v>288</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="K162" s="10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.3">
@@ -11157,7 +11162,7 @@
         <v>298</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K172" s="21" t="s">
         <v>337</v>
@@ -11183,10 +11188,10 @@
         <v>277</v>
       </c>
       <c r="K173" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L173" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.3">
@@ -11262,10 +11267,10 @@
         <v>272</v>
       </c>
       <c r="K180" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L180" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.3">
@@ -11561,7 +11566,7 @@
         <v>347</v>
       </c>
       <c r="L209" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.3">
@@ -11580,16 +11585,16 @@
     <row r="212" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B213" s="21" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F213" s="28" t="s">
         <v>153</v>
@@ -11622,10 +11627,10 @@
         <v>277</v>
       </c>
       <c r="K216" s="21" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L216" s="21" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -11639,28 +11644,28 @@
         <v>270</v>
       </c>
       <c r="I217" s="21" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J217" s="21" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="K217" s="21" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L217" s="21" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="218" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="219" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="21" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F219" s="28" t="s">
         <v>153</v>
@@ -11672,16 +11677,16 @@
         <v>270</v>
       </c>
       <c r="I219" s="21" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J219" s="10" t="s">
         <v>272</v>
       </c>
       <c r="K219" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="220" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -11945,8 +11950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11961,26 +11966,26 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="73" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>485</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="61" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -11988,72 +11993,72 @@
         <v>355</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="61" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="61" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>497</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="D10" s="63" t="s">
         <v>498</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="F10" s="61" t="s">
         <v>500</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="G10" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="H10" s="61" t="s">
         <v>502</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="I10" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="J10" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="K10" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="L10" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="M10" s="61" t="s">
         <v>507</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>508</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -12066,31 +12071,31 @@
         <v>270</v>
       </c>
       <c r="E12" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>512</v>
-      </c>
       <c r="H12" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -12103,36 +12108,36 @@
         <v>270</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F13" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="I13" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="G13" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>513</v>
-      </c>
       <c r="J13" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="64" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -12140,31 +12145,31 @@
         <v>270</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -12172,43 +12177,43 @@
         <v>430</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E15" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="F15" s="61" t="s">
-        <v>511</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>512</v>
-      </c>
       <c r="H15" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="64" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -12216,31 +12221,31 @@
         <v>270</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -12253,36 +12258,36 @@
         <v>270</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -12290,31 +12295,31 @@
         <v>270</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L18" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -12328,7 +12333,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="64" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -12336,147 +12341,147 @@
         <v>270</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="64" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="64" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G23" s="61" t="s">
+        <v>535</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>536</v>
+      </c>
+      <c r="J23" s="61" t="s">
         <v>537</v>
       </c>
-      <c r="H23" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="I23" s="61" t="s">
+      <c r="K23" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="M23" s="61" t="s">
         <v>538</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>539</v>
-      </c>
-      <c r="K23" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="L23" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="M23" s="61" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -12484,73 +12489,73 @@
         <v>437</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="I24" s="61" t="s">
         <v>542</v>
       </c>
-      <c r="E24" s="62" t="s">
-        <v>510</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>511</v>
-      </c>
-      <c r="G24" s="61" t="s">
+      <c r="J24" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="M24" s="61" t="s">
         <v>543</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>544</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="K24" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="L24" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="M24" s="61" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
+        <v>544</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>545</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="M25" s="61" t="s">
         <v>546</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>542</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>510</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>511</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>512</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>547</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -12560,42 +12565,42 @@
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="61" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E26" s="62">
         <v>1</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G26" s="61" t="s">
+        <v>547</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>548</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="M26" s="61" t="s">
         <v>549</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>550</v>
-      </c>
-      <c r="J26" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="K26" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="M26" s="61" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -12608,139 +12613,139 @@
         <v>444</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="64" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D29" s="64"/>
       <c r="E29" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I29" s="61" t="s">
+        <v>557</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="K29" s="61" t="s">
         <v>559</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>560</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="64" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D30" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L30" s="61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="64" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L31" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -12748,85 +12753,85 @@
         <v>447</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="68" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="64" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="64" t="s">
@@ -12836,159 +12841,159 @@
         <v>1</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J35" s="61" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="64" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D37" s="64"/>
       <c r="E37" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D38" s="70"/>
       <c r="E38" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J38" s="61" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="68" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C39" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J39" s="61" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -13001,15 +13006,15 @@
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="64" t="s">
@@ -13017,39 +13022,39 @@
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="64" t="s">
@@ -13062,163 +13067,163 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="64" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
       <c r="E44" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I44" s="61" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="65" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D46" s="65"/>
       <c r="E46" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="64" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E47" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F47" s="61" t="s">
+        <v>604</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="I47" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="G47" s="61" t="s">
-        <v>607</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>607</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>608</v>
-      </c>
       <c r="J47" s="61" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
       <c r="E48" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C49" s="64"/>
       <c r="D49" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="72" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C50" s="72"/>
       <c r="D50" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="66" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="64" t="s">
@@ -13230,48 +13235,48 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="65" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65"/>
       <c r="E52" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="65" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
       <c r="E53" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="65" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="64" t="s">
         <v>270</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="64" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -13281,47 +13286,47 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="65" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="65" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
       <c r="E58" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="66" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C59" s="64"/>
       <c r="D59" s="64"/>
@@ -13379,8 +13384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13404,13 +13409,13 @@
         <v>355</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>148</v>
@@ -13428,7 +13433,7 @@
         <v>150</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="M1" s="29" t="s">
         <v>358</v>
@@ -13451,7 +13456,7 @@
     </row>
     <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="E2" s="28" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>364</v>
@@ -13459,7 +13464,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C3" s="28">
         <v>2</v>
@@ -13470,10 +13475,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F4" s="28">
         <v>45</v>
@@ -13482,16 +13487,16 @@
         <v>365</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="M4" s="28" t="s">
         <v>366</v>
@@ -13499,28 +13504,28 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F5" s="28">
         <v>41</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>366</v>
@@ -13528,28 +13533,28 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F6" s="28">
         <v>35</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>366</v>
@@ -13563,28 +13568,28 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F7" s="28">
         <v>41</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>367</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>366</v>
@@ -13592,7 +13597,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>348</v>
@@ -13601,19 +13606,19 @@
         <v>70</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M8" s="28" t="s">
         <v>366</v>
@@ -13627,7 +13632,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C9" s="28">
         <v>15</v>
@@ -13638,28 +13643,28 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F10" s="28">
         <v>40</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>366</v>
@@ -13667,28 +13672,28 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F11" s="28">
         <v>10</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>366</v>
@@ -13696,25 +13701,25 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F12" s="28">
         <v>10</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L12" s="28" t="s">
         <v>368</v>
@@ -13725,25 +13730,25 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F13" s="28">
         <v>10</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="L13" s="28" t="s">
         <v>368</v>
@@ -13754,28 +13759,28 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F14" s="28">
         <v>10</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M14" s="28" t="s">
         <v>366</v>
@@ -13783,22 +13788,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F15" s="28">
         <v>35</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>369</v>
@@ -13812,28 +13817,28 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F16" s="28">
         <v>10</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="M16" s="28" t="s">
         <v>366</v>
@@ -13841,28 +13846,28 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F17" s="28">
         <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>366</v>
@@ -13870,28 +13875,28 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F19" s="28">
         <v>20</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M19" s="28" t="s">
         <v>366</v>
@@ -13899,28 +13904,28 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F20" s="28">
         <v>20</v>
       </c>
       <c r="G20" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="L20" s="38" t="s">
         <v>806</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>930</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>807</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>808</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>810</v>
       </c>
       <c r="M20" s="28" t="s">
         <v>366</v>
@@ -13928,28 +13933,28 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="39" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F21" s="28">
         <v>20</v>
       </c>
       <c r="G21" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="L21" s="38" t="s">
         <v>806</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>776</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>807</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>812</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
@@ -13959,28 +13964,28 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="28" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F23" s="28">
         <v>30</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>371</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="M23" s="28" t="s">
         <v>366</v>
@@ -13991,28 +13996,28 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="28" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F25" s="28">
         <v>35</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>366</v>
@@ -14023,25 +14028,25 @@
         <v>161</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F26" s="28">
         <v>30</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>366</v>
@@ -14049,28 +14054,28 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="39" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F27" s="28">
         <v>30</v>
       </c>
       <c r="G27" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="K27" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="I27" s="28" t="s">
-        <v>930</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>819</v>
-      </c>
       <c r="L27" s="39" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>366</v>
@@ -14083,28 +14088,28 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F29" s="28">
         <v>20</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="M29" s="28" t="s">
         <v>366</v>
@@ -14115,25 +14120,25 @@
         <v>192</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F30" s="28">
         <v>40</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>367</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M30" s="28" t="s">
         <v>366</v>
@@ -14141,28 +14146,28 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="28" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F31" s="28">
         <v>15</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K31" s="28" t="s">
         <v>372</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="M31" s="28" t="s">
         <v>366</v>
@@ -14176,25 +14181,25 @@
         <v>210</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F33" s="28">
         <v>40</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>367</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="M33" s="28" t="s">
         <v>366</v>
@@ -14207,7 +14212,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C35" s="28">
         <v>5</v>
@@ -14222,25 +14227,25 @@
         <v>174</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F36" s="28">
         <v>30</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>367</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="M36" s="28" t="s">
         <v>366</v>
@@ -14248,28 +14253,28 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" s="42" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F41" s="28">
         <v>30</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M41" s="28" t="s">
         <v>366</v>
@@ -14277,28 +14282,28 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="42" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F42" s="28">
         <v>30</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="M42" s="28" t="s">
         <v>366</v>
@@ -14306,28 +14311,28 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43" s="28" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F43" s="28">
         <v>35</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>383</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="M43" s="28" t="s">
         <v>366</v>
@@ -14335,28 +14340,28 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46" s="28" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F46" s="28">
         <v>40</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J46" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="K46" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="K46" s="21" t="s">
-        <v>840</v>
-      </c>
       <c r="L46" s="21" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="P46" s="28" t="s">
         <v>366</v>
@@ -14364,22 +14369,22 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B48" s="28" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F48" s="28">
         <v>25</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>383</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K48" s="28" t="s">
         <v>388</v>
@@ -14388,12 +14393,12 @@
         <v>389</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C50" s="28">
         <v>20</v>
@@ -14404,31 +14409,31 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F52" s="28">
         <v>50</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J52" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -14436,266 +14441,266 @@
         <v>194</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F53" s="28">
         <v>55</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J53" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F54" s="28">
         <v>50</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B55" s="28" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F55" s="28">
         <v>65</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B56" s="28" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F56" s="28">
         <v>70</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F57" s="28">
         <v>50</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J57" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K57" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="L57" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="L57" s="21" t="s">
-        <v>862</v>
-      </c>
       <c r="M57" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F58" s="28">
         <v>50</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="M58" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F59" s="28">
         <v>60</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J59" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="M59" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F61" s="28">
         <v>55</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="M61" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B62" s="28" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F62" s="28">
         <v>90</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="M62" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N62" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P62" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -14704,69 +14709,69 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B64" s="28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F64" s="28">
         <v>70</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J64" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="N64" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P64" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B65" s="28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F65" s="28">
         <v>70</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J65" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M65" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N65" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P65" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -14775,40 +14780,40 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B67" s="28" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F67" s="28">
         <v>75</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="M67" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N67" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="O67" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -14817,77 +14822,77 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F69" s="28">
         <v>35</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L69" s="21" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M69" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="O69" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P69" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F70" s="28">
         <v>35</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J70" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="O70" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C72" s="28">
         <v>4</v>
@@ -14899,37 +14904,37 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" s="18" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F73" s="28">
         <v>90</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J73" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="M73" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N73" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P73" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -14938,37 +14943,37 @@
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" s="18" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F75" s="28">
         <v>85</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J75" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N75" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P75" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -14978,37 +14983,37 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" s="18" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F77" s="28">
         <v>95</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="L77" s="21" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N77" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P77" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -15018,37 +15023,37 @@
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" s="18" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F79" s="28">
         <v>80</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="J79" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="M79" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N79" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P79" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -15057,37 +15062,37 @@
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" s="21" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F81" s="28">
         <v>75</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="L81" s="21" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N81" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P81" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -15099,45 +15104,45 @@
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" s="28" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F83" s="28">
         <v>95</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J83" s="28" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N83" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="O83" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P83" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C84" s="28">
         <v>10</v>
@@ -15146,25 +15151,25 @@
         <v>0</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="G85" s="28" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="G86" s="28" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="G87" s="28" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -15181,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -15214,23 +15219,23 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="29" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B96" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="C96" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="C96" s="29" t="s">
-        <v>783</v>
-      </c>
       <c r="D96" s="29" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -15261,23 +15266,23 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>904</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>905</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>906</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>907</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>908</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>909</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="29" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -15449,45 +15454,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="74" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="74" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="74" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -15496,58 +15501,58 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="74" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="74" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="74" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="74" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="74" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>384</v>
@@ -15555,26 +15560,26 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="74" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="74" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -15583,58 +15588,58 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="74" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="74" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="74" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="74" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="74" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>659</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="74" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>382</v>
@@ -15642,15 +15647,15 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" s="74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="74" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>387</v>
@@ -15658,10 +15663,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="74" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -15670,35 +15675,35 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" s="74" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="74" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="74" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="74" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="74" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C35" s="21"/>
     </row>

--- a/gd/副本内容设计/副本怪物内容总览.xlsx
+++ b/gd/副本内容设计/副本怪物内容总览.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="4800" yWindow="465" windowWidth="28800" windowHeight="16680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="副本布怪MT试算" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="977">
   <si>
     <t>森林</t>
   </si>
@@ -2775,10 +2775,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>debuff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>女妖</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2819,10 +2815,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>治疗</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>单体纯治疗（自动）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2839,10 +2831,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法术</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>单体火法术纯伤害（手动，点到爽型）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2879,10 +2867,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>物理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>群体嘲讽（自动）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2995,10 +2979,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>给敌方群体上暗属性强dot（自动）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3016,10 +2996,6 @@
   </si>
   <si>
     <t>前置技能，敌方群体防御下降</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3323,10 +3299,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>物理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>单体物理纯伤害（手动，点到爽型）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3544,6 +3516,61 @@
   </si>
   <si>
     <t>赛布勒斯（黑法D）</t>
+  </si>
+  <si>
+    <t>火刺壳（红T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal（性格为Support）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5579,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5731,7 +5758,7 @@
       </c>
       <c r="U3" s="48">
         <f>COUNTIF($I$3:$I$58,O3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>159</v>
@@ -5821,7 +5848,7 @@
         <v>407</v>
       </c>
       <c r="AC4" s="45" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="AD4" s="45" t="s">
         <v>405</v>
@@ -5848,7 +5875,7 @@
         <v>80</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>683</v>
+        <v>963</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
@@ -6033,7 +6060,7 @@
         <v>77</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>77</v>
@@ -6391,7 +6418,7 @@
       <c r="T14" s="54"/>
       <c r="U14" s="55">
         <f>SUM(U3:U13)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z14" s="10" t="s">
         <v>198</v>
@@ -6403,7 +6430,7 @@
         <v>392</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.15">
@@ -6542,7 +6569,7 @@
         <v>80</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>89</v>
@@ -6658,7 +6685,7 @@
         <v>746</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="P20" s="80" t="s">
         <v>763</v>
@@ -6708,7 +6735,7 @@
         <v>746</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="P21" s="80" t="s">
         <v>763</v>
@@ -6785,7 +6812,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>80</v>
@@ -7179,7 +7206,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>80</v>
@@ -7997,7 +8024,7 @@
         <v>79</v>
       </c>
       <c r="I48" s="51" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="M48" s="52" t="s">
         <v>759</v>
@@ -8026,7 +8053,7 @@
         <v>80</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>77</v>
@@ -8057,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>89</v>
@@ -9220,8 +9247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P307"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I155" sqref="I155:L155"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11950,7 +11977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -13382,2053 +13409,3221 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="28"/>
-    <col min="2" max="2" width="12.375" style="28" customWidth="1"/>
-    <col min="3" max="6" width="11" style="28"/>
-    <col min="7" max="7" width="34.375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="28" customWidth="1"/>
-    <col min="9" max="10" width="11" style="28" customWidth="1"/>
-    <col min="11" max="11" width="78.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="28"/>
+    <col min="2" max="8" width="12.375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="11" style="28" customWidth="1"/>
+    <col min="13" max="13" width="34.375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="28" customWidth="1"/>
+    <col min="15" max="16" width="11" style="28" customWidth="1"/>
+    <col min="17" max="17" width="78.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="67.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="J1" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>904</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+      <c r="K2" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>906</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="I3" s="28">
+        <v>2</v>
+      </c>
+      <c r="J3" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
         <v>907</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1.03</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="H4" s="28">
+        <f>C4*D4*E4*F4*G4</f>
+        <v>1.08047</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="L4" s="28">
+        <v>45</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q4" s="38" t="s">
         <v>908</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="R4" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>910</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="E2" s="28" t="s">
-        <v>911</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>912</v>
-      </c>
-      <c r="C3" s="28">
-        <v>2</v>
-      </c>
-      <c r="D3" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>913</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="F4" s="28">
-        <v>45</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>914</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>915</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="M4" s="28" t="s">
+      <c r="S4" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1.06</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" ref="H5:H68" si="0">C5*D5*E5*F5*G5</f>
+        <v>1.0801399999999999</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="F5" s="28">
+      <c r="L5" s="28">
         <v>41</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="M5" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>911</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>912</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L6" s="28">
+        <v>35</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>913</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>914</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1.038</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="0"/>
+        <v>1.07952</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="L7" s="28">
+        <v>41</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>916</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="28">
+        <v>70</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <v>15</v>
+      </c>
+      <c r="J9" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L10" s="28">
+        <v>40</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>787</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>917</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L11" s="28">
+        <v>10</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="P11" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L12" s="28">
+        <v>10</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L13" s="28">
+        <v>10</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q13" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>773</v>
-      </c>
-      <c r="L5" s="28" t="s">
+      <c r="R13" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
         <v>918</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L14" s="28">
+        <v>10</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L15" s="28">
+        <v>35</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O15" s="28" t="s">
         <v>919</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F6" s="28">
-        <v>35</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>776</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>920</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>921</v>
-      </c>
-      <c r="M6" s="28" t="s">
+      <c r="P15" s="28" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="S15" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="N6" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>778</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="F7" s="28">
-        <v>41</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>922</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="28">
-        <v>70</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="C9" s="28">
-        <v>15</v>
-      </c>
-      <c r="D9" s="28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>786</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F10" s="28">
-        <v>40</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>787</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>789</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>790</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>924</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F11" s="28">
-        <v>10</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>812</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>925</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F12" s="28">
-        <v>10</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>925</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F13" s="28">
-        <v>10</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>796</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>925</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F14" s="28">
-        <v>10</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F15" s="28">
-        <v>35</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="F16" s="28">
+      <c r="L16" s="28">
         <v>10</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>800</v>
-      </c>
       <c r="M16" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="S16" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
+        <v>1</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="F17" s="28">
+      <c r="L17" s="28">
         <v>10</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="I17" s="28" t="s">
+      <c r="M17" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="O17" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K17" s="21" t="s">
+      <c r="P17" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="28">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L19" s="28">
+        <v>20</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="R19" s="33" t="s">
         <v>801</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="S19" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="28">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L20" s="28">
+        <v>20</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q20" s="28" t="s">
         <v>800</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="R20" s="38" t="s">
+        <v>802</v>
+      </c>
+      <c r="S20" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>924</v>
-      </c>
-      <c r="E19" s="28" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="39" t="s">
+        <v>803</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28">
+        <v>1</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="F19" s="28">
+      <c r="L21" s="28">
         <v>20</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="M21" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="R21" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="I19" s="28" t="s">
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L23" s="28">
+        <v>30</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>922</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H24" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L25" s="28">
+        <v>35</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="O25" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>805</v>
-      </c>
-      <c r="M19" s="28" t="s">
+      <c r="P25" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>809</v>
+      </c>
+      <c r="V25" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>927</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F20" s="28">
-        <v>20</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>802</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>806</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
-        <v>807</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F21" s="28">
-        <v>20</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>802</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
-        <v>809</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F23" s="28">
-        <v>30</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>928</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>929</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>930</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
-        <v>810</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F25" s="28">
-        <v>35</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>812</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>813</v>
-      </c>
-      <c r="P25" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="C26" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K26" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="F26" s="28">
+      <c r="L26" s="28">
         <v>30</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="M26" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>924</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
+        <v>912</v>
+      </c>
+      <c r="C27" s="28">
+        <v>1</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="F27" s="28">
+        <v>1</v>
+      </c>
+      <c r="G27" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L27" s="28">
+        <v>30</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q27" s="38" t="s">
         <v>811</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="R27" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1</v>
+      </c>
+      <c r="F29" s="28">
+        <v>1</v>
+      </c>
+      <c r="G29" s="28">
+        <v>1</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="L29" s="28">
+        <v>20</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q29" s="38" t="s">
         <v>926</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K26" s="38" t="s">
+      <c r="R29" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="L26" s="38" t="s">
-        <v>931</v>
-      </c>
-      <c r="P26" s="28" t="s">
+      <c r="S29" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>919</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F27" s="28">
-        <v>30</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>815</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>816</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F29" s="28">
-        <v>20</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>932</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K29" s="38" t="s">
-        <v>933</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>818</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="39">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="E30" s="39">
+        <v>1</v>
+      </c>
+      <c r="F30" s="39">
+        <v>1</v>
+      </c>
+      <c r="G30" s="39">
+        <v>1</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="F30" s="28">
+      <c r="L30" s="28">
         <v>40</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>819</v>
-      </c>
-      <c r="I30" s="28" t="s">
+      <c r="M30" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="O30" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="J30" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>820</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>821</v>
-      </c>
-      <c r="M30" s="28" t="s">
+      <c r="P30" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="S30" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="28" t="s">
-        <v>934</v>
-      </c>
-      <c r="E31" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28">
+        <v>1</v>
+      </c>
+      <c r="G31" s="28">
+        <v>1</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="F31" s="28">
+      <c r="L31" s="28">
         <v>15</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>819</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K31" s="28" t="s">
+      <c r="M31" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q31" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="L31" s="38" t="s">
-        <v>822</v>
-      </c>
-      <c r="M31" s="28" t="s">
+      <c r="R31" s="38" t="s">
+        <v>818</v>
+      </c>
+      <c r="S31" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L32" s="33"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H32" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="C33" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="D33" s="28">
+        <v>1</v>
+      </c>
+      <c r="E33" s="28">
+        <v>1</v>
+      </c>
+      <c r="F33" s="28">
+        <v>1</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K33" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="F33" s="28">
+      <c r="L33" s="28">
         <v>40</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>823</v>
-      </c>
-      <c r="I33" s="28" t="s">
+      <c r="M33" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="O33" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>935</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>936</v>
-      </c>
-      <c r="M33" s="28" t="s">
+      <c r="P33" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>929</v>
+      </c>
+      <c r="S33" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B34" s="39"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C35" s="28">
+        <v>820</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="28">
         <v>5</v>
       </c>
-      <c r="D35" s="28">
+      <c r="J35" s="28">
         <v>6</v>
       </c>
-      <c r="L35" s="33"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B36" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="C36" s="39">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
+      <c r="E36" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="F36" s="39">
+        <v>1</v>
+      </c>
+      <c r="G36" s="39">
+        <v>1</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="K36" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="F36" s="28">
+      <c r="L36" s="28">
         <v>30</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="M36" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H37" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H38" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H39" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H40" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="42" t="s">
+        <v>930</v>
+      </c>
+      <c r="C41" s="39">
+        <v>1.02</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1.02</v>
+      </c>
+      <c r="E41" s="39">
+        <v>1</v>
+      </c>
+      <c r="F41" s="39">
+        <v>1</v>
+      </c>
+      <c r="G41" s="39">
+        <v>1</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L41" s="28">
+        <v>30</v>
+      </c>
+      <c r="M41" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="I36" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K36" s="38" t="s">
+      <c r="O41" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="42" t="s">
+        <v>930</v>
+      </c>
+      <c r="C42" s="39">
+        <v>1.02</v>
+      </c>
+      <c r="D42" s="39">
+        <v>1.02</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1</v>
+      </c>
+      <c r="F42" s="39">
+        <v>1</v>
+      </c>
+      <c r="G42" s="39">
+        <v>1</v>
+      </c>
+      <c r="H42" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L42" s="28">
+        <v>30</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="L36" s="38" t="s">
-        <v>827</v>
-      </c>
-      <c r="M36" s="28" t="s">
+      <c r="C43" s="39">
+        <v>1</v>
+      </c>
+      <c r="D43" s="28">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="F43" s="39">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L43" s="28">
+        <v>35</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="S43" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="42" t="s">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H44" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H45" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1.038</v>
+      </c>
+      <c r="F46" s="28">
+        <v>1</v>
+      </c>
+      <c r="G46" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="H46" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0799352000000002</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="L46" s="28">
+        <v>40</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="V46" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H47" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B48" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="C48" s="28">
+        <v>1</v>
+      </c>
+      <c r="D48" s="28">
+        <v>1</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1</v>
+      </c>
+      <c r="F48" s="28">
+        <v>1</v>
+      </c>
+      <c r="G48" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="H48" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="L48" s="28">
+        <v>25</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="O48" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q48" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="S48" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H49" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="H50" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="28">
+        <v>20</v>
+      </c>
+      <c r="J50" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H51" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F41" s="28">
-        <v>30</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="J41" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K41" s="21" t="s">
+      <c r="C52" s="8">
+        <v>1.038</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="28">
+        <f t="shared" si="0"/>
+        <v>1.07952</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L52" s="28">
+        <v>50</v>
+      </c>
+      <c r="M52" s="28" t="s">
         <v>938</v>
       </c>
-      <c r="L41" s="21" t="s">
-        <v>828</v>
-      </c>
-      <c r="M41" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="42" t="s">
-        <v>937</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F42" s="28">
-        <v>30</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="K42" s="21" t="s">
+      <c r="O52" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="R52" s="21" t="s">
         <v>939</v>
       </c>
-      <c r="L42" s="21" t="s">
-        <v>940</v>
-      </c>
-      <c r="M42" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F43" s="28">
-        <v>35</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="J43" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>833</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="M43" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="28" t="s">
-        <v>835</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>964</v>
-      </c>
-      <c r="F46" s="28">
-        <v>40</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>836</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="P46" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="F48" s="28">
-        <v>25</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>942</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="L48" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="M48" s="28" t="s">
+      <c r="S52" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>943</v>
-      </c>
-      <c r="C50" s="28">
-        <v>20</v>
-      </c>
-      <c r="D50" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F52" s="28">
-        <v>50</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>798</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="M52" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F53" s="28">
+      <c r="C53" s="8">
+        <v>1.038</v>
+      </c>
+      <c r="D53" s="39">
+        <v>1</v>
+      </c>
+      <c r="E53" s="39">
+        <v>1</v>
+      </c>
+      <c r="F53" s="39">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="H53" s="28">
+        <f t="shared" si="0"/>
+        <v>1.07952</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L53" s="28">
         <v>55</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="M53" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="O53" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q53" s="38" t="s">
+        <v>835</v>
+      </c>
+      <c r="R53" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1.038</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="H54" s="28">
+        <f t="shared" si="0"/>
+        <v>1.07952</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L54" s="28">
+        <v>50</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="O54" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="S54" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="C55" s="28">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1</v>
+      </c>
+      <c r="F55" s="28">
+        <v>1</v>
+      </c>
+      <c r="G55" s="28">
+        <v>1</v>
+      </c>
+      <c r="H55" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K55" s="28" t="s">
         <v>840</v>
       </c>
-      <c r="I53" s="28" t="s">
-        <v>798</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="K53" s="38" t="s">
+      <c r="L55" s="28">
+        <v>65</v>
+      </c>
+      <c r="M55" s="28" t="s">
         <v>841</v>
       </c>
-      <c r="L53" s="38" t="s">
+      <c r="O55" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="M53" s="28" t="s">
+      <c r="P55" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="S55" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F54" s="28">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="C56" s="28">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="D56" s="28">
+        <v>1</v>
+      </c>
+      <c r="E56" s="28">
+        <v>1</v>
+      </c>
+      <c r="F56" s="28">
+        <v>1</v>
+      </c>
+      <c r="G56" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="H56" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1199600000000001</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L56" s="28">
+        <v>70</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>943</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>845</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="S56" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="H57" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0692000000000002</v>
+      </c>
+      <c r="K57" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L57" s="28">
         <v>50</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="M57" s="28" t="s">
+        <v>944</v>
+      </c>
+      <c r="O57" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="P57" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="S57" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F58" s="10">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="H58" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0692000000000002</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L58" s="28">
+        <v>50</v>
+      </c>
+      <c r="M58" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="O58" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="P58" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="S58" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+      <c r="H59" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0815000000000001</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L59" s="28">
+        <v>60</v>
+      </c>
+      <c r="M59" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="R59" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="S59" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H60" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+      <c r="H61" s="28">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L61" s="28">
+        <v>55</v>
+      </c>
+      <c r="M61" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="O61" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="P61" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="S61" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B62" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="C62" s="28">
+        <v>1</v>
+      </c>
+      <c r="D62" s="28">
+        <v>1</v>
+      </c>
+      <c r="E62" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F62" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="G62" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="H62" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1668800000000001</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="L62" s="28">
+        <v>90</v>
+      </c>
+      <c r="M62" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="P62" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q62" s="21" t="s">
         <v>947</v>
       </c>
-      <c r="I54" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="J54" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>844</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>845</v>
-      </c>
-      <c r="M54" s="28" t="s">
+      <c r="R62" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="S62" s="28" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="28" t="s">
-        <v>948</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="F55" s="28">
-        <v>65</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>849</v>
-      </c>
-      <c r="L55" s="21" t="s">
-        <v>850</v>
-      </c>
-      <c r="M55" s="28" t="s">
+      <c r="T62" s="28" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="F56" s="28">
-        <v>70</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>950</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>851</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="M56" s="28" t="s">
+      <c r="V62" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F57" s="28">
-        <v>50</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>951</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F58" s="28">
-        <v>50</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>855</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>857</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="M58" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F59" s="28">
-        <v>60</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>860</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>861</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>862</v>
-      </c>
-      <c r="M59" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="F61" s="28">
-        <v>55</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>952</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="J61" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="L61" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="M61" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="28" t="s">
-        <v>866</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>867</v>
-      </c>
-      <c r="F62" s="28">
-        <v>90</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>953</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>954</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>868</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>774</v>
-      </c>
-      <c r="N62" s="28" t="s">
-        <v>774</v>
-      </c>
-      <c r="P62" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H63" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B64" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>846</v>
+      <c r="C64" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="D64" s="28">
+        <v>1</v>
+      </c>
+      <c r="E64" s="28">
+        <v>1</v>
       </c>
       <c r="F64" s="28">
+        <v>1</v>
+      </c>
+      <c r="G64" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H64" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L64" s="28">
         <v>70</v>
       </c>
-      <c r="G64" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="J64" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>955</v>
-      </c>
-      <c r="L64" s="21" t="s">
-        <v>870</v>
-      </c>
-      <c r="N64" s="28" t="s">
+      <c r="M64" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="O64" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="R64" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="T64" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P64" s="28" t="s">
+      <c r="V64" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B65" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>846</v>
+      <c r="C65" s="28">
+        <v>1</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E65" s="28">
+        <v>1</v>
       </c>
       <c r="F65" s="28">
+        <v>1</v>
+      </c>
+      <c r="G65" s="28">
+        <v>1</v>
+      </c>
+      <c r="H65" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L65" s="28">
         <v>70</v>
       </c>
-      <c r="G65" s="28" t="s">
-        <v>871</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="J65" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>873</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>956</v>
-      </c>
       <c r="M65" s="28" t="s">
+        <v>865</v>
+      </c>
+      <c r="O65" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="P65" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="R65" s="21" t="s">
+        <v>949</v>
+      </c>
+      <c r="S65" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="T65" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P65" s="28" t="s">
+      <c r="V65" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H66" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B67" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>846</v>
+      <c r="C67" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="D67" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E67" s="28">
+        <v>1.08</v>
       </c>
       <c r="F67" s="28">
+        <v>1</v>
+      </c>
+      <c r="G67" s="28">
+        <v>1.07</v>
+      </c>
+      <c r="H67" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1232432000000003</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L67" s="28">
         <v>75</v>
       </c>
-      <c r="G67" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="J67" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>875</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>876</v>
-      </c>
       <c r="M67" s="28" t="s">
+        <v>868</v>
+      </c>
+      <c r="O67" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="P67" s="28" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q67" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="R67" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="S67" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N67" s="28" t="s">
+      <c r="T67" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="O67" s="28" t="s">
+      <c r="U67" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P67" s="28" t="s">
+      <c r="V67" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H68" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>775</v>
-      </c>
-      <c r="F69" s="28">
+        <v>871</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
+      <c r="H69" s="28">
+        <f t="shared" ref="H69:H83" si="1">C69*D69*E69*F69*G69</f>
+        <v>1.04</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="L69" s="28">
         <v>35</v>
       </c>
-      <c r="G69" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K69" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L69" s="21" t="s">
+      <c r="M69" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="P69" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q69" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="R69" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="M69" s="28" t="s">
+      <c r="S69" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="O69" s="28" t="s">
+      <c r="U69" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P69" s="28" t="s">
+      <c r="V69" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>775</v>
-      </c>
-      <c r="F70" s="28">
+        <v>871</v>
+      </c>
+      <c r="C70" s="10">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1</v>
+      </c>
+      <c r="H70" s="28">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="L70" s="28">
         <v>35</v>
       </c>
-      <c r="G70" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="J70" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>794</v>
-      </c>
-      <c r="L70" s="28" t="s">
+      <c r="M70" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q70" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="R70" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="M70" s="28" t="s">
+      <c r="S70" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="O70" s="28" t="s">
+      <c r="U70" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P70" s="28" t="s">
+      <c r="V70" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H71" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>879</v>
-      </c>
-      <c r="C72" s="28">
+        <v>873</v>
+      </c>
+      <c r="H72" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="28">
         <v>4</v>
       </c>
-      <c r="D72" s="28">
+      <c r="J72" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>867</v>
-      </c>
-      <c r="F73" s="28">
+        <v>874</v>
+      </c>
+      <c r="C73" s="18">
+        <v>1</v>
+      </c>
+      <c r="D73" s="18">
+        <v>1</v>
+      </c>
+      <c r="E73" s="18">
+        <v>1</v>
+      </c>
+      <c r="F73" s="18">
+        <v>1</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1.08</v>
+      </c>
+      <c r="H73" s="28">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="K73" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="L73" s="28">
         <v>90</v>
       </c>
-      <c r="G73" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>831</v>
-      </c>
-      <c r="J73" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="L73" s="21" t="s">
-        <v>882</v>
-      </c>
       <c r="M73" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="P73" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q73" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="S73" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N73" s="28" t="s">
+      <c r="T73" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P73" s="28" t="s">
+      <c r="V73" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H74" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" s="18" t="s">
-        <v>883</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>867</v>
-      </c>
-      <c r="F75" s="28">
+        <v>877</v>
+      </c>
+      <c r="C75" s="18">
+        <v>1</v>
+      </c>
+      <c r="D75" s="18">
+        <v>1</v>
+      </c>
+      <c r="E75" s="18">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18">
+        <v>1</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1.08</v>
+      </c>
+      <c r="H75" s="28">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="K75" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="L75" s="28">
         <v>85</v>
       </c>
-      <c r="G75" s="28" t="s">
-        <v>884</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>959</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>885</v>
-      </c>
       <c r="M75" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q75" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="R75" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="S75" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N75" s="28" t="s">
+      <c r="T75" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P75" s="28" t="s">
+      <c r="V75" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" s="18"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>867</v>
-      </c>
-      <c r="F77" s="28">
+        <v>853</v>
+      </c>
+      <c r="C77" s="18">
+        <v>1.05</v>
+      </c>
+      <c r="D77" s="18">
+        <v>1.03</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18">
+        <v>1.05</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1.05</v>
+      </c>
+      <c r="H77" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1923537500000003</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="L77" s="28">
         <v>95</v>
       </c>
-      <c r="G77" s="28" t="s">
-        <v>886</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="J77" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="K77" s="21" t="s">
-        <v>887</v>
-      </c>
-      <c r="L77" s="21" t="s">
-        <v>888</v>
-      </c>
       <c r="M77" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="O77" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="P77" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q77" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="R77" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="S77" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N77" s="28" t="s">
+      <c r="T77" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P77" s="28" t="s">
+      <c r="V77" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" s="18"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" s="18" t="s">
-        <v>889</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="F79" s="28">
+        <v>883</v>
+      </c>
+      <c r="C79" s="18">
+        <v>1</v>
+      </c>
+      <c r="D79" s="18">
+        <v>1</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1.05</v>
+      </c>
+      <c r="F79" s="18">
+        <v>1</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1.05</v>
+      </c>
+      <c r="H79" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1025</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L79" s="28">
         <v>80</v>
       </c>
-      <c r="G79" s="28" t="s">
-        <v>890</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="J79" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>960</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>961</v>
-      </c>
       <c r="M79" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q79" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="R79" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="S79" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N79" s="28" t="s">
+      <c r="T79" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P79" s="28" t="s">
+      <c r="V79" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H80" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="F81" s="28">
+        <v>885</v>
+      </c>
+      <c r="C81" s="21">
+        <v>1.08</v>
+      </c>
+      <c r="D81" s="21">
+        <v>1</v>
+      </c>
+      <c r="E81" s="21">
+        <v>1</v>
+      </c>
+      <c r="F81" s="21">
+        <v>1.06</v>
+      </c>
+      <c r="G81" s="21">
+        <v>1</v>
+      </c>
+      <c r="H81" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1448</v>
+      </c>
+      <c r="K81" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L81" s="28">
         <v>75</v>
       </c>
-      <c r="G81" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="J81" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K81" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="L81" s="21" t="s">
-        <v>963</v>
-      </c>
       <c r="M81" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="O81" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="P81" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q81" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="R81" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="S81" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="N81" s="28" t="s">
+      <c r="T81" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="P81" s="28" t="s">
+      <c r="V81" s="28" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="E83" s="28" t="s">
-        <v>867</v>
+      <c r="C83" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="D83" s="28">
+        <v>1</v>
+      </c>
+      <c r="E83" s="28">
+        <v>1</v>
       </c>
       <c r="F83" s="28">
+        <v>1</v>
+      </c>
+      <c r="G83" s="28">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H83" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1760000000000002</v>
+      </c>
+      <c r="K83" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="L83" s="28">
         <v>95</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="M83" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="O83" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="P83" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q83" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="R83" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="S83" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="T83" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="U83" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="V83" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="I84" s="28">
+        <v>10</v>
+      </c>
+      <c r="J84" s="28">
+        <v>0</v>
+      </c>
+      <c r="K84" s="28" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+      <c r="M85" s="28" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+      <c r="M86" s="28" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+      <c r="M87" s="28" t="s">
         <v>893</v>
       </c>
-      <c r="I83" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="J83" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="K83" s="21" t="s">
-        <v>894</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="M83" s="28" t="s">
-        <v>774</v>
-      </c>
-      <c r="N83" s="28" t="s">
-        <v>774</v>
-      </c>
-      <c r="O83" s="28" t="s">
-        <v>774</v>
-      </c>
-      <c r="P83" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
-        <v>896</v>
-      </c>
-      <c r="C84" s="28">
-        <v>10</v>
-      </c>
-      <c r="D84" s="28">
-        <v>0</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-      <c r="G85" s="28" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="G86" s="28" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-      <c r="G87" s="28" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="C89" s="28">
+      <c r="I89" s="28">
         <v>5</v>
       </c>
-      <c r="D89" s="28">
+      <c r="J89" s="28">
         <v>0</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="K89" s="28" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="C94" s="28">
-        <f>SUM(C3:C89)</f>
+      <c r="I94" s="28">
+        <f>SUM(I3:I89)</f>
         <v>61</v>
       </c>
-      <c r="D94" s="28">
-        <f>SUM(D3:D89)</f>
+      <c r="J94" s="28">
+        <f>SUM(J3:J89)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="29" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="C96" s="29" t="s">
-        <v>779</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>867</v>
-      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
       <c r="F96" s="29"/>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="K96" s="29" t="s">
+        <v>861</v>
+      </c>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A97" s="28">
+        <f>COUNTIF($K$4:$K$83,A96)</f>
+        <v>11</v>
+      </c>
+      <c r="B97" s="28">
+        <f t="shared" ref="B97:K97" si="2">COUNTIF($K$4:$K$83,B96)</f>
+        <v>16</v>
+      </c>
+      <c r="I97" s="28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J97" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K97" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M97" s="28">
+        <f>COUNTIF($K$4:$K$83,M96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" s="29" t="s">
+        <v>895</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29" t="s">
+        <v>897</v>
+      </c>
+      <c r="J98" s="29" t="s">
+        <v>898</v>
+      </c>
+      <c r="K98" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="28">
-        <f>COUNTIF($E$4:$E$83,A96)</f>
-        <v>11</v>
-      </c>
-      <c r="B97" s="28">
-        <f t="shared" ref="B97:E97" si="0">COUNTIF($E$4:$E$83,B96)</f>
-        <v>16</v>
-      </c>
-      <c r="C97" s="28">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D97" s="28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E97" s="28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G97" s="28">
-        <f>COUNTIF($E$4:$E$83,G96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="29" t="s">
-        <v>901</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>902</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>903</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>904</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>905</v>
-      </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:20" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="29">
         <v>5</v>
       </c>
       <c r="B100" s="29">
         <v>10</v>
       </c>
-      <c r="C100" s="29">
+      <c r="I100" s="29">
         <v>15</v>
       </c>
-      <c r="D100" s="29">
+      <c r="J100" s="29">
         <v>20</v>
       </c>
-      <c r="E100" s="29">
+      <c r="K100" s="29">
         <v>25</v>
       </c>
-      <c r="F100" s="29">
+      <c r="L100" s="29">
         <v>30</v>
       </c>
-      <c r="G100" s="29">
+      <c r="M100" s="29">
         <v>35</v>
       </c>
-      <c r="H100" s="29">
+      <c r="N100" s="29">
         <v>40</v>
       </c>
-      <c r="I100" s="29">
+      <c r="O100" s="29">
         <v>45</v>
       </c>
-      <c r="J100" s="29">
+      <c r="P100" s="29">
         <v>50</v>
       </c>
-      <c r="K100" s="29">
+      <c r="Q100" s="29">
         <v>55</v>
       </c>
-      <c r="L100" s="29">
+      <c r="R100" s="29">
         <v>60</v>
       </c>
-      <c r="M100" s="29">
+      <c r="S100" s="29">
         <v>65</v>
       </c>
-      <c r="N100" s="29">
+      <c r="T100" s="29">
         <v>70</v>
       </c>
-      <c r="O100" s="29">
+      <c r="U100" s="29">
         <v>75</v>
       </c>
-      <c r="P100" s="29">
+      <c r="V100" s="29">
         <v>80</v>
       </c>
-      <c r="Q100" s="29">
+      <c r="W100" s="29">
         <v>85</v>
       </c>
-      <c r="R100" s="29">
+      <c r="X100" s="29">
         <v>90</v>
       </c>
-      <c r="S100" s="29">
+      <c r="Y100" s="29">
         <v>95</v>
       </c>
-      <c r="T100" s="29">
+      <c r="Z100" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
-        <f>COUNTIF($F$4:$F$83,A100)</f>
+        <f>COUNTIF($L$4:$L$83,A100)</f>
         <v>0</v>
       </c>
       <c r="B101" s="28">
-        <f t="shared" ref="B101:T101" si="1">COUNTIF($F$4:$F$83,B100)</f>
+        <f t="shared" ref="B101:Z101" si="3">COUNTIF($L$4:$L$83,B100)</f>
         <v>6</v>
       </c>
-      <c r="C101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D101" s="28">
-        <f t="shared" si="1"/>
+      <c r="I101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="28">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F101" s="28">
-        <f t="shared" si="1"/>
+      <c r="K101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L101" s="28">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G101" s="28">
-        <f t="shared" si="1"/>
+      <c r="M101" s="28">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H101" s="28">
-        <f t="shared" si="1"/>
+      <c r="N101" s="28">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J101" s="28">
-        <f t="shared" si="1"/>
+      <c r="O101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="28">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K101" s="28">
-        <f t="shared" si="1"/>
+      <c r="Q101" s="28">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N101" s="28">
-        <f t="shared" si="1"/>
+      <c r="R101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T101" s="28">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O101" s="28">
-        <f t="shared" si="1"/>
+      <c r="U101" s="28">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q101" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R101" s="28">
-        <f t="shared" si="1"/>
+      <c r="V101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W101" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X101" s="28">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S101" s="28">
-        <f t="shared" si="1"/>
+      <c r="Y101" s="28">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="T101" s="28">
-        <f t="shared" si="1"/>
+      <c r="Z101" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
